--- a/Test.xlsx
+++ b/Test.xlsx
@@ -7267,6 +7267,23 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="T32:V32"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -7833,6 +7850,15 @@
       <c r="H62" s="364"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -8409,6 +8435,15 @@
       <c r="H62" s="393"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -8975,6 +9010,15 @@
       <c r="H62" s="422"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -9551,6 +9595,15 @@
       <c r="H62" s="451"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -10142,6 +10195,15 @@
       <c r="H62" s="124"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -10710,6 +10772,15 @@
       <c r="H61" s="155"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B57:H61"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -11306,6 +11377,15 @@
       <c r="H62" s="186"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -11891,6 +11971,15 @@
       <c r="H62" s="217"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -12482,6 +12571,15 @@
       <c r="H62" s="248"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -13052,6 +13150,15 @@
       <c r="H62" s="277"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -13628,6 +13735,15 @@
       <c r="H62" s="306"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -14204,6 +14320,15 @@
       <c r="H62" s="335"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B58:H62"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -294,7 +294,7 @@
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
-  <fonts count="452">
+  <fonts count="453">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1358,6 +1358,13 @@
     </font>
     <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="7"/>
       <main:color theme="1"/>
       <main:name val="Calibri"/>
       <main:family val="2"/>
@@ -4276,7 +4283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -4656,703 +4663,706 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="154" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="155" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="156" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="157" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="157" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="158" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="159" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="159" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="160" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="160" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="162" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="163" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="164" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="165" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="166" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="167" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="168" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="169" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="170" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="161" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="163" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="164" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="165" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="166" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="167" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="168" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="169" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="170" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="171" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="171" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="172" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="172" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="173" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="174" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="175" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="176" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="177" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="178" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="179" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="180" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="181" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="182" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="183" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="184" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="173" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="174" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="175" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="176" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="177" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="178" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="179" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="180" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="181" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="182" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="183" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="184" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="185" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="186" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="187" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="188" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="188" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="189" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="190" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="190" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="191" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="191" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="193" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="194" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="195" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="196" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="197" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="198" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="199" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="200" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="201" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="192" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="194" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="195" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="196" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="197" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="198" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="199" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="200" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="201" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="202" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="202" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="203" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="203" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="204" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="205" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="206" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="207" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="208" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="209" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="210" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="211" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="212" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="213" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="214" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="215" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="204" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="205" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="206" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="207" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="208" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="209" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="210" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="211" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="212" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="213" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="214" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="215" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="216" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="217" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="218" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="219" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="219" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="220" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="221" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="221" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="222" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="222" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="224" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="225" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="226" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="227" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="228" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="229" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="230" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="231" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="232" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="223" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="225" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="226" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="227" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="228" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="229" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="230" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="231" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="232" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="233" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="233" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="234" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="234" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="235" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="236" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="237" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="238" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="239" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="240" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="241" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="242" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="243" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="244" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="245" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="246" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="235" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="236" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="237" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="238" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="239" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="240" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="241" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="242" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="243" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="244" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="245" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="246" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="247" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="248" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="249" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="250" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="251" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="250" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="251" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="252" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="252" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="253" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="254" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="255" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="256" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="257" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="258" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="259" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="260" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="261" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="253" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="254" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="255" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="256" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="257" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="258" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="259" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="260" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="261" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="262" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="262" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="263" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="263" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="264" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="264" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="265" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="266" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="267" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="268" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="269" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="270" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="271" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="272" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="273" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="274" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="275" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="276" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="265" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="266" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="267" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="268" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="269" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="270" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="271" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="272" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="273" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="274" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="275" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="276" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="277" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="278" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="279" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="280" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="279" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="280" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="281" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="281" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="282" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="283" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="284" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="285" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="286" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="287" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="288" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="289" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="290" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="282" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="283" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="284" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="285" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="286" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="287" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="288" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="289" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="290" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="291" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="291" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="292" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="292" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="293" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="294" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="295" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="296" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="297" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="298" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="299" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="300" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="301" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="302" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="303" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="304" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="293" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="294" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="295" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="296" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="297" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="298" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="299" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="300" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="301" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="302" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="303" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="304" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="305" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="306" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="307" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="308" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="309" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="308" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="309" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="310" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="310" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="311" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="312" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="313" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="314" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="315" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="316" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="317" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="318" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="319" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="311" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="312" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="313" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="314" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="315" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="316" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="317" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="318" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="319" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="320" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="320" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="321" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="321" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="322" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="323" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="324" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="325" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="326" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="327" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="328" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="329" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="330" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="331" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="332" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="333" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="322" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="323" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="324" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="325" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="326" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="327" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="328" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="329" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="330" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="331" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="332" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="333" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="334" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="335" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="336" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="337" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="338" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="337" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="338" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="339" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="339" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="340" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="341" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="342" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="343" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="344" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="345" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="346" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="347" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="348" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="340" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="341" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="342" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="343" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="344" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="345" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="346" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="347" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="348" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="349" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="349" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="350" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="350" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="351" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="352" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="353" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="354" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="355" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="356" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="357" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="358" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="359" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="360" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="361" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="362" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="351" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="352" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="353" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="354" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="355" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="356" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="357" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="358" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="359" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="360" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="361" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="362" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="363" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="364" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="365" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="366" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="367" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="366" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="367" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="368" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="368" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="369" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="370" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="371" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="372" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="373" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="374" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="375" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="376" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="377" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="369" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="370" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="371" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="372" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="373" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="374" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="375" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="376" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="377" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="378" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="378" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="379" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="379" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="380" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="381" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="382" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="383" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="384" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="385" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="386" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="387" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="388" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="389" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="390" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="391" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="380" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="381" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="382" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="383" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="384" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="385" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="386" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="387" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="388" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="389" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="390" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="391" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="392" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="393" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="394" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="395" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="396" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="395" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="396" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="397" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="397" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="398" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="399" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="400" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="401" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="402" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="403" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="404" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="405" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="406" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="398" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="399" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="400" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="401" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="402" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="403" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="404" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="405" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="406" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="407" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="407" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="408" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="408" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="409" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="410" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="411" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="412" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="413" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="414" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="415" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="416" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="417" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="418" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="419" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="420" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="409" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="410" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="411" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="412" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="413" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="414" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="415" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="416" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="417" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="418" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="419" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="420" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="421" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="422" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="423" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="424" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="425" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="424" fillId="3" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="425" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="426" fillId="8" borderId="38" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="426" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="427" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="428" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="429" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="430" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="431" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="432" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="433" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="434" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="435" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="427" fillId="10" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="428" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="429" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="430" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="431" fillId="12" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="432" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="433" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="434" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="435" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="436" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="436" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" fontId="437" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="437" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="438" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="439" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="440" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="441" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="442" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="443" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="444" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="445" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="446" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="447" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="448" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
-      <main:alignment horizontal="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="449" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="438" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="439" fillId="11" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="440" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="441" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="442" fillId="12" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="443" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="2" fontId="444" fillId="11" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="445" fillId="11" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="20" fontId="446" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="447" fillId="11" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="448" fillId="11" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="1" applyBorder="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="20" fontId="449" fillId="11" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="1" applyFont="true">
       <main:alignment horizontal="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="450" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="451" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7316,538 +7326,538 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="336"/>
-      <c r="K2" s="337" t="s">
+      <c r="J2" s="337"/>
+      <c r="K2" s="338" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="338"/>
-      <c r="K3" s="337" t="s">
+      <c r="J3" s="339"/>
+      <c r="K3" s="338" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="339"/>
-      <c r="K4" s="337" t="s">
+      <c r="J4" s="340"/>
+      <c r="K4" s="338" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="340" t="s">
+      <c r="B6" s="341" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="341"/>
-      <c r="D6" s="341"/>
-      <c r="E6" s="341"/>
-      <c r="F6" s="341"/>
-      <c r="G6" s="341"/>
-      <c r="H6" s="342"/>
-      <c r="J6" s="343" t="s">
+      <c r="C6" s="342"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="342"/>
+      <c r="F6" s="342"/>
+      <c r="G6" s="342"/>
+      <c r="H6" s="343"/>
+      <c r="J6" s="344" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="343"/>
-      <c r="L6" s="343"/>
-      <c r="M6" s="343"/>
-      <c r="N6" s="343"/>
-      <c r="O6" s="343"/>
-      <c r="P6" s="344"/>
+      <c r="K6" s="344"/>
+      <c r="L6" s="344"/>
+      <c r="M6" s="344"/>
+      <c r="N6" s="344"/>
+      <c r="O6" s="344"/>
+      <c r="P6" s="345"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="345" t="s">
+      <c r="B8" s="346" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="346"/>
-      <c r="E8" s="347" t="s">
+      <c r="C8" s="347"/>
+      <c r="E8" s="348" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="348"/>
-      <c r="G8" s="348"/>
-      <c r="H8" s="348"/>
+      <c r="F8" s="349"/>
+      <c r="G8" s="349"/>
+      <c r="H8" s="349"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="345" t="s">
+      <c r="B9" s="346" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="346"/>
-      <c r="E9" s="347" t="s">
+      <c r="C9" s="347"/>
+      <c r="E9" s="348" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
-      <c r="H9" s="348"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="345" t="s">
+      <c r="B10" s="346" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="346"/>
-      <c r="E10" s="347" t="s">
+      <c r="C10" s="347"/>
+      <c r="E10" s="348" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="348"/>
-      <c r="G10" s="348"/>
-      <c r="H10" s="348"/>
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="349"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="346" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="346"/>
-      <c r="E11" s="347" t="s">
+      <c r="C11" s="347"/>
+      <c r="E11" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="349"/>
-      <c r="G11" s="348"/>
-      <c r="H11" s="348"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="349"/>
+      <c r="H11" s="349"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="350" t="s">
+      <c r="C14" s="351" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="350" t="s">
+      <c r="E14" s="351" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="351" t="s">
+      <c r="G14" s="352" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="351" t="s">
+      <c r="B15" s="352" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="350" t="s">
+      <c r="C15" s="351" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="350" t="s">
+      <c r="E15" s="351" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="352"/>
+      <c r="G15" s="353"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="353" t="n">
+      <c r="B16" s="354" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="354"/>
-      <c r="E16" s="354"/>
-      <c r="G16" s="352" t="n">
+      <c r="C16" s="355"/>
+      <c r="E16" s="355"/>
+      <c r="G16" s="353" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="353" t="n">
+      <c r="B17" s="354" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="354"/>
-      <c r="E17" s="354"/>
-      <c r="G17" s="352" t="n">
+      <c r="C17" s="355"/>
+      <c r="E17" s="355"/>
+      <c r="G17" s="353" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="353" t="n">
+      <c r="B18" s="354" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="354"/>
-      <c r="E18" s="354"/>
-      <c r="G18" s="352" t="n">
+      <c r="C18" s="355"/>
+      <c r="E18" s="355"/>
+      <c r="G18" s="353" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="353" t="n">
+      <c r="B19" s="354" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="354"/>
-      <c r="E19" s="354"/>
-      <c r="G19" s="352" t="n">
+      <c r="C19" s="355"/>
+      <c r="E19" s="355"/>
+      <c r="G19" s="353" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="353" t="n">
+      <c r="B20" s="354" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="G20" s="352" t="n">
+      <c r="C20" s="355"/>
+      <c r="E20" s="355"/>
+      <c r="G20" s="353" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="353" t="n">
+      <c r="B21" s="354" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="354"/>
-      <c r="E21" s="354"/>
-      <c r="G21" s="352" t="n">
+      <c r="C21" s="355"/>
+      <c r="E21" s="355"/>
+      <c r="G21" s="353" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="353" t="n">
+      <c r="B22" s="354" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="354"/>
-      <c r="E22" s="354"/>
-      <c r="G22" s="352" t="n">
+      <c r="C22" s="355"/>
+      <c r="E22" s="355"/>
+      <c r="G22" s="353" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="353" t="n">
+      <c r="B23" s="354" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="354"/>
-      <c r="E23" s="354"/>
-      <c r="G23" s="352" t="n">
+      <c r="C23" s="355"/>
+      <c r="E23" s="355"/>
+      <c r="G23" s="353" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="353" t="n">
+      <c r="B24" s="354" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="354"/>
-      <c r="E24" s="354"/>
-      <c r="G24" s="352" t="n">
+      <c r="C24" s="355"/>
+      <c r="E24" s="355"/>
+      <c r="G24" s="353" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="353" t="n">
+      <c r="B25" s="354" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="354"/>
-      <c r="E25" s="354"/>
-      <c r="G25" s="352" t="n">
+      <c r="C25" s="355"/>
+      <c r="E25" s="355"/>
+      <c r="G25" s="353" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="353" t="n">
+      <c r="B26" s="354" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="354"/>
-      <c r="E26" s="354"/>
-      <c r="G26" s="352" t="n">
+      <c r="C26" s="355"/>
+      <c r="E26" s="355"/>
+      <c r="G26" s="353" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="353" t="n">
+      <c r="B27" s="354" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="354"/>
-      <c r="E27" s="354"/>
-      <c r="G27" s="352" t="n">
+      <c r="C27" s="355"/>
+      <c r="E27" s="355"/>
+      <c r="G27" s="353" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="353" t="n">
+      <c r="B28" s="354" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="354"/>
-      <c r="E28" s="354"/>
-      <c r="G28" s="352" t="n">
+      <c r="C28" s="355"/>
+      <c r="E28" s="355"/>
+      <c r="G28" s="353" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="353" t="n">
+      <c r="B29" s="354" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="354"/>
-      <c r="E29" s="354"/>
-      <c r="G29" s="352" t="n">
+      <c r="C29" s="355"/>
+      <c r="E29" s="355"/>
+      <c r="G29" s="353" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="353" t="n">
+      <c r="B30" s="354" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="354"/>
-      <c r="E30" s="354"/>
-      <c r="G30" s="352" t="n">
+      <c r="C30" s="355"/>
+      <c r="E30" s="355"/>
+      <c r="G30" s="353" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="353" t="n">
+      <c r="B31" s="354" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="354"/>
-      <c r="E31" s="354"/>
-      <c r="G31" s="352" t="n">
+      <c r="C31" s="355"/>
+      <c r="E31" s="355"/>
+      <c r="G31" s="353" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="353" t="n">
+      <c r="B32" s="354" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="354"/>
-      <c r="E32" s="354"/>
-      <c r="G32" s="352" t="n">
+      <c r="C32" s="355"/>
+      <c r="E32" s="355"/>
+      <c r="G32" s="353" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="353" t="n">
+      <c r="B33" s="354" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="354"/>
-      <c r="E33" s="354"/>
-      <c r="G33" s="352" t="n">
+      <c r="C33" s="355"/>
+      <c r="E33" s="355"/>
+      <c r="G33" s="353" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="353" t="n">
+      <c r="B34" s="354" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="354"/>
-      <c r="E34" s="354"/>
-      <c r="G34" s="352" t="n">
+      <c r="C34" s="355"/>
+      <c r="E34" s="355"/>
+      <c r="G34" s="353" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="353" t="n">
+      <c r="B35" s="354" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="354"/>
-      <c r="E35" s="354"/>
-      <c r="G35" s="352" t="n">
+      <c r="C35" s="355"/>
+      <c r="E35" s="355"/>
+      <c r="G35" s="353" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="353" t="n">
+      <c r="B36" s="354" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="354"/>
-      <c r="E36" s="354"/>
-      <c r="G36" s="352" t="n">
+      <c r="C36" s="355"/>
+      <c r="E36" s="355"/>
+      <c r="G36" s="353" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="353" t="n">
+      <c r="B37" s="354" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="354"/>
-      <c r="E37" s="354"/>
-      <c r="G37" s="352" t="n">
+      <c r="C37" s="355"/>
+      <c r="E37" s="355"/>
+      <c r="G37" s="353" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="353" t="n">
+      <c r="B38" s="354" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="354"/>
-      <c r="E38" s="354"/>
-      <c r="G38" s="352" t="n">
+      <c r="C38" s="355"/>
+      <c r="E38" s="355"/>
+      <c r="G38" s="353" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="353" t="n">
+      <c r="B39" s="354" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="354"/>
-      <c r="E39" s="354"/>
-      <c r="G39" s="352" t="n">
+      <c r="C39" s="355"/>
+      <c r="E39" s="355"/>
+      <c r="G39" s="353" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="353" t="n">
+      <c r="B40" s="354" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="354"/>
-      <c r="E40" s="354"/>
-      <c r="G40" s="352" t="n">
+      <c r="C40" s="355"/>
+      <c r="E40" s="355"/>
+      <c r="G40" s="353" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="353" t="n">
+      <c r="B41" s="354" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="354"/>
-      <c r="E41" s="354"/>
-      <c r="G41" s="352" t="n">
+      <c r="C41" s="355"/>
+      <c r="E41" s="355"/>
+      <c r="G41" s="353" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="353" t="n">
+      <c r="B42" s="354" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="354"/>
-      <c r="E42" s="354"/>
-      <c r="G42" s="352" t="n">
+      <c r="C42" s="355"/>
+      <c r="E42" s="355"/>
+      <c r="G42" s="353" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="353" t="n">
+      <c r="B43" s="354" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="354"/>
-      <c r="E43" s="354"/>
-      <c r="G43" s="352" t="n">
+      <c r="C43" s="355"/>
+      <c r="E43" s="355"/>
+      <c r="G43" s="353" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="353" t="n">
+      <c r="B44" s="354" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="354"/>
-      <c r="E44" s="354"/>
-      <c r="G44" s="352" t="n">
+      <c r="C44" s="355"/>
+      <c r="E44" s="355"/>
+      <c r="G44" s="353" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="353" t="n">
+      <c r="B45" s="354" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="354"/>
-      <c r="E45" s="354"/>
-      <c r="G45" s="352" t="n">
+      <c r="C45" s="355"/>
+      <c r="E45" s="355"/>
+      <c r="G45" s="353" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46"/>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="355"/>
-      <c r="G47" s="356" t="n">
+      <c r="E47" s="356"/>
+      <c r="G47" s="357" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="356"/>
+      <c r="G49" s="357"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="357" t="s">
+      <c r="B51" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="358" t="s">
+      <c r="E51" s="359" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="357" t="s">
+      <c r="B54" s="358" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="359" t="n">
+      <c r="C54" s="360" t="n">
         <v>30.0</v>
       </c>
-      <c r="D54" s="360" t="s">
+      <c r="D54" s="361" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="361" t="s">
+      <c r="E54" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="362" t="s">
+      <c r="F54" s="363" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="363"/>
+      <c r="G54" s="364"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="364" t="s">
+      <c r="B58" s="365" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="364"/>
-      <c r="D58" s="364"/>
-      <c r="E58" s="364"/>
-      <c r="F58" s="364"/>
-      <c r="G58" s="364"/>
-      <c r="H58" s="364"/>
+      <c r="C58" s="365"/>
+      <c r="D58" s="365"/>
+      <c r="E58" s="365"/>
+      <c r="F58" s="365"/>
+      <c r="G58" s="365"/>
+      <c r="H58" s="365"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="364"/>
-      <c r="C59" s="364"/>
-      <c r="D59" s="364"/>
-      <c r="E59" s="364"/>
-      <c r="F59" s="364"/>
-      <c r="G59" s="364"/>
-      <c r="H59" s="364"/>
+      <c r="B59" s="365"/>
+      <c r="C59" s="365"/>
+      <c r="D59" s="365"/>
+      <c r="E59" s="365"/>
+      <c r="F59" s="365"/>
+      <c r="G59" s="365"/>
+      <c r="H59" s="365"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="364"/>
-      <c r="C60" s="364"/>
-      <c r="D60" s="364"/>
-      <c r="E60" s="364"/>
-      <c r="F60" s="364"/>
-      <c r="G60" s="364"/>
-      <c r="H60" s="364"/>
+      <c r="B60" s="365"/>
+      <c r="C60" s="365"/>
+      <c r="D60" s="365"/>
+      <c r="E60" s="365"/>
+      <c r="F60" s="365"/>
+      <c r="G60" s="365"/>
+      <c r="H60" s="365"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="364"/>
-      <c r="C61" s="364"/>
-      <c r="D61" s="364"/>
-      <c r="E61" s="364"/>
-      <c r="F61" s="364"/>
-      <c r="G61" s="364"/>
-      <c r="H61" s="364"/>
+      <c r="B61" s="365"/>
+      <c r="C61" s="365"/>
+      <c r="D61" s="365"/>
+      <c r="E61" s="365"/>
+      <c r="F61" s="365"/>
+      <c r="G61" s="365"/>
+      <c r="H61" s="365"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="364"/>
-      <c r="C62" s="364"/>
-      <c r="D62" s="364"/>
-      <c r="E62" s="364"/>
-      <c r="F62" s="364"/>
-      <c r="G62" s="364"/>
-      <c r="H62" s="364"/>
+      <c r="B62" s="365"/>
+      <c r="C62" s="365"/>
+      <c r="D62" s="365"/>
+      <c r="E62" s="365"/>
+      <c r="F62" s="365"/>
+      <c r="G62" s="365"/>
+      <c r="H62" s="365"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7891,548 +7901,548 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="365"/>
-      <c r="K2" s="366" t="s">
+      <c r="J2" s="366"/>
+      <c r="K2" s="367" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="367"/>
-      <c r="K3" s="366" t="s">
+      <c r="J3" s="368"/>
+      <c r="K3" s="367" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="368"/>
-      <c r="K4" s="366" t="s">
+      <c r="J4" s="369"/>
+      <c r="K4" s="367" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="369" t="s">
+      <c r="B6" s="370" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="370"/>
-      <c r="D6" s="370"/>
-      <c r="E6" s="370"/>
-      <c r="F6" s="370"/>
-      <c r="G6" s="370"/>
-      <c r="H6" s="371"/>
-      <c r="J6" s="372" t="s">
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="371"/>
+      <c r="H6" s="372"/>
+      <c r="J6" s="373" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="372"/>
-      <c r="L6" s="372"/>
-      <c r="M6" s="372"/>
-      <c r="N6" s="372"/>
-      <c r="O6" s="372"/>
-      <c r="P6" s="373"/>
+      <c r="K6" s="373"/>
+      <c r="L6" s="373"/>
+      <c r="M6" s="373"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
+      <c r="P6" s="374"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="374" t="s">
+      <c r="B8" s="375" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="375"/>
-      <c r="E8" s="376" t="s">
+      <c r="C8" s="376"/>
+      <c r="E8" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="377"/>
-      <c r="G8" s="377"/>
-      <c r="H8" s="377"/>
+      <c r="F8" s="378"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="378"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="374" t="s">
+      <c r="B9" s="375" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="375"/>
-      <c r="E9" s="376" t="s">
+      <c r="C9" s="376"/>
+      <c r="E9" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="377"/>
-      <c r="G9" s="377"/>
-      <c r="H9" s="377"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="378"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="374" t="s">
+      <c r="B10" s="375" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="375"/>
-      <c r="E10" s="376" t="s">
+      <c r="C10" s="376"/>
+      <c r="E10" s="377" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="377"/>
-      <c r="G10" s="377"/>
-      <c r="H10" s="377"/>
+      <c r="F10" s="378"/>
+      <c r="G10" s="378"/>
+      <c r="H10" s="378"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="374" t="s">
+      <c r="B11" s="375" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="375"/>
-      <c r="E11" s="376" t="s">
+      <c r="C11" s="376"/>
+      <c r="E11" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="378"/>
-      <c r="G11" s="377"/>
-      <c r="H11" s="377"/>
+      <c r="F11" s="379"/>
+      <c r="G11" s="378"/>
+      <c r="H11" s="378"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="379" t="s">
+      <c r="C14" s="380" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="379" t="s">
+      <c r="E14" s="380" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="380" t="s">
+      <c r="G14" s="381" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="380" t="s">
+      <c r="B15" s="381" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="379" t="s">
+      <c r="C15" s="380" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="379" t="s">
+      <c r="E15" s="380" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="381"/>
+      <c r="G15" s="382"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="382" t="n">
+      <c r="B16" s="383" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="383"/>
-      <c r="E16" s="383"/>
-      <c r="G16" s="381" t="n">
+      <c r="C16" s="384"/>
+      <c r="E16" s="384"/>
+      <c r="G16" s="382" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="382" t="n">
+      <c r="B17" s="383" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="383"/>
-      <c r="E17" s="383"/>
-      <c r="G17" s="381" t="n">
+      <c r="C17" s="384"/>
+      <c r="E17" s="384"/>
+      <c r="G17" s="382" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="382" t="n">
+      <c r="B18" s="383" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="383"/>
-      <c r="E18" s="383"/>
-      <c r="G18" s="381" t="n">
+      <c r="C18" s="384"/>
+      <c r="E18" s="384"/>
+      <c r="G18" s="382" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="382" t="n">
+      <c r="B19" s="383" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="383"/>
-      <c r="E19" s="383"/>
-      <c r="G19" s="381" t="n">
+      <c r="C19" s="384"/>
+      <c r="E19" s="384"/>
+      <c r="G19" s="382" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="382" t="n">
+      <c r="B20" s="383" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="383"/>
-      <c r="E20" s="383"/>
-      <c r="G20" s="381" t="n">
+      <c r="C20" s="384"/>
+      <c r="E20" s="384"/>
+      <c r="G20" s="382" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="382" t="n">
+      <c r="B21" s="383" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="383"/>
-      <c r="E21" s="383"/>
-      <c r="G21" s="381" t="n">
+      <c r="C21" s="384"/>
+      <c r="E21" s="384"/>
+      <c r="G21" s="382" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="382" t="n">
+      <c r="B22" s="383" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="383"/>
-      <c r="E22" s="383"/>
-      <c r="G22" s="381" t="n">
+      <c r="C22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="G22" s="382" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="382" t="n">
+      <c r="B23" s="383" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="G23" s="381" t="n">
+      <c r="C23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="G23" s="382" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="382" t="n">
+      <c r="B24" s="383" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="383"/>
-      <c r="E24" s="383"/>
-      <c r="G24" s="381" t="n">
+      <c r="C24" s="384"/>
+      <c r="E24" s="384"/>
+      <c r="G24" s="382" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="382" t="n">
+      <c r="B25" s="383" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="383"/>
-      <c r="E25" s="383"/>
-      <c r="G25" s="381" t="n">
+      <c r="C25" s="384"/>
+      <c r="E25" s="384"/>
+      <c r="G25" s="382" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="382" t="n">
+      <c r="B26" s="383" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="383"/>
-      <c r="E26" s="383"/>
-      <c r="G26" s="381" t="n">
+      <c r="C26" s="384"/>
+      <c r="E26" s="384"/>
+      <c r="G26" s="382" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="382" t="n">
+      <c r="B27" s="383" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="383"/>
-      <c r="E27" s="383"/>
-      <c r="G27" s="381" t="n">
+      <c r="C27" s="384"/>
+      <c r="E27" s="384"/>
+      <c r="G27" s="382" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="382" t="n">
+      <c r="B28" s="383" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="383"/>
-      <c r="E28" s="383"/>
-      <c r="G28" s="381" t="n">
+      <c r="C28" s="384"/>
+      <c r="E28" s="384"/>
+      <c r="G28" s="382" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="382" t="n">
+      <c r="B29" s="383" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="383"/>
-      <c r="E29" s="383"/>
-      <c r="G29" s="381" t="n">
+      <c r="C29" s="384"/>
+      <c r="E29" s="384"/>
+      <c r="G29" s="382" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="382" t="n">
+      <c r="B30" s="383" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="383"/>
-      <c r="E30" s="383"/>
-      <c r="G30" s="381" t="n">
+      <c r="C30" s="384"/>
+      <c r="E30" s="384"/>
+      <c r="G30" s="382" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="382" t="n">
+      <c r="B31" s="383" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="383"/>
-      <c r="E31" s="383"/>
-      <c r="G31" s="381" t="n">
+      <c r="C31" s="384"/>
+      <c r="E31" s="384"/>
+      <c r="G31" s="382" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="382" t="n">
+      <c r="B32" s="383" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="383"/>
-      <c r="E32" s="383"/>
-      <c r="G32" s="381" t="n">
+      <c r="C32" s="384"/>
+      <c r="E32" s="384"/>
+      <c r="G32" s="382" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="382" t="n">
+      <c r="B33" s="383" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="383"/>
-      <c r="E33" s="383"/>
-      <c r="G33" s="381" t="n">
+      <c r="C33" s="384"/>
+      <c r="E33" s="384"/>
+      <c r="G33" s="382" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="382" t="n">
+      <c r="B34" s="383" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="383"/>
-      <c r="E34" s="383"/>
-      <c r="G34" s="381" t="n">
+      <c r="C34" s="384"/>
+      <c r="E34" s="384"/>
+      <c r="G34" s="382" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="382" t="n">
+      <c r="B35" s="383" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="383"/>
-      <c r="E35" s="383"/>
-      <c r="G35" s="381" t="n">
+      <c r="C35" s="384"/>
+      <c r="E35" s="384"/>
+      <c r="G35" s="382" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="382" t="n">
+      <c r="B36" s="383" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="383"/>
-      <c r="E36" s="383"/>
-      <c r="G36" s="381" t="n">
+      <c r="C36" s="384"/>
+      <c r="E36" s="384"/>
+      <c r="G36" s="382" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="382" t="n">
+      <c r="B37" s="383" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="383"/>
-      <c r="E37" s="383"/>
-      <c r="G37" s="381" t="n">
+      <c r="C37" s="384"/>
+      <c r="E37" s="384"/>
+      <c r="G37" s="382" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="382" t="n">
+      <c r="B38" s="383" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="383"/>
-      <c r="E38" s="383"/>
-      <c r="G38" s="381" t="n">
+      <c r="C38" s="384"/>
+      <c r="E38" s="384"/>
+      <c r="G38" s="382" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="382" t="n">
+      <c r="B39" s="383" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="383"/>
-      <c r="E39" s="383"/>
-      <c r="G39" s="381" t="n">
+      <c r="C39" s="384"/>
+      <c r="E39" s="384"/>
+      <c r="G39" s="382" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="382" t="n">
+      <c r="B40" s="383" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="383"/>
-      <c r="E40" s="383"/>
-      <c r="G40" s="381" t="n">
+      <c r="C40" s="384"/>
+      <c r="E40" s="384"/>
+      <c r="G40" s="382" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="382" t="n">
+      <c r="B41" s="383" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="G41" s="381" t="n">
+      <c r="C41" s="384"/>
+      <c r="E41" s="384"/>
+      <c r="G41" s="382" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="382" t="n">
+      <c r="B42" s="383" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="383"/>
-      <c r="E42" s="383"/>
-      <c r="G42" s="381" t="n">
+      <c r="C42" s="384"/>
+      <c r="E42" s="384"/>
+      <c r="G42" s="382" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="382" t="n">
+      <c r="B43" s="383" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="G43" s="381" t="n">
+      <c r="C43" s="384"/>
+      <c r="E43" s="384"/>
+      <c r="G43" s="382" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="382" t="n">
+      <c r="B44" s="383" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="383"/>
-      <c r="E44" s="383"/>
-      <c r="G44" s="381" t="n">
+      <c r="C44" s="384"/>
+      <c r="E44" s="384"/>
+      <c r="G44" s="382" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="382" t="n">
+      <c r="B45" s="383" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="G45" s="381" t="n">
+      <c r="C45" s="384"/>
+      <c r="E45" s="384"/>
+      <c r="G45" s="382" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="382" t="n">
+      <c r="B46" s="383" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="383"/>
-      <c r="E46" s="383"/>
-      <c r="G46" s="381" t="n">
+      <c r="C46" s="384"/>
+      <c r="E46" s="384"/>
+      <c r="G46" s="382" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="384"/>
-      <c r="G47" s="385" t="n">
+      <c r="E47" s="385"/>
+      <c r="G47" s="386" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="385"/>
+      <c r="G49" s="386"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="386" t="s">
+      <c r="B51" s="387" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="387" t="s">
+      <c r="E51" s="388" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="386" t="s">
+      <c r="B54" s="387" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="388" t="n">
+      <c r="C54" s="389" t="n">
         <v>31.0</v>
       </c>
-      <c r="D54" s="389" t="s">
+      <c r="D54" s="390" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="390" t="s">
+      <c r="E54" s="391" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="391" t="s">
+      <c r="F54" s="392" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="392"/>
+      <c r="G54" s="393"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="393" t="s">
+      <c r="B58" s="394" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="393"/>
-      <c r="D58" s="393"/>
-      <c r="E58" s="393"/>
-      <c r="F58" s="393"/>
-      <c r="G58" s="393"/>
-      <c r="H58" s="393"/>
+      <c r="C58" s="394"/>
+      <c r="D58" s="394"/>
+      <c r="E58" s="394"/>
+      <c r="F58" s="394"/>
+      <c r="G58" s="394"/>
+      <c r="H58" s="394"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="393"/>
-      <c r="C59" s="393"/>
-      <c r="D59" s="393"/>
-      <c r="E59" s="393"/>
-      <c r="F59" s="393"/>
-      <c r="G59" s="393"/>
-      <c r="H59" s="393"/>
+      <c r="B59" s="394"/>
+      <c r="C59" s="394"/>
+      <c r="D59" s="394"/>
+      <c r="E59" s="394"/>
+      <c r="F59" s="394"/>
+      <c r="G59" s="394"/>
+      <c r="H59" s="394"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="393"/>
-      <c r="C60" s="393"/>
-      <c r="D60" s="393"/>
-      <c r="E60" s="393"/>
-      <c r="F60" s="393"/>
-      <c r="G60" s="393"/>
-      <c r="H60" s="393"/>
+      <c r="B60" s="394"/>
+      <c r="C60" s="394"/>
+      <c r="D60" s="394"/>
+      <c r="E60" s="394"/>
+      <c r="F60" s="394"/>
+      <c r="G60" s="394"/>
+      <c r="H60" s="394"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="393"/>
-      <c r="C61" s="393"/>
-      <c r="D61" s="393"/>
-      <c r="E61" s="393"/>
-      <c r="F61" s="393"/>
-      <c r="G61" s="393"/>
-      <c r="H61" s="393"/>
+      <c r="B61" s="394"/>
+      <c r="C61" s="394"/>
+      <c r="D61" s="394"/>
+      <c r="E61" s="394"/>
+      <c r="F61" s="394"/>
+      <c r="G61" s="394"/>
+      <c r="H61" s="394"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="393"/>
-      <c r="C62" s="393"/>
-      <c r="D62" s="393"/>
-      <c r="E62" s="393"/>
-      <c r="F62" s="393"/>
-      <c r="G62" s="393"/>
-      <c r="H62" s="393"/>
+      <c r="B62" s="394"/>
+      <c r="C62" s="394"/>
+      <c r="D62" s="394"/>
+      <c r="E62" s="394"/>
+      <c r="F62" s="394"/>
+      <c r="G62" s="394"/>
+      <c r="H62" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8476,538 +8486,538 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="394"/>
-      <c r="K2" s="395" t="s">
+      <c r="J2" s="395"/>
+      <c r="K2" s="396" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="396"/>
-      <c r="K3" s="395" t="s">
+      <c r="J3" s="397"/>
+      <c r="K3" s="396" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="397"/>
-      <c r="K4" s="395" t="s">
+      <c r="J4" s="398"/>
+      <c r="K4" s="396" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="398" t="s">
+      <c r="B6" s="399" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
-      <c r="G6" s="399"/>
-      <c r="H6" s="400"/>
-      <c r="J6" s="401" t="s">
+      <c r="C6" s="400"/>
+      <c r="D6" s="400"/>
+      <c r="E6" s="400"/>
+      <c r="F6" s="400"/>
+      <c r="G6" s="400"/>
+      <c r="H6" s="401"/>
+      <c r="J6" s="402" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="401"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="401"/>
-      <c r="N6" s="401"/>
-      <c r="O6" s="401"/>
-      <c r="P6" s="402"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="402"/>
+      <c r="M6" s="402"/>
+      <c r="N6" s="402"/>
+      <c r="O6" s="402"/>
+      <c r="P6" s="403"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="403" t="s">
+      <c r="B8" s="404" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="404"/>
-      <c r="E8" s="405" t="s">
+      <c r="C8" s="405"/>
+      <c r="E8" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="406"/>
-      <c r="G8" s="406"/>
-      <c r="H8" s="406"/>
+      <c r="F8" s="407"/>
+      <c r="G8" s="407"/>
+      <c r="H8" s="407"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="403" t="s">
+      <c r="B9" s="404" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="404"/>
-      <c r="E9" s="405" t="s">
+      <c r="C9" s="405"/>
+      <c r="E9" s="406" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="406"/>
-      <c r="G9" s="406"/>
-      <c r="H9" s="406"/>
+      <c r="F9" s="407"/>
+      <c r="G9" s="407"/>
+      <c r="H9" s="407"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="404" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="404"/>
-      <c r="E10" s="405" t="s">
+      <c r="C10" s="405"/>
+      <c r="E10" s="406" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="406"/>
-      <c r="G10" s="406"/>
-      <c r="H10" s="406"/>
+      <c r="F10" s="407"/>
+      <c r="G10" s="407"/>
+      <c r="H10" s="407"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="403" t="s">
+      <c r="B11" s="404" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="404"/>
-      <c r="E11" s="405" t="s">
+      <c r="C11" s="405"/>
+      <c r="E11" s="406" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="406"/>
-      <c r="H11" s="406"/>
+      <c r="F11" s="408"/>
+      <c r="G11" s="407"/>
+      <c r="H11" s="407"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="408" t="s">
+      <c r="C14" s="409" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="408" t="s">
+      <c r="E14" s="409" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="409" t="s">
+      <c r="G14" s="410" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="409" t="s">
+      <c r="B15" s="410" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="408" t="s">
+      <c r="C15" s="409" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="408" t="s">
+      <c r="E15" s="409" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="410"/>
+      <c r="G15" s="411"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="411" t="n">
+      <c r="B16" s="412" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="412"/>
-      <c r="E16" s="412"/>
-      <c r="G16" s="410" t="n">
+      <c r="C16" s="413"/>
+      <c r="E16" s="413"/>
+      <c r="G16" s="411" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="411" t="n">
+      <c r="B17" s="412" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="412"/>
-      <c r="E17" s="412"/>
-      <c r="G17" s="410" t="n">
+      <c r="C17" s="413"/>
+      <c r="E17" s="413"/>
+      <c r="G17" s="411" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="411" t="n">
+      <c r="B18" s="412" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="412"/>
-      <c r="E18" s="412"/>
-      <c r="G18" s="410" t="n">
+      <c r="C18" s="413"/>
+      <c r="E18" s="413"/>
+      <c r="G18" s="411" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="411" t="n">
+      <c r="B19" s="412" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="412"/>
-      <c r="E19" s="412"/>
-      <c r="G19" s="410" t="n">
+      <c r="C19" s="413"/>
+      <c r="E19" s="413"/>
+      <c r="G19" s="411" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="411" t="n">
+      <c r="B20" s="412" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="412"/>
-      <c r="E20" s="412"/>
-      <c r="G20" s="410" t="n">
+      <c r="C20" s="413"/>
+      <c r="E20" s="413"/>
+      <c r="G20" s="411" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="411" t="n">
+      <c r="B21" s="412" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="412"/>
-      <c r="E21" s="412"/>
-      <c r="G21" s="410" t="n">
+      <c r="C21" s="413"/>
+      <c r="E21" s="413"/>
+      <c r="G21" s="411" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="411" t="n">
+      <c r="B22" s="412" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="412"/>
-      <c r="E22" s="412"/>
-      <c r="G22" s="410" t="n">
+      <c r="C22" s="413"/>
+      <c r="E22" s="413"/>
+      <c r="G22" s="411" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="411" t="n">
+      <c r="B23" s="412" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="412"/>
-      <c r="E23" s="412"/>
-      <c r="G23" s="410" t="n">
+      <c r="C23" s="413"/>
+      <c r="E23" s="413"/>
+      <c r="G23" s="411" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="411" t="n">
+      <c r="B24" s="412" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="412"/>
-      <c r="E24" s="412"/>
-      <c r="G24" s="410" t="n">
+      <c r="C24" s="413"/>
+      <c r="E24" s="413"/>
+      <c r="G24" s="411" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="411" t="n">
+      <c r="B25" s="412" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="412"/>
-      <c r="E25" s="412"/>
-      <c r="G25" s="410" t="n">
+      <c r="C25" s="413"/>
+      <c r="E25" s="413"/>
+      <c r="G25" s="411" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="411" t="n">
+      <c r="B26" s="412" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="412"/>
-      <c r="E26" s="412"/>
-      <c r="G26" s="410" t="n">
+      <c r="C26" s="413"/>
+      <c r="E26" s="413"/>
+      <c r="G26" s="411" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="411" t="n">
+      <c r="B27" s="412" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="412"/>
-      <c r="E27" s="412"/>
-      <c r="G27" s="410" t="n">
+      <c r="C27" s="413"/>
+      <c r="E27" s="413"/>
+      <c r="G27" s="411" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="411" t="n">
+      <c r="B28" s="412" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="412"/>
-      <c r="E28" s="412"/>
-      <c r="G28" s="410" t="n">
+      <c r="C28" s="413"/>
+      <c r="E28" s="413"/>
+      <c r="G28" s="411" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="411" t="n">
+      <c r="B29" s="412" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="412"/>
-      <c r="E29" s="412"/>
-      <c r="G29" s="410" t="n">
+      <c r="C29" s="413"/>
+      <c r="E29" s="413"/>
+      <c r="G29" s="411" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="411" t="n">
+      <c r="B30" s="412" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="412"/>
-      <c r="E30" s="412"/>
-      <c r="G30" s="410" t="n">
+      <c r="C30" s="413"/>
+      <c r="E30" s="413"/>
+      <c r="G30" s="411" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="411" t="n">
+      <c r="B31" s="412" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="412"/>
-      <c r="E31" s="412"/>
-      <c r="G31" s="410" t="n">
+      <c r="C31" s="413"/>
+      <c r="E31" s="413"/>
+      <c r="G31" s="411" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="411" t="n">
+      <c r="B32" s="412" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="412"/>
-      <c r="E32" s="412"/>
-      <c r="G32" s="410" t="n">
+      <c r="C32" s="413"/>
+      <c r="E32" s="413"/>
+      <c r="G32" s="411" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="411" t="n">
+      <c r="B33" s="412" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="412"/>
-      <c r="E33" s="412"/>
-      <c r="G33" s="410" t="n">
+      <c r="C33" s="413"/>
+      <c r="E33" s="413"/>
+      <c r="G33" s="411" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="411" t="n">
+      <c r="B34" s="412" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="412"/>
-      <c r="E34" s="412"/>
-      <c r="G34" s="410" t="n">
+      <c r="C34" s="413"/>
+      <c r="E34" s="413"/>
+      <c r="G34" s="411" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="411" t="n">
+      <c r="B35" s="412" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="412"/>
-      <c r="E35" s="412"/>
-      <c r="G35" s="410" t="n">
+      <c r="C35" s="413"/>
+      <c r="E35" s="413"/>
+      <c r="G35" s="411" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="411" t="n">
+      <c r="B36" s="412" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="412"/>
-      <c r="E36" s="412"/>
-      <c r="G36" s="410" t="n">
+      <c r="C36" s="413"/>
+      <c r="E36" s="413"/>
+      <c r="G36" s="411" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="411" t="n">
+      <c r="B37" s="412" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="412"/>
-      <c r="E37" s="412"/>
-      <c r="G37" s="410" t="n">
+      <c r="C37" s="413"/>
+      <c r="E37" s="413"/>
+      <c r="G37" s="411" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="411" t="n">
+      <c r="B38" s="412" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="412"/>
-      <c r="E38" s="412"/>
-      <c r="G38" s="410" t="n">
+      <c r="C38" s="413"/>
+      <c r="E38" s="413"/>
+      <c r="G38" s="411" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="411" t="n">
+      <c r="B39" s="412" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="412"/>
-      <c r="E39" s="412"/>
-      <c r="G39" s="410" t="n">
+      <c r="C39" s="413"/>
+      <c r="E39" s="413"/>
+      <c r="G39" s="411" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="411" t="n">
+      <c r="B40" s="412" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="412"/>
-      <c r="E40" s="412"/>
-      <c r="G40" s="410" t="n">
+      <c r="C40" s="413"/>
+      <c r="E40" s="413"/>
+      <c r="G40" s="411" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="411" t="n">
+      <c r="B41" s="412" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="412"/>
-      <c r="E41" s="412"/>
-      <c r="G41" s="410" t="n">
+      <c r="C41" s="413"/>
+      <c r="E41" s="413"/>
+      <c r="G41" s="411" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="411" t="n">
+      <c r="B42" s="412" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="412"/>
-      <c r="E42" s="412"/>
-      <c r="G42" s="410" t="n">
+      <c r="C42" s="413"/>
+      <c r="E42" s="413"/>
+      <c r="G42" s="411" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="411" t="n">
+      <c r="B43" s="412" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="412"/>
-      <c r="E43" s="412"/>
-      <c r="G43" s="410" t="n">
+      <c r="C43" s="413"/>
+      <c r="E43" s="413"/>
+      <c r="G43" s="411" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="411" t="n">
+      <c r="B44" s="412" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="412"/>
-      <c r="E44" s="412"/>
-      <c r="G44" s="410" t="n">
+      <c r="C44" s="413"/>
+      <c r="E44" s="413"/>
+      <c r="G44" s="411" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="411" t="n">
+      <c r="B45" s="412" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="412"/>
-      <c r="E45" s="412"/>
-      <c r="G45" s="410" t="n">
+      <c r="C45" s="413"/>
+      <c r="E45" s="413"/>
+      <c r="G45" s="411" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46"/>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="413"/>
-      <c r="G47" s="414" t="n">
+      <c r="E47" s="414"/>
+      <c r="G47" s="415" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="414"/>
+      <c r="G49" s="415"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="415" t="s">
+      <c r="B51" s="416" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="416" t="s">
+      <c r="E51" s="417" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="415" t="s">
+      <c r="B54" s="416" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="417" t="n">
+      <c r="C54" s="418" t="n">
         <v>30.0</v>
       </c>
-      <c r="D54" s="418" t="s">
+      <c r="D54" s="419" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="419" t="s">
+      <c r="E54" s="420" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="420" t="s">
+      <c r="F54" s="421" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="421"/>
+      <c r="G54" s="422"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="422" t="s">
+      <c r="B58" s="423" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="422"/>
-      <c r="D58" s="422"/>
-      <c r="E58" s="422"/>
-      <c r="F58" s="422"/>
-      <c r="G58" s="422"/>
-      <c r="H58" s="422"/>
+      <c r="C58" s="423"/>
+      <c r="D58" s="423"/>
+      <c r="E58" s="423"/>
+      <c r="F58" s="423"/>
+      <c r="G58" s="423"/>
+      <c r="H58" s="423"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="422"/>
-      <c r="C59" s="422"/>
-      <c r="D59" s="422"/>
-      <c r="E59" s="422"/>
-      <c r="F59" s="422"/>
-      <c r="G59" s="422"/>
-      <c r="H59" s="422"/>
+      <c r="B59" s="423"/>
+      <c r="C59" s="423"/>
+      <c r="D59" s="423"/>
+      <c r="E59" s="423"/>
+      <c r="F59" s="423"/>
+      <c r="G59" s="423"/>
+      <c r="H59" s="423"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="422"/>
-      <c r="C60" s="422"/>
-      <c r="D60" s="422"/>
-      <c r="E60" s="422"/>
-      <c r="F60" s="422"/>
-      <c r="G60" s="422"/>
-      <c r="H60" s="422"/>
+      <c r="B60" s="423"/>
+      <c r="C60" s="423"/>
+      <c r="D60" s="423"/>
+      <c r="E60" s="423"/>
+      <c r="F60" s="423"/>
+      <c r="G60" s="423"/>
+      <c r="H60" s="423"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="422"/>
-      <c r="C61" s="422"/>
-      <c r="D61" s="422"/>
-      <c r="E61" s="422"/>
-      <c r="F61" s="422"/>
-      <c r="G61" s="422"/>
-      <c r="H61" s="422"/>
+      <c r="B61" s="423"/>
+      <c r="C61" s="423"/>
+      <c r="D61" s="423"/>
+      <c r="E61" s="423"/>
+      <c r="F61" s="423"/>
+      <c r="G61" s="423"/>
+      <c r="H61" s="423"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="422"/>
-      <c r="C62" s="422"/>
-      <c r="D62" s="422"/>
-      <c r="E62" s="422"/>
-      <c r="F62" s="422"/>
-      <c r="G62" s="422"/>
-      <c r="H62" s="422"/>
+      <c r="B62" s="423"/>
+      <c r="C62" s="423"/>
+      <c r="D62" s="423"/>
+      <c r="E62" s="423"/>
+      <c r="F62" s="423"/>
+      <c r="G62" s="423"/>
+      <c r="H62" s="423"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9051,548 +9061,548 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="423"/>
-      <c r="K2" s="424" t="s">
+      <c r="J2" s="424"/>
+      <c r="K2" s="425" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="425"/>
-      <c r="K3" s="424" t="s">
+      <c r="J3" s="426"/>
+      <c r="K3" s="425" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="426"/>
-      <c r="K4" s="424" t="s">
+      <c r="J4" s="427"/>
+      <c r="K4" s="425" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="427" t="s">
+      <c r="B6" s="428" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="428"/>
-      <c r="D6" s="428"/>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="J6" s="430" t="s">
+      <c r="C6" s="429"/>
+      <c r="D6" s="429"/>
+      <c r="E6" s="429"/>
+      <c r="F6" s="429"/>
+      <c r="G6" s="429"/>
+      <c r="H6" s="430"/>
+      <c r="J6" s="431" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="430"/>
-      <c r="L6" s="430"/>
-      <c r="M6" s="430"/>
-      <c r="N6" s="430"/>
-      <c r="O6" s="430"/>
-      <c r="P6" s="431"/>
+      <c r="K6" s="431"/>
+      <c r="L6" s="431"/>
+      <c r="M6" s="431"/>
+      <c r="N6" s="431"/>
+      <c r="O6" s="431"/>
+      <c r="P6" s="432"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="432" t="s">
+      <c r="B8" s="433" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="433"/>
-      <c r="E8" s="434" t="s">
+      <c r="C8" s="434"/>
+      <c r="E8" s="435" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="435"/>
-      <c r="G8" s="435"/>
-      <c r="H8" s="435"/>
+      <c r="F8" s="436"/>
+      <c r="G8" s="436"/>
+      <c r="H8" s="436"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="432" t="s">
+      <c r="B9" s="433" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="433"/>
-      <c r="E9" s="434" t="s">
+      <c r="C9" s="434"/>
+      <c r="E9" s="435" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="435"/>
-      <c r="G9" s="435"/>
-      <c r="H9" s="435"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="436"/>
+      <c r="H9" s="436"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="432" t="s">
+      <c r="B10" s="433" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="433"/>
-      <c r="E10" s="434" t="s">
+      <c r="C10" s="434"/>
+      <c r="E10" s="435" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="435"/>
-      <c r="G10" s="435"/>
-      <c r="H10" s="435"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="436"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="432" t="s">
+      <c r="B11" s="433" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="433"/>
-      <c r="E11" s="434" t="s">
+      <c r="C11" s="434"/>
+      <c r="E11" s="435" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="436"/>
-      <c r="G11" s="435"/>
-      <c r="H11" s="435"/>
+      <c r="F11" s="437"/>
+      <c r="G11" s="436"/>
+      <c r="H11" s="436"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="437" t="s">
+      <c r="C14" s="438" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="437" t="s">
+      <c r="E14" s="438" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="438" t="s">
+      <c r="G14" s="439" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="438" t="s">
+      <c r="B15" s="439" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="437" t="s">
+      <c r="C15" s="438" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="437" t="s">
+      <c r="E15" s="438" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="439"/>
+      <c r="G15" s="440"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="440" t="n">
+      <c r="B16" s="441" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="441"/>
-      <c r="E16" s="441"/>
-      <c r="G16" s="439" t="n">
+      <c r="C16" s="442"/>
+      <c r="E16" s="442"/>
+      <c r="G16" s="440" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="440" t="n">
+      <c r="B17" s="441" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="441"/>
-      <c r="E17" s="441"/>
-      <c r="G17" s="439" t="n">
+      <c r="C17" s="442"/>
+      <c r="E17" s="442"/>
+      <c r="G17" s="440" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="440" t="n">
+      <c r="B18" s="441" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="441"/>
-      <c r="E18" s="441"/>
-      <c r="G18" s="439" t="n">
+      <c r="C18" s="442"/>
+      <c r="E18" s="442"/>
+      <c r="G18" s="440" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="440" t="n">
+      <c r="B19" s="441" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="441"/>
-      <c r="E19" s="441"/>
-      <c r="G19" s="439" t="n">
+      <c r="C19" s="442"/>
+      <c r="E19" s="442"/>
+      <c r="G19" s="440" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="440" t="n">
+      <c r="B20" s="441" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="441"/>
-      <c r="E20" s="441"/>
-      <c r="G20" s="439" t="n">
+      <c r="C20" s="442"/>
+      <c r="E20" s="442"/>
+      <c r="G20" s="440" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="440" t="n">
+      <c r="B21" s="441" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="441"/>
-      <c r="E21" s="441"/>
-      <c r="G21" s="439" t="n">
+      <c r="C21" s="442"/>
+      <c r="E21" s="442"/>
+      <c r="G21" s="440" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="440" t="n">
+      <c r="B22" s="441" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="441"/>
-      <c r="E22" s="441"/>
-      <c r="G22" s="439" t="n">
+      <c r="C22" s="442"/>
+      <c r="E22" s="442"/>
+      <c r="G22" s="440" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="440" t="n">
+      <c r="B23" s="441" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="441"/>
-      <c r="E23" s="441"/>
-      <c r="G23" s="439" t="n">
+      <c r="C23" s="442"/>
+      <c r="E23" s="442"/>
+      <c r="G23" s="440" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="440" t="n">
+      <c r="B24" s="441" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="441"/>
-      <c r="E24" s="441"/>
-      <c r="G24" s="439" t="n">
+      <c r="C24" s="442"/>
+      <c r="E24" s="442"/>
+      <c r="G24" s="440" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="440" t="n">
+      <c r="B25" s="441" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="441"/>
-      <c r="E25" s="441"/>
-      <c r="G25" s="439" t="n">
+      <c r="C25" s="442"/>
+      <c r="E25" s="442"/>
+      <c r="G25" s="440" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="440" t="n">
+      <c r="B26" s="441" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="441"/>
-      <c r="E26" s="441"/>
-      <c r="G26" s="439" t="n">
+      <c r="C26" s="442"/>
+      <c r="E26" s="442"/>
+      <c r="G26" s="440" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="440" t="n">
+      <c r="B27" s="441" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="441"/>
-      <c r="E27" s="441"/>
-      <c r="G27" s="439" t="n">
+      <c r="C27" s="442"/>
+      <c r="E27" s="442"/>
+      <c r="G27" s="440" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="440" t="n">
+      <c r="B28" s="441" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="441"/>
-      <c r="E28" s="441"/>
-      <c r="G28" s="439" t="n">
+      <c r="C28" s="442"/>
+      <c r="E28" s="442"/>
+      <c r="G28" s="440" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="440" t="n">
+      <c r="B29" s="441" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="441"/>
-      <c r="E29" s="441"/>
-      <c r="G29" s="439" t="n">
+      <c r="C29" s="442"/>
+      <c r="E29" s="442"/>
+      <c r="G29" s="440" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="440" t="n">
+      <c r="B30" s="441" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="441"/>
-      <c r="E30" s="441"/>
-      <c r="G30" s="439" t="n">
+      <c r="C30" s="442"/>
+      <c r="E30" s="442"/>
+      <c r="G30" s="440" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="440" t="n">
+      <c r="B31" s="441" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="441"/>
-      <c r="E31" s="441"/>
-      <c r="G31" s="439" t="n">
+      <c r="C31" s="442"/>
+      <c r="E31" s="442"/>
+      <c r="G31" s="440" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="440" t="n">
+      <c r="B32" s="441" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="441"/>
-      <c r="E32" s="441"/>
-      <c r="G32" s="439" t="n">
+      <c r="C32" s="442"/>
+      <c r="E32" s="442"/>
+      <c r="G32" s="440" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="440" t="n">
+      <c r="B33" s="441" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="441"/>
-      <c r="E33" s="441"/>
-      <c r="G33" s="439" t="n">
+      <c r="C33" s="442"/>
+      <c r="E33" s="442"/>
+      <c r="G33" s="440" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="440" t="n">
+      <c r="B34" s="441" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="441"/>
-      <c r="E34" s="441"/>
-      <c r="G34" s="439" t="n">
+      <c r="C34" s="442"/>
+      <c r="E34" s="442"/>
+      <c r="G34" s="440" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="440" t="n">
+      <c r="B35" s="441" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="441"/>
-      <c r="E35" s="441"/>
-      <c r="G35" s="439" t="n">
+      <c r="C35" s="442"/>
+      <c r="E35" s="442"/>
+      <c r="G35" s="440" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="440" t="n">
+      <c r="B36" s="441" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="441"/>
-      <c r="E36" s="441"/>
-      <c r="G36" s="439" t="n">
+      <c r="C36" s="442"/>
+      <c r="E36" s="442"/>
+      <c r="G36" s="440" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="440" t="n">
+      <c r="B37" s="441" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="441"/>
-      <c r="E37" s="441"/>
-      <c r="G37" s="439" t="n">
+      <c r="C37" s="442"/>
+      <c r="E37" s="442"/>
+      <c r="G37" s="440" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="440" t="n">
+      <c r="B38" s="441" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="441"/>
-      <c r="E38" s="441"/>
-      <c r="G38" s="439" t="n">
+      <c r="C38" s="442"/>
+      <c r="E38" s="442"/>
+      <c r="G38" s="440" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="440" t="n">
+      <c r="B39" s="441" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="441"/>
-      <c r="E39" s="441"/>
-      <c r="G39" s="439" t="n">
+      <c r="C39" s="442"/>
+      <c r="E39" s="442"/>
+      <c r="G39" s="440" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="440" t="n">
+      <c r="B40" s="441" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="441"/>
-      <c r="E40" s="441"/>
-      <c r="G40" s="439" t="n">
+      <c r="C40" s="442"/>
+      <c r="E40" s="442"/>
+      <c r="G40" s="440" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="440" t="n">
+      <c r="B41" s="441" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="441"/>
-      <c r="E41" s="441"/>
-      <c r="G41" s="439" t="n">
+      <c r="C41" s="442"/>
+      <c r="E41" s="442"/>
+      <c r="G41" s="440" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="440" t="n">
+      <c r="B42" s="441" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="441"/>
-      <c r="E42" s="441"/>
-      <c r="G42" s="439" t="n">
+      <c r="C42" s="442"/>
+      <c r="E42" s="442"/>
+      <c r="G42" s="440" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="440" t="n">
+      <c r="B43" s="441" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="441"/>
-      <c r="E43" s="441"/>
-      <c r="G43" s="439" t="n">
+      <c r="C43" s="442"/>
+      <c r="E43" s="442"/>
+      <c r="G43" s="440" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="440" t="n">
+      <c r="B44" s="441" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="441"/>
-      <c r="E44" s="441"/>
-      <c r="G44" s="439" t="n">
+      <c r="C44" s="442"/>
+      <c r="E44" s="442"/>
+      <c r="G44" s="440" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="440" t="n">
+      <c r="B45" s="441" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="441"/>
-      <c r="E45" s="441"/>
-      <c r="G45" s="439" t="n">
+      <c r="C45" s="442"/>
+      <c r="E45" s="442"/>
+      <c r="G45" s="440" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="440" t="n">
+      <c r="B46" s="441" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="441"/>
-      <c r="E46" s="441"/>
-      <c r="G46" s="439" t="n">
+      <c r="C46" s="442"/>
+      <c r="E46" s="442"/>
+      <c r="G46" s="440" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="442"/>
-      <c r="G47" s="443" t="n">
+      <c r="E47" s="443"/>
+      <c r="G47" s="444" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="443"/>
+      <c r="G49" s="444"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="444" t="s">
+      <c r="B51" s="445" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="445" t="s">
+      <c r="E51" s="446" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="444" t="s">
+      <c r="B54" s="445" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="446" t="n">
+      <c r="C54" s="447" t="n">
         <v>31.0</v>
       </c>
-      <c r="D54" s="447" t="s">
+      <c r="D54" s="448" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="448" t="s">
+      <c r="E54" s="449" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="449" t="s">
+      <c r="F54" s="450" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="450"/>
+      <c r="G54" s="451"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="451" t="s">
+      <c r="B58" s="452" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="451"/>
-      <c r="D58" s="451"/>
-      <c r="E58" s="451"/>
-      <c r="F58" s="451"/>
-      <c r="G58" s="451"/>
-      <c r="H58" s="451"/>
+      <c r="C58" s="452"/>
+      <c r="D58" s="452"/>
+      <c r="E58" s="452"/>
+      <c r="F58" s="452"/>
+      <c r="G58" s="452"/>
+      <c r="H58" s="452"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="451"/>
-      <c r="C59" s="451"/>
-      <c r="D59" s="451"/>
-      <c r="E59" s="451"/>
-      <c r="F59" s="451"/>
-      <c r="G59" s="451"/>
-      <c r="H59" s="451"/>
+      <c r="B59" s="452"/>
+      <c r="C59" s="452"/>
+      <c r="D59" s="452"/>
+      <c r="E59" s="452"/>
+      <c r="F59" s="452"/>
+      <c r="G59" s="452"/>
+      <c r="H59" s="452"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="451"/>
-      <c r="C60" s="451"/>
-      <c r="D60" s="451"/>
-      <c r="E60" s="451"/>
-      <c r="F60" s="451"/>
-      <c r="G60" s="451"/>
-      <c r="H60" s="451"/>
+      <c r="B60" s="452"/>
+      <c r="C60" s="452"/>
+      <c r="D60" s="452"/>
+      <c r="E60" s="452"/>
+      <c r="F60" s="452"/>
+      <c r="G60" s="452"/>
+      <c r="H60" s="452"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="451"/>
-      <c r="C61" s="451"/>
-      <c r="D61" s="451"/>
-      <c r="E61" s="451"/>
-      <c r="F61" s="451"/>
-      <c r="G61" s="451"/>
-      <c r="H61" s="451"/>
+      <c r="B61" s="452"/>
+      <c r="C61" s="452"/>
+      <c r="D61" s="452"/>
+      <c r="E61" s="452"/>
+      <c r="F61" s="452"/>
+      <c r="G61" s="452"/>
+      <c r="H61" s="452"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="451"/>
-      <c r="C62" s="451"/>
-      <c r="D62" s="451"/>
-      <c r="E62" s="451"/>
-      <c r="F62" s="451"/>
-      <c r="G62" s="451"/>
-      <c r="H62" s="451"/>
+      <c r="B62" s="452"/>
+      <c r="C62" s="452"/>
+      <c r="D62" s="452"/>
+      <c r="E62" s="452"/>
+      <c r="F62" s="452"/>
+      <c r="G62" s="452"/>
+      <c r="H62" s="452"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9625,7 +9635,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="true"/>
     <col min="8" max="8" width="4.77734375" customWidth="true"/>
     <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="4.21875" customWidth="true"/>
+    <col min="10" max="10" width="5.21875" customWidth="true"/>
     <col min="11" max="11" width="13.33203125" customWidth="true"/>
     <col min="12" max="12" width="10.88671875" customWidth="true"/>
     <col min="13" max="13" width="10.88671875" customWidth="true"/>
@@ -10210,7 +10220,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:P61"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10225,7 +10235,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="true"/>
     <col min="8" max="8" width="4.77734375" customWidth="true"/>
     <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="4.21875" customWidth="true"/>
+    <col min="10" max="10" width="5.21875" customWidth="true"/>
     <col min="11" max="11" width="13.33203125" customWidth="true"/>
     <col min="12" max="12" width="10.88671875" customWidth="true"/>
     <col min="13" max="13" width="10.88671875" customWidth="true"/>
@@ -10725,9 +10735,7 @@
     <row r="55"/>
     <row r="56"/>
     <row r="57" ht="14.4" customHeight="true">
-      <c r="B57" s="155" t="s">
-        <v>70</v>
-      </c>
+      <c r="B57" s="155"/>
       <c r="C57" s="155"/>
       <c r="D57" s="155"/>
       <c r="E57" s="155"/>
@@ -10736,50 +10744,61 @@
       <c r="H57" s="155"/>
     </row>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
+      <c r="B58" s="156" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="155"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="155"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+    </row>
+    <row r="62" ht="14.4" customHeight="true">
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B57:H61"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B58:H62"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10802,7 +10821,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="true"/>
     <col min="8" max="8" width="4.77734375" customWidth="true"/>
     <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="4.21875" customWidth="true"/>
+    <col min="10" max="10" width="5.21875" customWidth="true"/>
     <col min="11" max="11" width="13.33203125" customWidth="true"/>
     <col min="12" max="12" width="10.88671875" customWidth="true"/>
     <col min="13" max="13" width="10.88671875" customWidth="true"/>
@@ -10813,516 +10832,516 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="156"/>
-      <c r="K2" s="157" t="s">
+      <c r="J2" s="157"/>
+      <c r="K2" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="159"/>
-      <c r="K3" s="157" t="s">
+      <c r="J3" s="160"/>
+      <c r="K3" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="160"/>
-      <c r="K4" s="157" t="s">
+      <c r="J4" s="161"/>
+      <c r="K4" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="J5" s="161"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
     </row>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164"/>
-      <c r="J6" s="165" t="s">
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
+      <c r="J6" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="167"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="E8" s="169" t="s">
+      <c r="C8" s="169"/>
+      <c r="E8" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="E9" s="169" t="s">
+      <c r="C9" s="169"/>
+      <c r="E9" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="E10" s="169" t="s">
+      <c r="C10" s="169"/>
+      <c r="E10" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="E11" s="169" t="s">
+      <c r="C11" s="169"/>
+      <c r="E11" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="171"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="173" t="s">
+      <c r="G14" s="174" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="174"/>
+      <c r="G15" s="175"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="175" t="n">
+      <c r="B16" s="176" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="G16" s="174" t="n">
+      <c r="C16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="G16" s="175" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="175" t="n">
+      <c r="B17" s="176" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="G17" s="174" t="n">
+      <c r="C17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="G17" s="175" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="175" t="n">
+      <c r="B18" s="176" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="G18" s="174" t="n">
+      <c r="C18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="G18" s="175" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="175" t="n">
+      <c r="B19" s="176" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="G19" s="174" t="n">
+      <c r="C19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="G19" s="175" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="175" t="n">
+      <c r="B20" s="176" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="G20" s="174" t="n">
+      <c r="C20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="G20" s="175" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="175" t="n">
+      <c r="B21" s="176" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="G21" s="174" t="n">
+      <c r="C21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="G21" s="175" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="175" t="n">
+      <c r="B22" s="176" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="G22" s="174" t="n">
+      <c r="C22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="G22" s="175" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="175" t="n">
+      <c r="B23" s="176" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="G23" s="174" t="n">
+      <c r="C23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="G23" s="175" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="175" t="n">
+      <c r="B24" s="176" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="G24" s="174" t="n">
+      <c r="C24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="G24" s="175" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="175" t="n">
+      <c r="B25" s="176" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="G25" s="174" t="n">
+      <c r="C25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="G25" s="175" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="175" t="n">
+      <c r="B26" s="176" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="G26" s="174" t="n">
+      <c r="C26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="G26" s="175" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="175" t="n">
+      <c r="B27" s="176" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="G27" s="174" t="n">
+      <c r="C27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="G27" s="175" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="175" t="n">
+      <c r="B28" s="176" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="G28" s="174" t="n">
+      <c r="C28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="G28" s="175" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="175" t="n">
+      <c r="B29" s="176" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="G29" s="174" t="n">
+      <c r="C29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="G29" s="175" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="175" t="n">
+      <c r="B30" s="176" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="G30" s="174" t="n">
+      <c r="C30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="G30" s="175" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="175" t="n">
+      <c r="B31" s="176" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="G31" s="174" t="n">
+      <c r="C31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="G31" s="175" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="175" t="n">
+      <c r="B32" s="176" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="G32" s="174" t="n">
+      <c r="C32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="G32" s="175" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="175" t="n">
+      <c r="B33" s="176" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="G33" s="174" t="n">
+      <c r="C33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="G33" s="175" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="175" t="n">
+      <c r="B34" s="176" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="G34" s="174" t="n">
+      <c r="C34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="G34" s="175" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="175" t="n">
+      <c r="B35" s="176" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="G35" s="174" t="n">
+      <c r="C35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="G35" s="175" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="175" t="n">
+      <c r="B36" s="176" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="G36" s="174" t="n">
+      <c r="C36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="G36" s="175" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="175" t="n">
+      <c r="B37" s="176" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="G37" s="174" t="n">
+      <c r="C37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="G37" s="175" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="175" t="n">
+      <c r="B38" s="176" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="G38" s="174" t="n">
+      <c r="C38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="G38" s="175" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="175" t="n">
+      <c r="B39" s="176" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="G39" s="174" t="n">
+      <c r="C39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="G39" s="175" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="175" t="n">
+      <c r="B40" s="176" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="G40" s="174" t="n">
+      <c r="C40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="G40" s="175" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="175" t="n">
+      <c r="B41" s="176" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="G41" s="174" t="n">
+      <c r="C41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="G41" s="175" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="175" t="n">
+      <c r="B42" s="176" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="G42" s="174" t="n">
+      <c r="C42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="G42" s="175" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="175" t="n">
+      <c r="B43" s="176" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="G43" s="174" t="n">
+      <c r="C43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="G43" s="175" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="175" t="n">
+      <c r="B44" s="176" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="G44" s="174" t="n">
+      <c r="C44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="G44" s="175" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="175" t="n">
+      <c r="B45" s="176" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="G45" s="174" t="n">
+      <c r="C45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="G45" s="175" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="175" t="n">
+      <c r="B46" s="176" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="G46" s="174" t="n">
+      <c r="C46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="G46" s="175" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="177"/>
-      <c r="G47" s="178" t="n">
+      <c r="E47" s="178"/>
+      <c r="G47" s="179" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="178" t="n">
+      <c r="G49" s="179" t="n">
         <f>#REF!</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="179" t="s">
+      <c r="B51" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="180" t="s">
+      <c r="E51" s="181" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="179" t="s">
+      <c r="B54" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="181" t="n">
+      <c r="C54" s="182" t="n">
         <v>31.0</v>
       </c>
-      <c r="D54" s="182" t="s">
+      <c r="D54" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="183" t="s">
+      <c r="E54" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="184" t="s">
+      <c r="F54" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="185" t="n">
+      <c r="G54" s="186" t="n">
         <v>2021.0</v>
       </c>
     </row>
@@ -11330,51 +11349,51 @@
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="186" t="s">
+      <c r="B58" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="186"/>
-      <c r="D58" s="186"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="186"/>
-      <c r="G58" s="186"/>
-      <c r="H58" s="186"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="187"/>
+      <c r="G58" s="187"/>
+      <c r="H58" s="187"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="186"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="186"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="186"/>
-      <c r="H59" s="186"/>
+      <c r="B59" s="187"/>
+      <c r="C59" s="187"/>
+      <c r="D59" s="187"/>
+      <c r="E59" s="187"/>
+      <c r="F59" s="187"/>
+      <c r="G59" s="187"/>
+      <c r="H59" s="187"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="186"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="186"/>
+      <c r="B60" s="187"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="187"/>
+      <c r="H60" s="187"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="186"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
+      <c r="B61" s="187"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="187"/>
+      <c r="E61" s="187"/>
+      <c r="F61" s="187"/>
+      <c r="G61" s="187"/>
+      <c r="H61" s="187"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="186"/>
-      <c r="C62" s="186"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
+      <c r="B62" s="187"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="187"/>
+      <c r="H62" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11407,7 +11426,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="true"/>
     <col min="8" max="8" width="4.77734375" customWidth="true"/>
     <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="4.21875" customWidth="true"/>
+    <col min="10" max="10" width="5.21875" customWidth="true"/>
     <col min="11" max="11" width="13.33203125" customWidth="true"/>
     <col min="12" max="12" width="10.88671875" customWidth="true"/>
     <col min="13" max="13" width="10.88671875" customWidth="true"/>
@@ -11418,557 +11437,557 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="187"/>
-      <c r="K2" s="188" t="s">
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="190"/>
-      <c r="K3" s="188" t="s">
+      <c r="J3" s="191"/>
+      <c r="K3" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="191"/>
-      <c r="K4" s="188" t="s">
+      <c r="J4" s="192"/>
+      <c r="K4" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="J5" s="192"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
     </row>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
-      <c r="J6" s="196" t="s">
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="196"/>
+      <c r="J6" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="198"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="E8" s="200" t="s">
+      <c r="C8" s="200"/>
+      <c r="E8" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="E9" s="200" t="s">
+      <c r="C9" s="200"/>
+      <c r="E9" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="201"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="199"/>
-      <c r="E10" s="200" t="s">
+      <c r="C10" s="200"/>
+      <c r="E10" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="199"/>
-      <c r="E11" s="200" t="s">
+      <c r="C11" s="200"/>
+      <c r="E11" s="201" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="202"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="203" t="s">
+      <c r="E14" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="204" t="s">
+      <c r="G14" s="205" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="203" t="s">
+      <c r="C15" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="203" t="s">
+      <c r="E15" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="205"/>
+      <c r="G15" s="206"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="206" t="n">
+      <c r="B16" s="207" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="G16" s="205" t="n">
+      <c r="C16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="G16" s="206" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="206" t="n">
+      <c r="B17" s="207" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="G17" s="205" t="n">
+      <c r="C17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="G17" s="206" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="206" t="n">
+      <c r="B18" s="207" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="207"/>
-      <c r="E18" s="207"/>
-      <c r="G18" s="205" t="n">
+      <c r="C18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="G18" s="206" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="206" t="n">
+      <c r="B19" s="207" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="G19" s="205" t="n">
+      <c r="C19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="G19" s="206" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="206" t="n">
+      <c r="B20" s="207" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="G20" s="205" t="n">
+      <c r="C20" s="208"/>
+      <c r="E20" s="208"/>
+      <c r="G20" s="206" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="206" t="n">
+      <c r="B21" s="207" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="G21" s="205" t="n">
+      <c r="C21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="G21" s="206" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="206" t="n">
+      <c r="B22" s="207" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="G22" s="205" t="n">
+      <c r="C22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="G22" s="206" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="206" t="n">
+      <c r="B23" s="207" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="G23" s="205" t="n">
+      <c r="C23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="G23" s="206" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="206" t="n">
+      <c r="B24" s="207" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="G24" s="205" t="n">
+      <c r="C24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="G24" s="206" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="206" t="n">
+      <c r="B25" s="207" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="G25" s="205" t="n">
+      <c r="C25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="G25" s="206" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="206" t="n">
+      <c r="B26" s="207" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="G26" s="205" t="n">
+      <c r="C26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="G26" s="206" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="206" t="n">
+      <c r="B27" s="207" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="G27" s="205" t="n">
+      <c r="C27" s="208"/>
+      <c r="E27" s="208"/>
+      <c r="G27" s="206" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="206" t="n">
+      <c r="B28" s="207" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="G28" s="205" t="n">
+      <c r="C28" s="208"/>
+      <c r="E28" s="208"/>
+      <c r="G28" s="206" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="206" t="n">
+      <c r="B29" s="207" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="G29" s="205" t="n">
+      <c r="C29" s="208"/>
+      <c r="E29" s="208"/>
+      <c r="G29" s="206" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="206" t="n">
+      <c r="B30" s="207" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="G30" s="205" t="n">
+      <c r="C30" s="208"/>
+      <c r="E30" s="208"/>
+      <c r="G30" s="206" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="206" t="n">
+      <c r="B31" s="207" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="G31" s="205" t="n">
+      <c r="C31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="G31" s="206" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="206" t="n">
+      <c r="B32" s="207" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="G32" s="205" t="n">
+      <c r="C32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="G32" s="206" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="206" t="n">
+      <c r="B33" s="207" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="G33" s="205" t="n">
+      <c r="C33" s="208"/>
+      <c r="E33" s="208"/>
+      <c r="G33" s="206" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="206" t="n">
+      <c r="B34" s="207" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="G34" s="205" t="n">
+      <c r="C34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="G34" s="206" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="206" t="n">
+      <c r="B35" s="207" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="G35" s="205" t="n">
+      <c r="C35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="G35" s="206" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="206" t="n">
+      <c r="B36" s="207" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="G36" s="205" t="n">
+      <c r="C36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="G36" s="206" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="206" t="n">
+      <c r="B37" s="207" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="G37" s="205" t="n">
+      <c r="C37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="G37" s="206" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="206" t="n">
+      <c r="B38" s="207" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="G38" s="205" t="n">
+      <c r="C38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="G38" s="206" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="206" t="n">
+      <c r="B39" s="207" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="G39" s="205" t="n">
+      <c r="C39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="G39" s="206" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="206" t="n">
+      <c r="B40" s="207" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="G40" s="205" t="n">
+      <c r="C40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="G40" s="206" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="206" t="n">
+      <c r="B41" s="207" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="207"/>
-      <c r="E41" s="207"/>
-      <c r="G41" s="205" t="n">
+      <c r="C41" s="208"/>
+      <c r="E41" s="208"/>
+      <c r="G41" s="206" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="206" t="n">
+      <c r="B42" s="207" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="G42" s="205" t="n">
+      <c r="C42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="G42" s="206" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="206" t="n">
+      <c r="B43" s="207" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="207"/>
-      <c r="E43" s="207"/>
-      <c r="G43" s="205" t="n">
+      <c r="C43" s="208"/>
+      <c r="E43" s="208"/>
+      <c r="G43" s="206" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="206" t="n">
+      <c r="B44" s="207" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="G44" s="205" t="n">
+      <c r="C44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="G44" s="206" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="206" t="n">
+      <c r="B45" s="207" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="207"/>
-      <c r="E45" s="207"/>
-      <c r="G45" s="205" t="n">
+      <c r="C45" s="208"/>
+      <c r="E45" s="208"/>
+      <c r="G45" s="206" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="209"/>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="209"/>
-      <c r="G47" s="210" t="n">
+      <c r="E47" s="210"/>
+      <c r="G47" s="211" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="210"/>
+      <c r="G49" s="211"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="208" t="s">
+      <c r="B51" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="211" t="s">
+      <c r="E51" s="212" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="208" t="s">
+      <c r="B54" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="212" t="n">
+      <c r="C54" s="213" t="n">
         <v>30.0</v>
       </c>
-      <c r="D54" s="213" t="s">
+      <c r="D54" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="214" t="s">
+      <c r="E54" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="215" t="s">
+      <c r="F54" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="216"/>
+      <c r="G54" s="217"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="217" t="s">
+      <c r="B58" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="218"/>
+      <c r="H58" s="218"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="217"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="217"/>
-      <c r="G59" s="217"/>
-      <c r="H59" s="217"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="218"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="218"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="217"/>
-      <c r="C60" s="217"/>
-      <c r="D60" s="217"/>
-      <c r="E60" s="217"/>
-      <c r="F60" s="217"/>
-      <c r="G60" s="217"/>
-      <c r="H60" s="217"/>
+      <c r="B60" s="218"/>
+      <c r="C60" s="218"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="218"/>
+      <c r="H60" s="218"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="217"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="217"/>
-      <c r="E61" s="217"/>
-      <c r="F61" s="217"/>
-      <c r="G61" s="217"/>
-      <c r="H61" s="217"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
+      <c r="H61" s="218"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="217"/>
-      <c r="C62" s="217"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="217"/>
-      <c r="F62" s="217"/>
-      <c r="G62" s="217"/>
-      <c r="H62" s="217"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="218"/>
+      <c r="G62" s="218"/>
+      <c r="H62" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12001,7 +12020,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="true"/>
     <col min="8" max="8" width="4.77734375" customWidth="true"/>
     <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="4.21875" customWidth="true"/>
+    <col min="10" max="10" width="5.21875" customWidth="true"/>
     <col min="11" max="11" width="13.33203125" customWidth="true"/>
     <col min="12" max="12" width="10.88671875" customWidth="true"/>
     <col min="13" max="13" width="10.88671875" customWidth="true"/>
@@ -12012,563 +12031,563 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="218"/>
-      <c r="K2" s="219" t="s">
+      <c r="J2" s="219"/>
+      <c r="K2" s="220" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="221"/>
-      <c r="K3" s="219" t="s">
+      <c r="J3" s="222"/>
+      <c r="K3" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="222"/>
-      <c r="K4" s="219" t="s">
+      <c r="J4" s="223"/>
+      <c r="K4" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="J5" s="223"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
     </row>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
-      <c r="J6" s="227" t="s">
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="227"/>
+      <c r="J6" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="227"/>
-      <c r="P6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="228"/>
+      <c r="N6" s="228"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="229"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="E8" s="231" t="s">
+      <c r="C8" s="231"/>
+      <c r="E8" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="E9" s="231" t="s">
+      <c r="C9" s="231"/>
+      <c r="E9" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="E10" s="231" t="s">
+      <c r="C10" s="231"/>
+      <c r="E10" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="232"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="232"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="233"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="230"/>
-      <c r="E11" s="231" t="s">
+      <c r="C11" s="231"/>
+      <c r="E11" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="233"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="235" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="234" t="s">
+      <c r="E14" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="235" t="s">
+      <c r="G14" s="236" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="236" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="234" t="s">
+      <c r="C15" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="234" t="s">
+      <c r="E15" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="236"/>
+      <c r="G15" s="237"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="237" t="n">
+      <c r="B16" s="238" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="E16" s="238"/>
-      <c r="G16" s="236" t="n">
+      <c r="C16" s="239"/>
+      <c r="E16" s="239"/>
+      <c r="G16" s="237" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="237" t="n">
+      <c r="B17" s="238" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="G17" s="236" t="n">
+      <c r="C17" s="239"/>
+      <c r="E17" s="239"/>
+      <c r="G17" s="237" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="237" t="n">
+      <c r="B18" s="238" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="G18" s="236" t="n">
+      <c r="C18" s="239"/>
+      <c r="E18" s="239"/>
+      <c r="G18" s="237" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="237" t="n">
+      <c r="B19" s="238" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="G19" s="236" t="n">
+      <c r="C19" s="239"/>
+      <c r="E19" s="239"/>
+      <c r="G19" s="237" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="237" t="n">
+      <c r="B20" s="238" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="G20" s="236" t="n">
+      <c r="C20" s="239"/>
+      <c r="E20" s="239"/>
+      <c r="G20" s="237" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="237" t="n">
+      <c r="B21" s="238" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="E21" s="238"/>
-      <c r="G21" s="236" t="n">
+      <c r="C21" s="239"/>
+      <c r="E21" s="239"/>
+      <c r="G21" s="237" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="237" t="n">
+      <c r="B22" s="238" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="238"/>
-      <c r="E22" s="238"/>
-      <c r="G22" s="236" t="n">
+      <c r="C22" s="239"/>
+      <c r="E22" s="239"/>
+      <c r="G22" s="237" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="237" t="n">
+      <c r="B23" s="238" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="E23" s="238"/>
-      <c r="G23" s="236" t="n">
+      <c r="C23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="G23" s="237" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="237" t="n">
+      <c r="B24" s="238" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="238"/>
-      <c r="E24" s="238"/>
-      <c r="G24" s="236" t="n">
+      <c r="C24" s="239"/>
+      <c r="E24" s="239"/>
+      <c r="G24" s="237" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="237" t="n">
+      <c r="B25" s="238" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="238"/>
-      <c r="E25" s="238"/>
-      <c r="G25" s="236" t="n">
+      <c r="C25" s="239"/>
+      <c r="E25" s="239"/>
+      <c r="G25" s="237" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="237" t="n">
+      <c r="B26" s="238" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="238"/>
-      <c r="E26" s="238"/>
-      <c r="G26" s="236" t="n">
+      <c r="C26" s="239"/>
+      <c r="E26" s="239"/>
+      <c r="G26" s="237" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="237" t="n">
+      <c r="B27" s="238" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="238"/>
-      <c r="E27" s="238"/>
-      <c r="G27" s="236" t="n">
+      <c r="C27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="G27" s="237" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="237" t="n">
+      <c r="B28" s="238" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="G28" s="236" t="n">
+      <c r="C28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="G28" s="237" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="237" t="n">
+      <c r="B29" s="238" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="G29" s="236" t="n">
+      <c r="C29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="G29" s="237" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="237" t="n">
+      <c r="B30" s="238" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="G30" s="236" t="n">
+      <c r="C30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="G30" s="237" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="237" t="n">
+      <c r="B31" s="238" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="G31" s="236" t="n">
+      <c r="C31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="G31" s="237" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="237" t="n">
+      <c r="B32" s="238" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="G32" s="236" t="n">
+      <c r="C32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="G32" s="237" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="237" t="n">
+      <c r="B33" s="238" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="G33" s="236" t="n">
+      <c r="C33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="G33" s="237" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="237" t="n">
+      <c r="B34" s="238" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="G34" s="236" t="n">
+      <c r="C34" s="239"/>
+      <c r="E34" s="239"/>
+      <c r="G34" s="237" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="237" t="n">
+      <c r="B35" s="238" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="G35" s="236" t="n">
+      <c r="C35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="G35" s="237" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="237" t="n">
+      <c r="B36" s="238" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="238"/>
-      <c r="E36" s="238"/>
-      <c r="G36" s="236" t="n">
+      <c r="C36" s="239"/>
+      <c r="E36" s="239"/>
+      <c r="G36" s="237" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="237" t="n">
+      <c r="B37" s="238" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="238"/>
-      <c r="E37" s="238"/>
-      <c r="G37" s="236" t="n">
+      <c r="C37" s="239"/>
+      <c r="E37" s="239"/>
+      <c r="G37" s="237" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="237" t="n">
+      <c r="B38" s="238" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="238"/>
-      <c r="E38" s="238"/>
-      <c r="G38" s="236" t="n">
+      <c r="C38" s="239"/>
+      <c r="E38" s="239"/>
+      <c r="G38" s="237" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="237" t="n">
+      <c r="B39" s="238" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="238"/>
-      <c r="E39" s="238"/>
-      <c r="G39" s="236" t="n">
+      <c r="C39" s="239"/>
+      <c r="E39" s="239"/>
+      <c r="G39" s="237" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="237" t="n">
+      <c r="B40" s="238" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="238"/>
-      <c r="E40" s="238"/>
-      <c r="G40" s="236" t="n">
+      <c r="C40" s="239"/>
+      <c r="E40" s="239"/>
+      <c r="G40" s="237" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="237" t="n">
+      <c r="B41" s="238" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="238"/>
-      <c r="E41" s="238"/>
-      <c r="G41" s="236" t="n">
+      <c r="C41" s="239"/>
+      <c r="E41" s="239"/>
+      <c r="G41" s="237" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="237" t="n">
+      <c r="B42" s="238" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="238"/>
-      <c r="E42" s="238"/>
-      <c r="G42" s="236" t="n">
+      <c r="C42" s="239"/>
+      <c r="E42" s="239"/>
+      <c r="G42" s="237" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="237" t="n">
+      <c r="B43" s="238" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="238"/>
-      <c r="E43" s="238"/>
-      <c r="G43" s="236" t="n">
+      <c r="C43" s="239"/>
+      <c r="E43" s="239"/>
+      <c r="G43" s="237" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="237" t="n">
+      <c r="B44" s="238" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="238"/>
-      <c r="E44" s="238"/>
-      <c r="G44" s="236" t="n">
+      <c r="C44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="G44" s="237" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="237" t="n">
+      <c r="B45" s="238" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="G45" s="236" t="n">
+      <c r="C45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="G45" s="237" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="237" t="n">
+      <c r="B46" s="238" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="238"/>
-      <c r="E46" s="238"/>
-      <c r="G46" s="236" t="n">
+      <c r="C46" s="239"/>
+      <c r="E46" s="239"/>
+      <c r="G46" s="237" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="239"/>
-      <c r="G47" s="240" t="n">
+      <c r="E47" s="240"/>
+      <c r="G47" s="241" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="240"/>
+      <c r="G49" s="241"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="241" t="s">
+      <c r="B51" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="242" t="s">
+      <c r="E51" s="243" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="241" t="s">
+      <c r="B54" s="242" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="243" t="n">
+      <c r="C54" s="244" t="n">
         <v>31.0</v>
       </c>
-      <c r="D54" s="244" t="s">
+      <c r="D54" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="245" t="s">
+      <c r="E54" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="246" t="s">
+      <c r="F54" s="247" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="247"/>
+      <c r="G54" s="248"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="249" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="248"/>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
-      <c r="H58" s="248"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
+      <c r="H58" s="249"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="248"/>
-      <c r="C59" s="248"/>
-      <c r="D59" s="248"/>
-      <c r="E59" s="248"/>
-      <c r="F59" s="248"/>
-      <c r="G59" s="248"/>
-      <c r="H59" s="248"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="249"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="249"/>
+      <c r="G59" s="249"/>
+      <c r="H59" s="249"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="248"/>
-      <c r="C60" s="248"/>
-      <c r="D60" s="248"/>
-      <c r="E60" s="248"/>
-      <c r="F60" s="248"/>
-      <c r="G60" s="248"/>
-      <c r="H60" s="248"/>
+      <c r="B60" s="249"/>
+      <c r="C60" s="249"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="249"/>
+      <c r="G60" s="249"/>
+      <c r="H60" s="249"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="248"/>
-      <c r="C61" s="248"/>
-      <c r="D61" s="248"/>
-      <c r="E61" s="248"/>
-      <c r="F61" s="248"/>
-      <c r="G61" s="248"/>
-      <c r="H61" s="248"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="249"/>
+      <c r="F61" s="249"/>
+      <c r="G61" s="249"/>
+      <c r="H61" s="249"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="248"/>
-      <c r="C62" s="248"/>
-      <c r="D62" s="248"/>
-      <c r="E62" s="248"/>
-      <c r="F62" s="248"/>
-      <c r="G62" s="248"/>
-      <c r="H62" s="248"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="249"/>
+      <c r="E62" s="249"/>
+      <c r="F62" s="249"/>
+      <c r="G62" s="249"/>
+      <c r="H62" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12601,7 +12620,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="true"/>
     <col min="8" max="8" width="4.77734375" customWidth="true"/>
     <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="3.88671875" customWidth="true"/>
+    <col min="10" max="10" width="5.21875" customWidth="true"/>
     <col min="11" max="11" width="13.33203125" customWidth="true"/>
     <col min="12" max="12" width="10.88671875" customWidth="true"/>
     <col min="13" max="13" width="10.88671875" customWidth="true"/>
@@ -12612,542 +12631,542 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="249"/>
-      <c r="K2" s="250" t="s">
+      <c r="J2" s="250"/>
+      <c r="K2" s="251" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="251"/>
-      <c r="K3" s="250" t="s">
+      <c r="J3" s="252"/>
+      <c r="K3" s="251" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="252"/>
-      <c r="K4" s="250" t="s">
+      <c r="J4" s="253"/>
+      <c r="K4" s="251" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="254" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255"/>
-      <c r="J6" s="256" t="s">
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="256"/>
+      <c r="J6" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="256"/>
-      <c r="P6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="258"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="259" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="E8" s="260" t="s">
+      <c r="C8" s="260"/>
+      <c r="E8" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="261"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="258" t="s">
+      <c r="B9" s="259" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="E9" s="260" t="s">
+      <c r="C9" s="260"/>
+      <c r="E9" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="261"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="258" t="s">
+      <c r="B10" s="259" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="E10" s="260" t="s">
+      <c r="C10" s="260"/>
+      <c r="E10" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="261"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="259"/>
-      <c r="E11" s="260" t="s">
+      <c r="C11" s="260"/>
+      <c r="E11" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="262"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="262"/>
     </row>
     <row r="12" ht="14.4" customHeight="true">
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="263"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="264"/>
     </row>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="264" t="s">
+      <c r="C14" s="265" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="264" t="s">
+      <c r="E14" s="265" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="265" t="s">
+      <c r="G14" s="266" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="264" t="s">
+      <c r="C15" s="265" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="264" t="s">
+      <c r="E15" s="265" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="266"/>
+      <c r="G15" s="267"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="267" t="n">
+      <c r="B16" s="268" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="G16" s="266" t="n">
+      <c r="C16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="G16" s="267" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="267" t="n">
+      <c r="B17" s="268" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="G17" s="266" t="n">
+      <c r="C17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="G17" s="267" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="267" t="n">
+      <c r="B18" s="268" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="G18" s="266" t="n">
+      <c r="C18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="G18" s="267" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="267" t="n">
+      <c r="B19" s="268" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="268"/>
-      <c r="E19" s="268"/>
-      <c r="G19" s="266" t="n">
+      <c r="C19" s="269"/>
+      <c r="E19" s="269"/>
+      <c r="G19" s="267" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="267" t="n">
+      <c r="B20" s="268" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="G20" s="266" t="n">
+      <c r="C20" s="269"/>
+      <c r="E20" s="269"/>
+      <c r="G20" s="267" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="267" t="n">
+      <c r="B21" s="268" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="268"/>
-      <c r="E21" s="268"/>
-      <c r="G21" s="266" t="n">
+      <c r="C21" s="269"/>
+      <c r="E21" s="269"/>
+      <c r="G21" s="267" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="267" t="n">
+      <c r="B22" s="268" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="268"/>
-      <c r="E22" s="268"/>
-      <c r="G22" s="266" t="n">
+      <c r="C22" s="269"/>
+      <c r="E22" s="269"/>
+      <c r="G22" s="267" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="267" t="n">
+      <c r="B23" s="268" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="268"/>
-      <c r="E23" s="268"/>
-      <c r="G23" s="266" t="n">
+      <c r="C23" s="269"/>
+      <c r="E23" s="269"/>
+      <c r="G23" s="267" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="267" t="n">
+      <c r="B24" s="268" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="268"/>
-      <c r="E24" s="268"/>
-      <c r="G24" s="266" t="n">
+      <c r="C24" s="269"/>
+      <c r="E24" s="269"/>
+      <c r="G24" s="267" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="267" t="n">
+      <c r="B25" s="268" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="G25" s="266" t="n">
+      <c r="C25" s="269"/>
+      <c r="E25" s="269"/>
+      <c r="G25" s="267" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="267" t="n">
+      <c r="B26" s="268" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="G26" s="266" t="n">
+      <c r="C26" s="269"/>
+      <c r="E26" s="269"/>
+      <c r="G26" s="267" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="267" t="n">
+      <c r="B27" s="268" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="268"/>
-      <c r="E27" s="268"/>
-      <c r="G27" s="266" t="n">
+      <c r="C27" s="269"/>
+      <c r="E27" s="269"/>
+      <c r="G27" s="267" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="267" t="n">
+      <c r="B28" s="268" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="G28" s="266" t="n">
+      <c r="C28" s="269"/>
+      <c r="E28" s="269"/>
+      <c r="G28" s="267" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="267" t="n">
+      <c r="B29" s="268" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="268"/>
-      <c r="E29" s="268"/>
-      <c r="G29" s="266" t="n">
+      <c r="C29" s="269"/>
+      <c r="E29" s="269"/>
+      <c r="G29" s="267" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="267" t="n">
+      <c r="B30" s="268" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="G30" s="266" t="n">
+      <c r="C30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="G30" s="267" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="267" t="n">
+      <c r="B31" s="268" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="G31" s="266" t="n">
+      <c r="C31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="G31" s="267" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="267" t="n">
+      <c r="B32" s="268" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="G32" s="266" t="n">
+      <c r="C32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="G32" s="267" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="267" t="n">
+      <c r="B33" s="268" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="G33" s="266" t="n">
+      <c r="C33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="G33" s="267" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="267" t="n">
+      <c r="B34" s="268" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="268"/>
-      <c r="E34" s="268"/>
-      <c r="G34" s="266" t="n">
+      <c r="C34" s="269"/>
+      <c r="E34" s="269"/>
+      <c r="G34" s="267" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="267" t="n">
+      <c r="B35" s="268" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="268"/>
-      <c r="E35" s="268"/>
-      <c r="G35" s="266" t="n">
+      <c r="C35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="G35" s="267" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="267" t="n">
+      <c r="B36" s="268" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="268"/>
-      <c r="E36" s="268"/>
-      <c r="G36" s="266" t="n">
+      <c r="C36" s="269"/>
+      <c r="E36" s="269"/>
+      <c r="G36" s="267" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="267" t="n">
+      <c r="B37" s="268" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="268"/>
-      <c r="E37" s="268"/>
-      <c r="G37" s="266" t="n">
+      <c r="C37" s="269"/>
+      <c r="E37" s="269"/>
+      <c r="G37" s="267" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="267" t="n">
+      <c r="B38" s="268" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="268"/>
-      <c r="E38" s="268"/>
-      <c r="G38" s="266" t="n">
+      <c r="C38" s="269"/>
+      <c r="E38" s="269"/>
+      <c r="G38" s="267" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="267" t="n">
+      <c r="B39" s="268" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="268"/>
-      <c r="E39" s="268"/>
-      <c r="G39" s="266" t="n">
+      <c r="C39" s="269"/>
+      <c r="E39" s="269"/>
+      <c r="G39" s="267" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="267" t="n">
+      <c r="B40" s="268" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="268"/>
-      <c r="E40" s="268"/>
-      <c r="G40" s="266" t="n">
+      <c r="C40" s="269"/>
+      <c r="E40" s="269"/>
+      <c r="G40" s="267" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="267" t="n">
+      <c r="B41" s="268" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="268"/>
-      <c r="E41" s="268"/>
-      <c r="G41" s="266" t="n">
+      <c r="C41" s="269"/>
+      <c r="E41" s="269"/>
+      <c r="G41" s="267" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="267" t="n">
+      <c r="B42" s="268" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="268"/>
-      <c r="E42" s="268"/>
-      <c r="G42" s="266" t="n">
+      <c r="C42" s="269"/>
+      <c r="E42" s="269"/>
+      <c r="G42" s="267" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="267" t="n">
+      <c r="B43" s="268" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="268"/>
-      <c r="E43" s="268"/>
-      <c r="G43" s="266" t="n">
+      <c r="C43" s="269"/>
+      <c r="E43" s="269"/>
+      <c r="G43" s="267" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="267" t="n">
+      <c r="B44" s="268" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="268"/>
-      <c r="E44" s="268"/>
-      <c r="G44" s="266" t="n">
+      <c r="C44" s="269"/>
+      <c r="E44" s="269"/>
+      <c r="G44" s="267" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="267" t="n">
+      <c r="B45" s="268" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="268"/>
-      <c r="E45" s="268"/>
-      <c r="G45" s="266" t="n">
+      <c r="C45" s="269"/>
+      <c r="E45" s="269"/>
+      <c r="G45" s="267" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46"/>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="269"/>
-      <c r="G47" s="270" t="n">
+      <c r="E47" s="270"/>
+      <c r="G47" s="271" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="270"/>
+      <c r="G49" s="271"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="271" t="s">
+      <c r="B51" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="272" t="s">
+      <c r="E51" s="273" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="271" t="s">
+      <c r="B54" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="273" t="n">
+      <c r="C54" s="274" t="n">
         <v>30.0</v>
       </c>
-      <c r="D54" s="274" t="s">
+      <c r="D54" s="275" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="275" t="s">
+      <c r="E54" s="276" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="276" t="s">
+      <c r="F54" s="277" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="263"/>
+      <c r="G54" s="264"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="277" t="s">
+      <c r="B58" s="278" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="277"/>
-      <c r="D58" s="277"/>
-      <c r="E58" s="277"/>
-      <c r="F58" s="277"/>
-      <c r="G58" s="277"/>
-      <c r="H58" s="277"/>
+      <c r="C58" s="278"/>
+      <c r="D58" s="278"/>
+      <c r="E58" s="278"/>
+      <c r="F58" s="278"/>
+      <c r="G58" s="278"/>
+      <c r="H58" s="278"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="277"/>
-      <c r="C59" s="277"/>
-      <c r="D59" s="277"/>
-      <c r="E59" s="277"/>
-      <c r="F59" s="277"/>
-      <c r="G59" s="277"/>
-      <c r="H59" s="277"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="278"/>
+      <c r="D59" s="278"/>
+      <c r="E59" s="278"/>
+      <c r="F59" s="278"/>
+      <c r="G59" s="278"/>
+      <c r="H59" s="278"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="277"/>
-      <c r="C60" s="277"/>
-      <c r="D60" s="277"/>
-      <c r="E60" s="277"/>
-      <c r="F60" s="277"/>
-      <c r="G60" s="277"/>
-      <c r="H60" s="277"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="278"/>
+      <c r="D60" s="278"/>
+      <c r="E60" s="278"/>
+      <c r="F60" s="278"/>
+      <c r="G60" s="278"/>
+      <c r="H60" s="278"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="277"/>
-      <c r="C61" s="277"/>
-      <c r="D61" s="277"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="277"/>
-      <c r="G61" s="277"/>
-      <c r="H61" s="277"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="278"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="277"/>
-      <c r="C62" s="277"/>
-      <c r="D62" s="277"/>
-      <c r="E62" s="277"/>
-      <c r="F62" s="277"/>
-      <c r="G62" s="277"/>
-      <c r="H62" s="277"/>
+      <c r="B62" s="278"/>
+      <c r="C62" s="278"/>
+      <c r="D62" s="278"/>
+      <c r="E62" s="278"/>
+      <c r="F62" s="278"/>
+      <c r="G62" s="278"/>
+      <c r="H62" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13191,548 +13210,548 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="278"/>
-      <c r="K2" s="279" t="s">
+      <c r="J2" s="279"/>
+      <c r="K2" s="280" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="280"/>
-      <c r="K3" s="279" t="s">
+      <c r="J3" s="281"/>
+      <c r="K3" s="280" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="281"/>
-      <c r="K4" s="279" t="s">
+      <c r="J4" s="282"/>
+      <c r="K4" s="280" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="284"/>
-      <c r="J6" s="285" t="s">
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284"/>
+      <c r="H6" s="285"/>
+      <c r="J6" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
-      <c r="M6" s="285"/>
-      <c r="N6" s="285"/>
-      <c r="O6" s="285"/>
-      <c r="P6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="287"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="287" t="s">
+      <c r="B8" s="288" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="288"/>
-      <c r="E8" s="289" t="s">
+      <c r="C8" s="289"/>
+      <c r="E8" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="287" t="s">
+      <c r="B9" s="288" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="E9" s="289" t="s">
+      <c r="C9" s="289"/>
+      <c r="E9" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="288" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="E10" s="289" t="s">
+      <c r="C10" s="289"/>
+      <c r="E10" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="287" t="s">
+      <c r="B11" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="288"/>
-      <c r="E11" s="289" t="s">
+      <c r="C11" s="289"/>
+      <c r="E11" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="291"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="291"/>
+      <c r="H11" s="291"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="292" t="s">
+      <c r="C14" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="292" t="s">
+      <c r="E14" s="293" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="293" t="s">
+      <c r="G14" s="294" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="293" t="s">
+      <c r="B15" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="292" t="s">
+      <c r="C15" s="293" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="292" t="s">
+      <c r="E15" s="293" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="294"/>
+      <c r="G15" s="295"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="295" t="n">
+      <c r="B16" s="296" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="G16" s="294" t="n">
+      <c r="C16" s="297"/>
+      <c r="E16" s="297"/>
+      <c r="G16" s="295" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="295" t="n">
+      <c r="B17" s="296" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="G17" s="294" t="n">
+      <c r="C17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="G17" s="295" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="295" t="n">
+      <c r="B18" s="296" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="G18" s="294" t="n">
+      <c r="C18" s="297"/>
+      <c r="E18" s="297"/>
+      <c r="G18" s="295" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="295" t="n">
+      <c r="B19" s="296" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="G19" s="294" t="n">
+      <c r="C19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="G19" s="295" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="295" t="n">
+      <c r="B20" s="296" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="296"/>
-      <c r="E20" s="296"/>
-      <c r="G20" s="294" t="n">
+      <c r="C20" s="297"/>
+      <c r="E20" s="297"/>
+      <c r="G20" s="295" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="295" t="n">
+      <c r="B21" s="296" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="G21" s="294" t="n">
+      <c r="C21" s="297"/>
+      <c r="E21" s="297"/>
+      <c r="G21" s="295" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="295" t="n">
+      <c r="B22" s="296" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="296"/>
-      <c r="E22" s="296"/>
-      <c r="G22" s="294" t="n">
+      <c r="C22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="G22" s="295" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="295" t="n">
+      <c r="B23" s="296" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="296"/>
-      <c r="E23" s="296"/>
-      <c r="G23" s="294" t="n">
+      <c r="C23" s="297"/>
+      <c r="E23" s="297"/>
+      <c r="G23" s="295" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="295" t="n">
+      <c r="B24" s="296" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="296"/>
-      <c r="E24" s="296"/>
-      <c r="G24" s="294" t="n">
+      <c r="C24" s="297"/>
+      <c r="E24" s="297"/>
+      <c r="G24" s="295" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="295" t="n">
+      <c r="B25" s="296" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="296"/>
-      <c r="E25" s="296"/>
-      <c r="G25" s="294" t="n">
+      <c r="C25" s="297"/>
+      <c r="E25" s="297"/>
+      <c r="G25" s="295" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="295" t="n">
+      <c r="B26" s="296" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="296"/>
-      <c r="E26" s="296"/>
-      <c r="G26" s="294" t="n">
+      <c r="C26" s="297"/>
+      <c r="E26" s="297"/>
+      <c r="G26" s="295" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="295" t="n">
+      <c r="B27" s="296" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="E27" s="296"/>
-      <c r="G27" s="294" t="n">
+      <c r="C27" s="297"/>
+      <c r="E27" s="297"/>
+      <c r="G27" s="295" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="295" t="n">
+      <c r="B28" s="296" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="296"/>
-      <c r="E28" s="296"/>
-      <c r="G28" s="294" t="n">
+      <c r="C28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="G28" s="295" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="295" t="n">
+      <c r="B29" s="296" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="296"/>
-      <c r="E29" s="296"/>
-      <c r="G29" s="294" t="n">
+      <c r="C29" s="297"/>
+      <c r="E29" s="297"/>
+      <c r="G29" s="295" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="295" t="n">
+      <c r="B30" s="296" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="296"/>
-      <c r="E30" s="296"/>
-      <c r="G30" s="294" t="n">
+      <c r="C30" s="297"/>
+      <c r="E30" s="297"/>
+      <c r="G30" s="295" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="295" t="n">
+      <c r="B31" s="296" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="296"/>
-      <c r="E31" s="296"/>
-      <c r="G31" s="294" t="n">
+      <c r="C31" s="297"/>
+      <c r="E31" s="297"/>
+      <c r="G31" s="295" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="295" t="n">
+      <c r="B32" s="296" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="296"/>
-      <c r="E32" s="296"/>
-      <c r="G32" s="294" t="n">
+      <c r="C32" s="297"/>
+      <c r="E32" s="297"/>
+      <c r="G32" s="295" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="295" t="n">
+      <c r="B33" s="296" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="296"/>
-      <c r="E33" s="296"/>
-      <c r="G33" s="294" t="n">
+      <c r="C33" s="297"/>
+      <c r="E33" s="297"/>
+      <c r="G33" s="295" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="295" t="n">
+      <c r="B34" s="296" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="296"/>
-      <c r="E34" s="296"/>
-      <c r="G34" s="294" t="n">
+      <c r="C34" s="297"/>
+      <c r="E34" s="297"/>
+      <c r="G34" s="295" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="295" t="n">
+      <c r="B35" s="296" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="296"/>
-      <c r="E35" s="296"/>
-      <c r="G35" s="294" t="n">
+      <c r="C35" s="297"/>
+      <c r="E35" s="297"/>
+      <c r="G35" s="295" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="295" t="n">
+      <c r="B36" s="296" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="296"/>
-      <c r="E36" s="296"/>
-      <c r="G36" s="294" t="n">
+      <c r="C36" s="297"/>
+      <c r="E36" s="297"/>
+      <c r="G36" s="295" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="295" t="n">
+      <c r="B37" s="296" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="296"/>
-      <c r="E37" s="296"/>
-      <c r="G37" s="294" t="n">
+      <c r="C37" s="297"/>
+      <c r="E37" s="297"/>
+      <c r="G37" s="295" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="295" t="n">
+      <c r="B38" s="296" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="296"/>
-      <c r="E38" s="296"/>
-      <c r="G38" s="294" t="n">
+      <c r="C38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="G38" s="295" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="295" t="n">
+      <c r="B39" s="296" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="296"/>
-      <c r="E39" s="296"/>
-      <c r="G39" s="294" t="n">
+      <c r="C39" s="297"/>
+      <c r="E39" s="297"/>
+      <c r="G39" s="295" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="295" t="n">
+      <c r="B40" s="296" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="296"/>
-      <c r="E40" s="296"/>
-      <c r="G40" s="294" t="n">
+      <c r="C40" s="297"/>
+      <c r="E40" s="297"/>
+      <c r="G40" s="295" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="295" t="n">
+      <c r="B41" s="296" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="296"/>
-      <c r="E41" s="296"/>
-      <c r="G41" s="294" t="n">
+      <c r="C41" s="297"/>
+      <c r="E41" s="297"/>
+      <c r="G41" s="295" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="295" t="n">
+      <c r="B42" s="296" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="296"/>
-      <c r="E42" s="296"/>
-      <c r="G42" s="294" t="n">
+      <c r="C42" s="297"/>
+      <c r="E42" s="297"/>
+      <c r="G42" s="295" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="295" t="n">
+      <c r="B43" s="296" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="296"/>
-      <c r="E43" s="296"/>
-      <c r="G43" s="294" t="n">
+      <c r="C43" s="297"/>
+      <c r="E43" s="297"/>
+      <c r="G43" s="295" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="295" t="n">
+      <c r="B44" s="296" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="296"/>
-      <c r="E44" s="296"/>
-      <c r="G44" s="294" t="n">
+      <c r="C44" s="297"/>
+      <c r="E44" s="297"/>
+      <c r="G44" s="295" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="295" t="n">
+      <c r="B45" s="296" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="296"/>
-      <c r="E45" s="296"/>
-      <c r="G45" s="294" t="n">
+      <c r="C45" s="297"/>
+      <c r="E45" s="297"/>
+      <c r="G45" s="295" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="295" t="n">
+      <c r="B46" s="296" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="296"/>
-      <c r="E46" s="296"/>
-      <c r="G46" s="294" t="n">
+      <c r="C46" s="297"/>
+      <c r="E46" s="297"/>
+      <c r="G46" s="295" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="297"/>
-      <c r="G47" s="298" t="n">
+      <c r="E47" s="298"/>
+      <c r="G47" s="299" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="298"/>
+      <c r="G49" s="299"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="299" t="s">
+      <c r="B51" s="300" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="300" t="s">
+      <c r="E51" s="301" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="299" t="s">
+      <c r="B54" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="301" t="n">
+      <c r="C54" s="302" t="n">
         <v>31.0</v>
       </c>
-      <c r="D54" s="302" t="s">
+      <c r="D54" s="303" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="303" t="s">
+      <c r="E54" s="304" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="304" t="s">
+      <c r="F54" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="305"/>
+      <c r="G54" s="306"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="306" t="s">
+      <c r="B58" s="307" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="306"/>
-      <c r="D58" s="306"/>
-      <c r="E58" s="306"/>
-      <c r="F58" s="306"/>
-      <c r="G58" s="306"/>
-      <c r="H58" s="306"/>
+      <c r="C58" s="307"/>
+      <c r="D58" s="307"/>
+      <c r="E58" s="307"/>
+      <c r="F58" s="307"/>
+      <c r="G58" s="307"/>
+      <c r="H58" s="307"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="306"/>
-      <c r="C59" s="306"/>
-      <c r="D59" s="306"/>
-      <c r="E59" s="306"/>
-      <c r="F59" s="306"/>
-      <c r="G59" s="306"/>
-      <c r="H59" s="306"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
+      <c r="G59" s="307"/>
+      <c r="H59" s="307"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="306"/>
-      <c r="C60" s="306"/>
-      <c r="D60" s="306"/>
-      <c r="E60" s="306"/>
-      <c r="F60" s="306"/>
-      <c r="G60" s="306"/>
-      <c r="H60" s="306"/>
+      <c r="B60" s="307"/>
+      <c r="C60" s="307"/>
+      <c r="D60" s="307"/>
+      <c r="E60" s="307"/>
+      <c r="F60" s="307"/>
+      <c r="G60" s="307"/>
+      <c r="H60" s="307"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="306"/>
-      <c r="C61" s="306"/>
-      <c r="D61" s="306"/>
-      <c r="E61" s="306"/>
-      <c r="F61" s="306"/>
-      <c r="G61" s="306"/>
-      <c r="H61" s="306"/>
+      <c r="B61" s="307"/>
+      <c r="C61" s="307"/>
+      <c r="D61" s="307"/>
+      <c r="E61" s="307"/>
+      <c r="F61" s="307"/>
+      <c r="G61" s="307"/>
+      <c r="H61" s="307"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="306"/>
-      <c r="C62" s="306"/>
-      <c r="D62" s="306"/>
-      <c r="E62" s="306"/>
-      <c r="F62" s="306"/>
-      <c r="G62" s="306"/>
-      <c r="H62" s="306"/>
+      <c r="B62" s="307"/>
+      <c r="C62" s="307"/>
+      <c r="D62" s="307"/>
+      <c r="E62" s="307"/>
+      <c r="F62" s="307"/>
+      <c r="G62" s="307"/>
+      <c r="H62" s="307"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13776,548 +13795,548 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
-      <c r="J2" s="307"/>
-      <c r="K2" s="308" t="s">
+      <c r="J2" s="308"/>
+      <c r="K2" s="309" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="true">
-      <c r="J3" s="309"/>
-      <c r="K3" s="308" t="s">
+      <c r="J3" s="310"/>
+      <c r="K3" s="309" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="true">
-      <c r="J4" s="310"/>
-      <c r="K4" s="308" t="s">
+      <c r="J4" s="311"/>
+      <c r="K4" s="309" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true"/>
     <row r="6" ht="16.2" customHeight="true">
-      <c r="B6" s="311" t="s">
+      <c r="B6" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="312"/>
-      <c r="H6" s="313"/>
-      <c r="J6" s="314" t="s">
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="314"/>
+      <c r="J6" s="315" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="314"/>
-      <c r="L6" s="314"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314"/>
-      <c r="O6" s="314"/>
-      <c r="P6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="315"/>
+      <c r="P6" s="316"/>
     </row>
     <row r="7"/>
     <row r="8" ht="14.4" customHeight="true">
-      <c r="B8" s="316" t="s">
+      <c r="B8" s="317" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="317"/>
-      <c r="E8" s="318" t="s">
+      <c r="C8" s="318"/>
+      <c r="E8" s="319" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
+      <c r="F8" s="320"/>
+      <c r="G8" s="320"/>
+      <c r="H8" s="320"/>
     </row>
     <row r="9" ht="14.4" customHeight="true">
-      <c r="B9" s="316" t="s">
+      <c r="B9" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="317"/>
-      <c r="E9" s="318" t="s">
+      <c r="C9" s="318"/>
+      <c r="E9" s="319" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
     </row>
     <row r="10" ht="14.4" customHeight="true">
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="317"/>
-      <c r="E10" s="318" t="s">
+      <c r="C10" s="318"/>
+      <c r="E10" s="319" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
     </row>
     <row r="11" ht="14.4" customHeight="true">
-      <c r="B11" s="316" t="s">
+      <c r="B11" s="317" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="317"/>
-      <c r="E11" s="318" t="s">
+      <c r="C11" s="318"/>
+      <c r="E11" s="319" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="320"/>
-      <c r="G11" s="319"/>
-      <c r="H11" s="319"/>
+      <c r="F11" s="321"/>
+      <c r="G11" s="320"/>
+      <c r="H11" s="320"/>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14" ht="14.4" customHeight="true">
-      <c r="C14" s="321" t="s">
+      <c r="C14" s="322" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="321" t="s">
+      <c r="E14" s="322" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="322" t="s">
+      <c r="G14" s="323" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="true">
-      <c r="B15" s="322" t="s">
+      <c r="B15" s="323" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="321" t="s">
+      <c r="C15" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="321" t="s">
+      <c r="E15" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="323"/>
+      <c r="G15" s="324"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="324" t="n">
+      <c r="B16" s="325" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="325"/>
-      <c r="E16" s="325"/>
-      <c r="G16" s="323" t="n">
+      <c r="C16" s="326"/>
+      <c r="E16" s="326"/>
+      <c r="G16" s="324" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="324" t="n">
+      <c r="B17" s="325" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="325"/>
-      <c r="E17" s="325"/>
-      <c r="G17" s="323" t="n">
+      <c r="C17" s="326"/>
+      <c r="E17" s="326"/>
+      <c r="G17" s="324" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="324" t="n">
+      <c r="B18" s="325" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="325"/>
-      <c r="E18" s="325"/>
-      <c r="G18" s="323" t="n">
+      <c r="C18" s="326"/>
+      <c r="E18" s="326"/>
+      <c r="G18" s="324" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="324" t="n">
+      <c r="B19" s="325" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="325"/>
-      <c r="E19" s="325"/>
-      <c r="G19" s="323" t="n">
+      <c r="C19" s="326"/>
+      <c r="E19" s="326"/>
+      <c r="G19" s="324" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="324" t="n">
+      <c r="B20" s="325" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="325"/>
-      <c r="E20" s="325"/>
-      <c r="G20" s="323" t="n">
+      <c r="C20" s="326"/>
+      <c r="E20" s="326"/>
+      <c r="G20" s="324" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="324" t="n">
+      <c r="B21" s="325" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="325"/>
-      <c r="E21" s="325"/>
-      <c r="G21" s="323" t="n">
+      <c r="C21" s="326"/>
+      <c r="E21" s="326"/>
+      <c r="G21" s="324" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="324" t="n">
+      <c r="B22" s="325" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="G22" s="323" t="n">
+      <c r="C22" s="326"/>
+      <c r="E22" s="326"/>
+      <c r="G22" s="324" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="324" t="n">
+      <c r="B23" s="325" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="325"/>
-      <c r="E23" s="325"/>
-      <c r="G23" s="323" t="n">
+      <c r="C23" s="326"/>
+      <c r="E23" s="326"/>
+      <c r="G23" s="324" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="324" t="n">
+      <c r="B24" s="325" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="325"/>
-      <c r="E24" s="325"/>
-      <c r="G24" s="323" t="n">
+      <c r="C24" s="326"/>
+      <c r="E24" s="326"/>
+      <c r="G24" s="324" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="324" t="n">
+      <c r="B25" s="325" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="325"/>
-      <c r="E25" s="325"/>
-      <c r="G25" s="323" t="n">
+      <c r="C25" s="326"/>
+      <c r="E25" s="326"/>
+      <c r="G25" s="324" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="324" t="n">
+      <c r="B26" s="325" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="E26" s="325"/>
-      <c r="G26" s="323" t="n">
+      <c r="C26" s="326"/>
+      <c r="E26" s="326"/>
+      <c r="G26" s="324" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="324" t="n">
+      <c r="B27" s="325" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="G27" s="323" t="n">
+      <c r="C27" s="326"/>
+      <c r="E27" s="326"/>
+      <c r="G27" s="324" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="324" t="n">
+      <c r="B28" s="325" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="G28" s="323" t="n">
+      <c r="C28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="G28" s="324" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="324" t="n">
+      <c r="B29" s="325" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="325"/>
-      <c r="E29" s="325"/>
-      <c r="G29" s="323" t="n">
+      <c r="C29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="G29" s="324" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="324" t="n">
+      <c r="B30" s="325" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="325"/>
-      <c r="E30" s="325"/>
-      <c r="G30" s="323" t="n">
+      <c r="C30" s="326"/>
+      <c r="E30" s="326"/>
+      <c r="G30" s="324" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="324" t="n">
+      <c r="B31" s="325" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="325"/>
-      <c r="E31" s="325"/>
-      <c r="G31" s="323" t="n">
+      <c r="C31" s="326"/>
+      <c r="E31" s="326"/>
+      <c r="G31" s="324" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="324" t="n">
+      <c r="B32" s="325" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="325"/>
-      <c r="E32" s="325"/>
-      <c r="G32" s="323" t="n">
+      <c r="C32" s="326"/>
+      <c r="E32" s="326"/>
+      <c r="G32" s="324" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="324" t="n">
+      <c r="B33" s="325" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="325"/>
-      <c r="E33" s="325"/>
-      <c r="G33" s="323" t="n">
+      <c r="C33" s="326"/>
+      <c r="E33" s="326"/>
+      <c r="G33" s="324" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="324" t="n">
+      <c r="B34" s="325" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="325"/>
-      <c r="E34" s="325"/>
-      <c r="G34" s="323" t="n">
+      <c r="C34" s="326"/>
+      <c r="E34" s="326"/>
+      <c r="G34" s="324" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="324" t="n">
+      <c r="B35" s="325" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="325"/>
-      <c r="E35" s="325"/>
-      <c r="G35" s="323" t="n">
+      <c r="C35" s="326"/>
+      <c r="E35" s="326"/>
+      <c r="G35" s="324" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="324" t="n">
+      <c r="B36" s="325" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="325"/>
-      <c r="E36" s="325"/>
-      <c r="G36" s="323" t="n">
+      <c r="C36" s="326"/>
+      <c r="E36" s="326"/>
+      <c r="G36" s="324" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="324" t="n">
+      <c r="B37" s="325" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="325"/>
-      <c r="E37" s="325"/>
-      <c r="G37" s="323" t="n">
+      <c r="C37" s="326"/>
+      <c r="E37" s="326"/>
+      <c r="G37" s="324" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="324" t="n">
+      <c r="B38" s="325" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="325"/>
-      <c r="E38" s="325"/>
-      <c r="G38" s="323" t="n">
+      <c r="C38" s="326"/>
+      <c r="E38" s="326"/>
+      <c r="G38" s="324" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="324" t="n">
+      <c r="B39" s="325" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="325"/>
-      <c r="E39" s="325"/>
-      <c r="G39" s="323" t="n">
+      <c r="C39" s="326"/>
+      <c r="E39" s="326"/>
+      <c r="G39" s="324" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="324" t="n">
+      <c r="B40" s="325" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="325"/>
-      <c r="E40" s="325"/>
-      <c r="G40" s="323" t="n">
+      <c r="C40" s="326"/>
+      <c r="E40" s="326"/>
+      <c r="G40" s="324" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="324" t="n">
+      <c r="B41" s="325" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="325"/>
-      <c r="E41" s="325"/>
-      <c r="G41" s="323" t="n">
+      <c r="C41" s="326"/>
+      <c r="E41" s="326"/>
+      <c r="G41" s="324" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="324" t="n">
+      <c r="B42" s="325" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="325"/>
-      <c r="E42" s="325"/>
-      <c r="G42" s="323" t="n">
+      <c r="C42" s="326"/>
+      <c r="E42" s="326"/>
+      <c r="G42" s="324" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="324" t="n">
+      <c r="B43" s="325" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="325"/>
-      <c r="E43" s="325"/>
-      <c r="G43" s="323" t="n">
+      <c r="C43" s="326"/>
+      <c r="E43" s="326"/>
+      <c r="G43" s="324" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="324" t="n">
+      <c r="B44" s="325" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="325"/>
-      <c r="E44" s="325"/>
-      <c r="G44" s="323" t="n">
+      <c r="C44" s="326"/>
+      <c r="E44" s="326"/>
+      <c r="G44" s="324" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="324" t="n">
+      <c r="B45" s="325" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="325"/>
-      <c r="E45" s="325"/>
-      <c r="G45" s="323" t="n">
+      <c r="C45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="G45" s="324" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="324" t="n">
+      <c r="B46" s="325" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="325"/>
-      <c r="E46" s="325"/>
-      <c r="G46" s="323" t="n">
+      <c r="C46" s="326"/>
+      <c r="E46" s="326"/>
+      <c r="G46" s="324" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
-      <c r="E47" s="326"/>
-      <c r="G47" s="327" t="n">
+      <c r="E47" s="327"/>
+      <c r="G47" s="328" t="n">
         <f>SUM(G16:G46)</f>
         <v>0.0</v>
       </c>
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="327"/>
+      <c r="G49" s="328"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
-      <c r="B51" s="328" t="s">
+      <c r="B51" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="329" t="s">
+      <c r="E51" s="330" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
-      <c r="B54" s="328" t="s">
+      <c r="B54" s="329" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="330" t="n">
+      <c r="C54" s="331" t="n">
         <v>31.0</v>
       </c>
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="332" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="332" t="s">
+      <c r="E54" s="333" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="333" t="s">
+      <c r="F54" s="334" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="334"/>
+      <c r="G54" s="335"/>
     </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58" ht="14.4" customHeight="true">
-      <c r="B58" s="335" t="s">
+      <c r="B58" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="335"/>
-      <c r="D58" s="335"/>
-      <c r="E58" s="335"/>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="335"/>
+      <c r="C58" s="336"/>
+      <c r="D58" s="336"/>
+      <c r="E58" s="336"/>
+      <c r="F58" s="336"/>
+      <c r="G58" s="336"/>
+      <c r="H58" s="336"/>
     </row>
     <row r="59" ht="14.4" customHeight="true">
-      <c r="B59" s="335"/>
-      <c r="C59" s="335"/>
-      <c r="D59" s="335"/>
-      <c r="E59" s="335"/>
-      <c r="F59" s="335"/>
-      <c r="G59" s="335"/>
-      <c r="H59" s="335"/>
+      <c r="B59" s="336"/>
+      <c r="C59" s="336"/>
+      <c r="D59" s="336"/>
+      <c r="E59" s="336"/>
+      <c r="F59" s="336"/>
+      <c r="G59" s="336"/>
+      <c r="H59" s="336"/>
     </row>
     <row r="60" ht="14.4" customHeight="true">
-      <c r="B60" s="335"/>
-      <c r="C60" s="335"/>
-      <c r="D60" s="335"/>
-      <c r="E60" s="335"/>
-      <c r="F60" s="335"/>
-      <c r="G60" s="335"/>
-      <c r="H60" s="335"/>
+      <c r="B60" s="336"/>
+      <c r="C60" s="336"/>
+      <c r="D60" s="336"/>
+      <c r="E60" s="336"/>
+      <c r="F60" s="336"/>
+      <c r="G60" s="336"/>
+      <c r="H60" s="336"/>
     </row>
     <row r="61" ht="14.4" customHeight="true">
-      <c r="B61" s="335"/>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="335"/>
+      <c r="B61" s="336"/>
+      <c r="C61" s="336"/>
+      <c r="D61" s="336"/>
+      <c r="E61" s="336"/>
+      <c r="F61" s="336"/>
+      <c r="G61" s="336"/>
+      <c r="H61" s="336"/>
     </row>
     <row r="62" ht="14.4" customHeight="true">
-      <c r="B62" s="335"/>
-      <c r="C62" s="335"/>
-      <c r="D62" s="335"/>
-      <c r="E62" s="335"/>
-      <c r="F62" s="335"/>
-      <c r="G62" s="335"/>
-      <c r="H62" s="335"/>
+      <c r="B62" s="336"/>
+      <c r="C62" s="336"/>
+      <c r="D62" s="336"/>
+      <c r="E62" s="336"/>
+      <c r="F62" s="336"/>
+      <c r="G62" s="336"/>
+      <c r="H62" s="336"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="83">
   <si>
     <t>2021 Calendar</t>
   </si>
   <si>
-    <t>MATARÓ</t>
+    <t>Pamplona</t>
   </si>
   <si>
     <r>
@@ -252,6 +252,9 @@
     <t>Registro realizado en  cumplimiento del apartado dos, del artículo 10 del R.D.-Ley 8/2019, de 8 de marzo por el que se modifica el artículo 34 del E.T., por el que se establece que “La empresa garantizará el registro diario de jornada, que deberá incluir el horario concreto de inicio y finalización de la jornada de trabajo de cada persona trabajadora, sin perjuicio de la flexibilidad horaria que se establece en este artículo. Mediante negociación colectiva o acuerdo de empresa o, en su defecto, decisión del empresario previa consulta con los representantes legales de los trabajadores en la empresa, se organizará y documentará este registro de jornada. La empresa conservará los registros a que se refiere este precepto durante cuatro años y permanecerán a disposición de las personas trabajadoras, de sus representantes legales y de la Inspección de Trabajo y Seguridad”.</t>
   </si>
   <si>
+    <t>En Pamplona a</t>
+  </si>
+  <si>
     <t>Febrero</t>
   </si>
   <si>
@@ -1060,9 +1063,8 @@
       <main:scheme val="minor"/>
     </font>
     <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
       <main:sz val="10"/>
-      <main:color rgb="FF263E74"/>
+      <main:color theme="1"/>
       <main:name val="Arial"/>
       <main:family val="2"/>
     </font>
@@ -5369,6 +5371,522 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1081649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3734187" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:AC40"/>
@@ -7299,7 +7817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7793,7 +8311,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="358" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="360" t="n">
         <v>30.0</v>
@@ -7802,12 +8320,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="362" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" s="363" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="364"/>
+      <c r="G54" s="364" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -7870,11 +8390,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8378,7 +8899,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="387" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="389" t="n">
         <v>31.0</v>
@@ -8387,12 +8908,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="391" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F54" s="392" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="393"/>
+      <c r="G54" s="393" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -8455,11 +8978,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8953,7 +9477,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="416" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="418" t="n">
         <v>30.0</v>
@@ -8962,12 +9486,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="420" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F54" s="421" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="422"/>
+      <c r="G54" s="422" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -9030,11 +9556,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9538,7 +10065,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="445" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="447" t="n">
         <v>31.0</v>
@@ -9547,12 +10074,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="449" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" s="450" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="451"/>
+      <c r="G54" s="451" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -9615,11 +10144,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10138,7 +10668,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="117" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="119" t="n">
         <v>31.0</v>
@@ -10152,7 +10682,9 @@
       <c r="F54" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="123"/>
+      <c r="G54" s="123" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -10215,11 +10747,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10693,45 +11226,48 @@
     </row>
     <row r="46" ht="14.4" customHeight="true">
       <c r="E46" s="147"/>
-      <c r="G46" s="148" t="n">
+    </row>
+    <row r="47" ht="14.4" customHeight="true">
+      <c r="G47" s="148" t="n">
         <f>SUM(G16:G45)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="47"/>
-    <row r="48" ht="14.4" customHeight="true">
-      <c r="G48" s="148"/>
-    </row>
-    <row r="49"/>
-    <row r="50" ht="14.4" customHeight="true">
-      <c r="B50" s="146" t="s">
+    <row r="48"/>
+    <row r="49" ht="14.4" customHeight="true">
+      <c r="G49" s="148"/>
+    </row>
+    <row r="50"/>
+    <row r="51" ht="14.4" customHeight="true">
+      <c r="B51" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="149" t="s">
+      <c r="E51" s="149" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51"/>
     <row r="52"/>
-    <row r="53" ht="14.4" customHeight="true">
-      <c r="B53" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="150" t="n">
+    <row r="53"/>
+    <row r="54" ht="14.4" customHeight="true">
+      <c r="B54" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="150" t="n">
         <v>28.0</v>
       </c>
-      <c r="D53" s="151" t="s">
+      <c r="D54" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" s="153" t="s">
+      <c r="E54" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="154"/>
-    </row>
-    <row r="54"/>
+      <c r="G54" s="154" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57" ht="14.4" customHeight="true">
@@ -10792,20 +11328,21 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B58:H62"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11309,10 +11846,7 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="179" t="n">
-        <f>#REF!</f>
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="179"/>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -11327,7 +11861,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="180" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="182" t="n">
         <v>31.0</v>
@@ -11336,7 +11870,7 @@
         <v>68</v>
       </c>
       <c r="E54" s="184" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="185" t="s">
         <v>68</v>
@@ -11406,11 +11940,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11923,7 +12458,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="209" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="213" t="n">
         <v>30.0</v>
@@ -11932,12 +12467,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="215" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F54" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="217"/>
+      <c r="G54" s="217" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -12000,11 +12537,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12523,7 +13061,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="242" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="244" t="n">
         <v>31.0</v>
@@ -12532,12 +13070,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="246" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" s="247" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="248"/>
+      <c r="G54" s="248" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -12600,11 +13140,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13102,7 +13643,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="272" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="274" t="n">
         <v>30.0</v>
@@ -13111,12 +13652,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="276" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="277" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="264"/>
+      <c r="G54" s="264" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -13179,11 +13722,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13687,7 +14231,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="300" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="302" t="n">
         <v>31.0</v>
@@ -13696,12 +14240,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="304" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="306"/>
+      <c r="G54" s="306" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -13764,11 +14310,12 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14272,7 +14819,7 @@
     <row r="53"/>
     <row r="54" ht="14.4" customHeight="true">
       <c r="B54" s="329" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C54" s="331" t="n">
         <v>31.0</v>
@@ -14281,12 +14828,14 @@
         <v>68</v>
       </c>
       <c r="E54" s="333" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="334" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="335"/>
+      <c r="G54" s="335" t="n">
+        <v>2021.0</v>
+      </c>
     </row>
     <row r="55"/>
     <row r="56"/>
@@ -14349,5 +14898,6 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -29,7 +29,7 @@
     <t>2021 Calendar</t>
   </si>
   <si>
-    <t>Pamplona</t>
+    <t>Mataró</t>
   </si>
   <si>
     <r>
@@ -252,7 +252,7 @@
     <t>Registro realizado en  cumplimiento del apartado dos, del artículo 10 del R.D.-Ley 8/2019, de 8 de marzo por el que se modifica el artículo 34 del E.T., por el que se establece que “La empresa garantizará el registro diario de jornada, que deberá incluir el horario concreto de inicio y finalización de la jornada de trabajo de cada persona trabajadora, sin perjuicio de la flexibilidad horaria que se establece en este artículo. Mediante negociación colectiva o acuerdo de empresa o, en su defecto, decisión del empresario previa consulta con los representantes legales de los trabajadores en la empresa, se organizará y documentará este registro de jornada. La empresa conservará los registros a que se refiere este precepto durante cuatro años y permanecerán a disposición de las personas trabajadoras, de sus representantes legales y de la Inspección de Trabajo y Seguridad”.</t>
   </si>
   <si>
-    <t>En Pamplona a</t>
+    <t>En Mataró a</t>
   </si>
   <si>
     <t>Febrero</t>
@@ -7796,13 +7796,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
     <mergeCell ref="D23:F23"/>
@@ -7811,6 +7804,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -729,13 +729,13 @@
       <main:family val="2"/>
     </font>
     <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="12"/>
-      <main:name val="Arial"/>
-      <main:family val="2"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
       <main:name val="Arial"/>
       <main:family val="2"/>
     </font>
@@ -4455,10 +4455,10 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="166" fontId="59" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="1" fontId="61" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="63" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="1" fontId="64" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="66" fillId="3" borderId="13" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -6376,11 +6376,7 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="61" t="n">
-        <f>J10*8</f>
-        <v>0.0</v>
-      </c>
-      <c r="R10" s="62" t="n">
+      <c r="R10" s="61" t="n">
         <v>23.0</v>
       </c>
       <c r="S10" s="60"/>
@@ -6388,25 +6384,29 @@
       <c r="U10" s="60"/>
       <c r="V10" s="60"/>
       <c r="W10" s="60"/>
-      <c r="X10" s="62" t="n">
-        <f>R10*8</f>
-        <v>0.0</v>
-      </c>
       <c r="AA10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="true">
-      <c r="B11" s="63" t="n">
+      <c r="B11" s="62" t="n">
         <v>19.0</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="63" t="n">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62" t="n">
         <f>B11*8</f>
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="64" t="n">
+        <f>J10*8</f>
+        <v>0.0</v>
+      </c>
+      <c r="X11" s="61" t="n">
+        <f>R10*8</f>
         <v>0.0</v>
       </c>
       <c r="AA11" s="16" t="s">
@@ -6822,7 +6822,7 @@
       <c r="X19" s="54"/>
     </row>
     <row r="20" ht="15.6" customHeight="true">
-      <c r="B20" s="62" t="n">
+      <c r="B20" s="61" t="n">
         <v>20.0</v>
       </c>
       <c r="C20" s="60"/>
@@ -6830,10 +6830,6 @@
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="62" t="n">
-        <f>B20*8</f>
-        <v>0.0</v>
-      </c>
       <c r="J20" s="55" t="n">
         <v>44346.0</v>
       </c>
@@ -6845,7 +6841,7 @@
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
       <c r="P20" s="54"/>
-      <c r="R20" s="62" t="n">
+      <c r="R20" s="61" t="n">
         <v>20.0</v>
       </c>
       <c r="S20" s="60"/>
@@ -6853,13 +6849,13 @@
       <c r="U20" s="60"/>
       <c r="V20" s="60"/>
       <c r="W20" s="60"/>
-      <c r="X20" s="62" t="n">
-        <f>R20*8</f>
-        <v>0.0</v>
-      </c>
     </row>
     <row r="21" ht="15.6" customHeight="true">
-      <c r="J21" s="62" t="n">
+      <c r="H21" s="61" t="n">
+        <f>B20*8</f>
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="61" t="n">
         <v>21.0</v>
       </c>
       <c r="K21" s="60"/>
@@ -6867,8 +6863,12 @@
       <c r="M21" s="60"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="62" t="n">
+      <c r="P21" s="61" t="n">
         <f>J21*8</f>
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="61" t="n">
+        <f>R20*8</f>
         <v>0.0</v>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       <c r="X29" s="54"/>
     </row>
     <row r="30" ht="15.6" customHeight="true">
-      <c r="B30" s="62" t="n">
+      <c r="B30" s="61" t="n">
         <v>21.0</v>
       </c>
       <c r="C30" s="60"/>
@@ -7289,11 +7289,11 @@
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
-      <c r="H30" s="62" t="n">
+      <c r="H30" s="61" t="n">
         <f>B30*8</f>
         <v>0.0</v>
       </c>
-      <c r="J30" s="62" t="n">
+      <c r="J30" s="61" t="n">
         <v>22.0</v>
       </c>
       <c r="K30" s="60"/>
@@ -7301,11 +7301,11 @@
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
-      <c r="P30" s="62" t="n">
+      <c r="P30" s="61" t="n">
         <f>J30*8</f>
         <v>0.0</v>
       </c>
-      <c r="R30" s="62" t="n">
+      <c r="R30" s="61" t="n">
         <v>22.0</v>
       </c>
       <c r="S30" s="60"/>
@@ -7313,7 +7313,7 @@
       <c r="U30" s="60"/>
       <c r="V30" s="60"/>
       <c r="W30" s="60"/>
-      <c r="X30" s="62" t="n">
+      <c r="X30" s="61" t="n">
         <f>R30*8</f>
         <v>0.0</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="W32" s="11"/>
       <c r="X32" s="14"/>
       <c r="Z32" s="79" t="n">
-        <f>H11+P10+X10+H20+P21+X20+H30+P30+X30+H40+P39+X39</f>
+        <f>H11+P11+X11+H21+P21+X21+H30+P30+X30+H40+P40+X40</f>
         <v>0.0</v>
       </c>
       <c r="AA32" s="80" t="s">
@@ -7755,7 +7755,7 @@
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="54"/>
-      <c r="J39" s="62" t="n">
+      <c r="J39" s="61" t="n">
         <v>21.0</v>
       </c>
       <c r="K39" s="60"/>
@@ -7763,11 +7763,7 @@
       <c r="M39" s="60"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
-      <c r="P39" s="62" t="n">
-        <f>J39*8</f>
-        <v>0.0</v>
-      </c>
-      <c r="R39" s="62" t="n">
+      <c r="R39" s="61" t="n">
         <v>21.0</v>
       </c>
       <c r="S39" s="60"/>
@@ -7775,13 +7771,9 @@
       <c r="U39" s="60"/>
       <c r="V39" s="60"/>
       <c r="W39" s="60"/>
-      <c r="X39" s="62" t="n">
-        <f>R39*8</f>
-        <v>0.0</v>
-      </c>
     </row>
     <row r="40" ht="15.6" customHeight="true">
-      <c r="B40" s="62" t="n">
+      <c r="B40" s="61" t="n">
         <v>20.0</v>
       </c>
       <c r="C40" s="60"/>
@@ -7789,8 +7781,16 @@
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
-      <c r="H40" s="62" t="n">
+      <c r="H40" s="61" t="n">
         <f>B40*8</f>
+        <v>0.0</v>
+      </c>
+      <c r="P40" s="61" t="n">
+        <f>J39*8</f>
+        <v>0.0</v>
+      </c>
+      <c r="X40" s="61" t="n">
+        <f>R39*8</f>
         <v>0.0</v>
       </c>
     </row>
@@ -8296,7 +8296,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="357"/>
+      <c r="G49" s="357" t="n">
+        <f>'2021'!X30</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -8884,7 +8887,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="386"/>
+      <c r="G49" s="386" t="n">
+        <f>'2021'!H40</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -9462,7 +9468,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="415"/>
+      <c r="G49" s="415" t="n">
+        <f>'2021'!P40</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -10050,7 +10059,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="444"/>
+      <c r="G49" s="444" t="n">
+        <f>'2021'!X40</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -10653,7 +10665,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="116"/>
+      <c r="G49" s="116" t="n">
+        <f>'2021'!H11</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -11235,7 +11250,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="148"/>
+      <c r="G49" s="148" t="n">
+        <f>'2021'!P11</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -11846,7 +11864,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="179"/>
+      <c r="G49" s="179" t="n">
+        <f>'2021'!X11</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -12443,7 +12464,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="211"/>
+      <c r="G49" s="211" t="n">
+        <f>'2021'!H21</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -13046,7 +13070,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="241"/>
+      <c r="G49" s="241" t="n">
+        <f>'2021'!P21</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -13628,7 +13655,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="271"/>
+      <c r="G49" s="271" t="n">
+        <f>'2021'!X21</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -14216,7 +14246,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="299"/>
+      <c r="G49" s="299" t="n">
+        <f>'2021'!H30</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">
@@ -14804,7 +14837,10 @@
     </row>
     <row r="48"/>
     <row r="49" ht="14.4" customHeight="true">
-      <c r="G49" s="328"/>
+      <c r="G49" s="328" t="n">
+        <f>'2021'!P30</f>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50"/>
     <row r="51" ht="14.4" customHeight="true">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="83">
   <si>
-    <t>2021 Calendar</t>
+    <t>2022 Calendar</t>
   </si>
   <si>
-    <t>Mataró</t>
+    <t>Pamplona</t>
   </si>
   <si>
     <r>
@@ -252,7 +252,7 @@
     <t>Registro realizado en  cumplimiento del apartado dos, del artículo 10 del R.D.-Ley 8/2019, de 8 de marzo por el que se modifica el artículo 34 del E.T., por el que se establece que “La empresa garantizará el registro diario de jornada, que deberá incluir el horario concreto de inicio y finalización de la jornada de trabajo de cada persona trabajadora, sin perjuicio de la flexibilidad horaria que se establece en este artículo. Mediante negociación colectiva o acuerdo de empresa o, en su defecto, decisión del empresario previa consulta con los representantes legales de los trabajadores en la empresa, se organizará y documentará este registro de jornada. La empresa conservará los registros a que se refiere este precepto durante cuatro años y permanecerán a disposición de las personas trabajadoras, de sus representantes legales y de la Inspección de Trabajo y Seguridad”.</t>
   </si>
   <si>
-    <t>En Mataró a</t>
+    <t>En Pamplona a</t>
   </si>
   <si>
     <t>Febrero</t>
@@ -7796,6 +7796,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
     <mergeCell ref="D23:F23"/>
@@ -7804,13 +7811,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8329,7 +8329,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="364" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -8920,7 +8920,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="393" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -9501,7 +9501,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="422" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -10092,7 +10092,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="451" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -10698,7 +10698,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="123" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -11283,7 +11283,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="154" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -11897,7 +11897,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="186" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -12497,7 +12497,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="217" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -13103,7 +13103,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="248" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -13688,7 +13688,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="264" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -14279,7 +14279,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="306" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -14870,7 +14870,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="335" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="55"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="84">
   <si>
-    <t>2022 Calendar</t>
+    <t>2021 Calendar</t>
   </si>
   <si>
-    <t>Pamplona</t>
+    <t>Mataró</t>
   </si>
   <si>
     <r>
@@ -252,7 +252,10 @@
     <t>Registro realizado en  cumplimiento del apartado dos, del artículo 10 del R.D.-Ley 8/2019, de 8 de marzo por el que se modifica el artículo 34 del E.T., por el que se establece que “La empresa garantizará el registro diario de jornada, que deberá incluir el horario concreto de inicio y finalización de la jornada de trabajo de cada persona trabajadora, sin perjuicio de la flexibilidad horaria que se establece en este artículo. Mediante negociación colectiva o acuerdo de empresa o, en su defecto, decisión del empresario previa consulta con los representantes legales de los trabajadores en la empresa, se organizará y documentará este registro de jornada. La empresa conservará los registros a que se refiere este precepto durante cuatro años y permanecerán a disposición de las personas trabajadoras, de sus representantes legales y de la Inspección de Trabajo y Seguridad”.</t>
   </si>
   <si>
-    <t>En Pamplona a</t>
+    <t>En Mataró a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Febrero</t>
@@ -4384,13 +4387,13 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="35" fillId="6" borderId="16" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="36" fillId="6" borderId="14" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="36" fillId="7" borderId="15" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="37" fillId="7" borderId="15" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="37" fillId="6" borderId="16" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="38" fillId="6" borderId="16" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="38" fillId="6" borderId="14" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="39" fillId="6" borderId="17" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
@@ -4453,7 +4456,7 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="166" fontId="58" fillId="6" borderId="23" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="166" fontId="59" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="59" fillId="9" borderId="0" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true"/>
@@ -6126,46 +6129,46 @@
       <c r="H6" s="35" t="n">
         <v>44205.0</v>
       </c>
-      <c r="J6" s="36" t="n">
+      <c r="J6" s="31" t="n">
         <v>44234.0</v>
       </c>
-      <c r="K6" s="37" t="n">
+      <c r="K6" s="36" t="n">
         <v>44235.0</v>
       </c>
-      <c r="L6" s="37" t="n">
+      <c r="L6" s="36" t="n">
         <v>44236.0</v>
       </c>
-      <c r="M6" s="37" t="n">
+      <c r="M6" s="36" t="n">
         <v>44237.0</v>
       </c>
-      <c r="N6" s="37" t="n">
+      <c r="N6" s="36" t="n">
         <v>44238.0</v>
       </c>
-      <c r="O6" s="37" t="n">
+      <c r="O6" s="36" t="n">
         <v>44239.0</v>
       </c>
-      <c r="P6" s="38" t="n">
+      <c r="P6" s="37" t="n">
         <v>44240.0</v>
       </c>
-      <c r="R6" s="36" t="n">
+      <c r="R6" s="38" t="n">
         <v>44262.0</v>
       </c>
-      <c r="S6" s="37" t="n">
+      <c r="S6" s="36" t="n">
         <v>44263.0</v>
       </c>
-      <c r="T6" s="37" t="n">
+      <c r="T6" s="36" t="n">
         <v>44264.0</v>
       </c>
-      <c r="U6" s="37" t="n">
+      <c r="U6" s="36" t="n">
         <v>44265.0</v>
       </c>
-      <c r="V6" s="37" t="n">
+      <c r="V6" s="36" t="n">
         <v>44266.0</v>
       </c>
-      <c r="W6" s="37" t="n">
+      <c r="W6" s="36" t="n">
         <v>44267.0</v>
       </c>
-      <c r="X6" s="38" t="n">
+      <c r="X6" s="37" t="n">
         <v>44268.0</v>
       </c>
       <c r="AA6" s="16" t="s">
@@ -6561,67 +6564,67 @@
       </c>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="36" t="n">
+      <c r="B16" s="38" t="n">
         <v>44290.0</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>44291.0</v>
       </c>
-      <c r="D16" s="37" t="n">
+      <c r="D16" s="36" t="n">
         <v>44292.0</v>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="36" t="n">
         <v>44293.0</v>
       </c>
-      <c r="F16" s="37" t="n">
+      <c r="F16" s="36" t="n">
         <v>44294.0</v>
       </c>
-      <c r="G16" s="37" t="n">
+      <c r="G16" s="36" t="n">
         <v>44295.0</v>
       </c>
-      <c r="H16" s="38" t="n">
+      <c r="H16" s="37" t="n">
         <v>44296.0</v>
       </c>
-      <c r="J16" s="36" t="n">
+      <c r="J16" s="38" t="n">
         <v>44318.0</v>
       </c>
-      <c r="K16" s="37" t="n">
+      <c r="K16" s="36" t="n">
         <v>44319.0</v>
       </c>
-      <c r="L16" s="37" t="n">
+      <c r="L16" s="36" t="n">
         <v>44320.0</v>
       </c>
-      <c r="M16" s="37" t="n">
+      <c r="M16" s="36" t="n">
         <v>44321.0</v>
       </c>
-      <c r="N16" s="37" t="n">
+      <c r="N16" s="36" t="n">
         <v>44322.0</v>
       </c>
-      <c r="O16" s="37" t="n">
+      <c r="O16" s="36" t="n">
         <v>44323.0</v>
       </c>
-      <c r="P16" s="38" t="n">
+      <c r="P16" s="37" t="n">
         <v>44324.0</v>
       </c>
-      <c r="R16" s="36" t="n">
+      <c r="R16" s="38" t="n">
         <v>44353.0</v>
       </c>
-      <c r="S16" s="37" t="n">
+      <c r="S16" s="36" t="n">
         <v>44354.0</v>
       </c>
-      <c r="T16" s="37" t="n">
+      <c r="T16" s="36" t="n">
         <v>44355.0</v>
       </c>
-      <c r="U16" s="37" t="n">
+      <c r="U16" s="36" t="n">
         <v>44356.0</v>
       </c>
-      <c r="V16" s="37" t="n">
+      <c r="V16" s="36" t="n">
         <v>44357.0</v>
       </c>
-      <c r="W16" s="37" t="n">
+      <c r="W16" s="36" t="n">
         <v>44358.0</v>
       </c>
-      <c r="X16" s="38" t="n">
+      <c r="X16" s="37" t="n">
         <v>44359.0</v>
       </c>
       <c r="AA16" s="16" t="s">
@@ -7033,64 +7036,64 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="38" t="n">
         <v>44381.0</v>
       </c>
-      <c r="C26" s="37" t="n">
+      <c r="C26" s="36" t="n">
         <v>44382.0</v>
       </c>
-      <c r="D26" s="37" t="n">
+      <c r="D26" s="36" t="n">
         <v>44383.0</v>
       </c>
-      <c r="E26" s="37" t="n">
+      <c r="E26" s="36" t="n">
         <v>44384.0</v>
       </c>
-      <c r="F26" s="37" t="n">
+      <c r="F26" s="36" t="n">
         <v>44385.0</v>
       </c>
-      <c r="G26" s="37" t="n">
+      <c r="G26" s="36" t="n">
         <v>44386.0</v>
       </c>
-      <c r="H26" s="38" t="n">
+      <c r="H26" s="37" t="n">
         <v>44387.0</v>
       </c>
-      <c r="J26" s="36" t="n">
+      <c r="J26" s="38" t="n">
         <v>44416.0</v>
       </c>
-      <c r="K26" s="37" t="n">
+      <c r="K26" s="36" t="n">
         <v>44417.0</v>
       </c>
-      <c r="L26" s="37" t="n">
+      <c r="L26" s="36" t="n">
         <v>44418.0</v>
       </c>
-      <c r="M26" s="37" t="n">
+      <c r="M26" s="36" t="n">
         <v>44419.0</v>
       </c>
-      <c r="N26" s="37" t="n">
+      <c r="N26" s="36" t="n">
         <v>44420.0</v>
       </c>
-      <c r="O26" s="37" t="n">
+      <c r="O26" s="36" t="n">
         <v>44421.0</v>
       </c>
-      <c r="P26" s="38" t="n">
+      <c r="P26" s="37" t="n">
         <v>44422.0</v>
       </c>
-      <c r="R26" s="36" t="n">
+      <c r="R26" s="38" t="n">
         <v>44444.0</v>
       </c>
-      <c r="S26" s="37" t="n">
+      <c r="S26" s="36" t="n">
         <v>44445.0</v>
       </c>
-      <c r="T26" s="37" t="n">
+      <c r="T26" s="36" t="n">
         <v>44446.0</v>
       </c>
-      <c r="U26" s="37" t="n">
+      <c r="U26" s="36" t="n">
         <v>44447.0</v>
       </c>
-      <c r="V26" s="37" t="n">
+      <c r="V26" s="36" t="n">
         <v>44448.0</v>
       </c>
-      <c r="W26" s="37" t="n">
+      <c r="W26" s="36" t="n">
         <v>44449.0</v>
       </c>
       <c r="X26" s="75" t="n">
@@ -7487,67 +7490,67 @@
       <c r="AC34" s="84"/>
     </row>
     <row r="35" ht="15.0" customHeight="true">
-      <c r="B35" s="36" t="n">
+      <c r="B35" s="38" t="n">
         <v>44472.0</v>
       </c>
-      <c r="C35" s="37" t="n">
+      <c r="C35" s="36" t="n">
         <v>44473.0</v>
       </c>
-      <c r="D35" s="37" t="n">
+      <c r="D35" s="36" t="n">
         <v>44474.0</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E35" s="36" t="n">
         <v>44475.0</v>
       </c>
-      <c r="F35" s="37" t="n">
+      <c r="F35" s="36" t="n">
         <v>44476.0</v>
       </c>
-      <c r="G35" s="37" t="n">
+      <c r="G35" s="36" t="n">
         <v>44477.0</v>
       </c>
-      <c r="H35" s="38" t="n">
+      <c r="H35" s="37" t="n">
         <v>44478.0</v>
       </c>
-      <c r="J35" s="36" t="n">
+      <c r="J35" s="38" t="n">
         <v>44507.0</v>
       </c>
-      <c r="K35" s="37" t="n">
+      <c r="K35" s="36" t="n">
         <v>44508.0</v>
       </c>
-      <c r="L35" s="37" t="n">
+      <c r="L35" s="36" t="n">
         <v>44509.0</v>
       </c>
-      <c r="M35" s="37" t="n">
+      <c r="M35" s="36" t="n">
         <v>44510.0</v>
       </c>
-      <c r="N35" s="37" t="n">
+      <c r="N35" s="36" t="n">
         <v>44511.0</v>
       </c>
-      <c r="O35" s="37" t="n">
+      <c r="O35" s="36" t="n">
         <v>44512.0</v>
       </c>
-      <c r="P35" s="38" t="n">
+      <c r="P35" s="37" t="n">
         <v>44513.0</v>
       </c>
-      <c r="R35" s="36" t="n">
+      <c r="R35" s="38" t="n">
         <v>44535.0</v>
       </c>
       <c r="S35" s="87" t="n">
         <v>44536.0</v>
       </c>
-      <c r="T35" s="37" t="n">
+      <c r="T35" s="36" t="n">
         <v>44537.0</v>
       </c>
       <c r="U35" s="87" t="n">
         <v>44538.0</v>
       </c>
-      <c r="V35" s="37" t="n">
+      <c r="V35" s="36" t="n">
         <v>44539.0</v>
       </c>
-      <c r="W35" s="37" t="n">
+      <c r="W35" s="36" t="n">
         <v>44540.0</v>
       </c>
-      <c r="X35" s="38" t="n">
+      <c r="X35" s="37" t="n">
         <v>44541.0</v>
       </c>
       <c r="Z35" s="88" t="n">
@@ -7796,13 +7799,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
     <mergeCell ref="D23:F23"/>
@@ -7811,6 +7807,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7990,25 +7993,23 @@
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="354" t="n">
+      <c r="B19" s="47" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="355"/>
-      <c r="E19" s="355"/>
-      <c r="G19" s="353" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="G19" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="354" t="n">
+      <c r="B20" s="55" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="355"/>
-      <c r="E20" s="355"/>
-      <c r="G20" s="353" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="G20" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -8067,25 +8068,23 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="354" t="n">
+      <c r="B26" s="47" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="355"/>
-      <c r="E26" s="355"/>
-      <c r="G26" s="353" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="G26" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="354" t="n">
+      <c r="B27" s="55" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="E27" s="355"/>
-      <c r="G27" s="353" t="n">
-        <f>((E27-C27)*24)-1</f>
-        <v>0.0</v>
+      <c r="C27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="G27" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
@@ -8144,25 +8143,23 @@
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="354" t="n">
+      <c r="B33" s="47" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="355"/>
-      <c r="E33" s="355"/>
-      <c r="G33" s="353" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="G33" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="354" t="n">
+      <c r="B34" s="55" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="355"/>
-      <c r="E34" s="355"/>
-      <c r="G34" s="353" t="n">
-        <f>((E34-C34)*24)-1</f>
-        <v>0.0</v>
+      <c r="C34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="G34" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
@@ -8221,25 +8218,23 @@
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="354" t="n">
+      <c r="B40" s="47" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="355"/>
-      <c r="E40" s="355"/>
-      <c r="G40" s="353" t="n">
-        <f>((E40-C40)*24)-1</f>
-        <v>0.0</v>
+      <c r="C40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="G40" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="354" t="n">
+      <c r="B41" s="55" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="355"/>
-      <c r="E41" s="355"/>
-      <c r="G41" s="353" t="n">
-        <f>((E41-C41)*24)-1</f>
-        <v>0.0</v>
+      <c r="C41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="G41" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
@@ -8323,13 +8318,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="362" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F54" s="363" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="364" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -8549,25 +8544,23 @@
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="383" t="n">
+      <c r="B17" s="47" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="384"/>
-      <c r="E17" s="384"/>
-      <c r="G17" s="382" t="n">
-        <f>((E17-C17)*24)-1</f>
-        <v>0.0</v>
+      <c r="C17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="G17" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="383" t="n">
+      <c r="B18" s="51" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="384"/>
-      <c r="E18" s="384"/>
-      <c r="G18" s="382" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="G18" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
@@ -8626,25 +8619,23 @@
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="383" t="n">
+      <c r="B24" s="47" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="384"/>
-      <c r="E24" s="384"/>
-      <c r="G24" s="382" t="n">
-        <f>((E24-C24)*24)-1</f>
-        <v>0.0</v>
+      <c r="C24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="383" t="n">
+      <c r="B25" s="51" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="384"/>
-      <c r="E25" s="384"/>
-      <c r="G25" s="382" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="G25" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
@@ -8703,25 +8694,23 @@
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="383" t="n">
+      <c r="B31" s="47" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="384"/>
-      <c r="E31" s="384"/>
-      <c r="G31" s="382" t="n">
-        <f>((E31-C31)*24)-1</f>
-        <v>0.0</v>
+      <c r="C31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="G31" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="383" t="n">
+      <c r="B32" s="51" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="384"/>
-      <c r="E32" s="384"/>
-      <c r="G32" s="382" t="n">
-        <f>((E32-C32)*24)-1</f>
-        <v>0.0</v>
+      <c r="C32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="G32" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
@@ -8780,25 +8769,23 @@
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="383" t="n">
+      <c r="B38" s="47" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="384"/>
-      <c r="E38" s="384"/>
-      <c r="G38" s="382" t="n">
-        <f>((E38-C38)*24)-1</f>
-        <v>0.0</v>
+      <c r="C38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="G38" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="383" t="n">
+      <c r="B39" s="51" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="384"/>
-      <c r="E39" s="384"/>
-      <c r="G39" s="382" t="n">
-        <f>((E39-C39)*24)-1</f>
-        <v>0.0</v>
+      <c r="C39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="G39" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
@@ -8857,25 +8844,23 @@
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="383" t="n">
+      <c r="B45" s="47" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="384"/>
-      <c r="E45" s="384"/>
-      <c r="G45" s="382" t="n">
-        <f>((E45-C45)*24)-1</f>
-        <v>0.0</v>
+      <c r="C45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="G45" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="383" t="n">
+      <c r="B46" s="51" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="384"/>
-      <c r="E46" s="384"/>
-      <c r="G46" s="382" t="n">
-        <f>((E46-C46)*24)-1</f>
-        <v>0.0</v>
+      <c r="C46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="G46" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
@@ -8914,13 +8899,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="391" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F54" s="392" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="393" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -9184,25 +9169,23 @@
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="412" t="n">
+      <c r="B21" s="47" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="413"/>
-      <c r="E21" s="413"/>
-      <c r="G21" s="411" t="n">
-        <f>((E21-C21)*24)-1</f>
-        <v>0.0</v>
+      <c r="C21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="412" t="n">
+      <c r="B22" s="55" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="413"/>
-      <c r="E22" s="413"/>
-      <c r="G22" s="411" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="G22" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -9261,25 +9244,23 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="412" t="n">
+      <c r="B28" s="47" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="413"/>
-      <c r="E28" s="413"/>
-      <c r="G28" s="411" t="n">
-        <f>((E28-C28)*24)-1</f>
-        <v>0.0</v>
+      <c r="C28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="G28" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="412" t="n">
+      <c r="B29" s="55" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="413"/>
-      <c r="E29" s="413"/>
-      <c r="G29" s="411" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="G29" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
@@ -9338,25 +9319,23 @@
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="412" t="n">
+      <c r="B35" s="47" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="413"/>
-      <c r="E35" s="413"/>
-      <c r="G35" s="411" t="n">
-        <f>((E35-C35)*24)-1</f>
-        <v>0.0</v>
+      <c r="C35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="G35" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="412" t="n">
+      <c r="B36" s="55" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="413"/>
-      <c r="E36" s="413"/>
-      <c r="G36" s="411" t="n">
-        <f>((E36-C36)*24)-1</f>
-        <v>0.0</v>
+      <c r="C36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="G36" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
@@ -9415,25 +9394,23 @@
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="412" t="n">
+      <c r="B42" s="47" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="413"/>
-      <c r="E42" s="413"/>
-      <c r="G42" s="411" t="n">
-        <f>((E42-C42)*24)-1</f>
-        <v>0.0</v>
+      <c r="C42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="G42" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="412" t="n">
+      <c r="B43" s="55" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="413"/>
-      <c r="E43" s="413"/>
-      <c r="G43" s="411" t="n">
-        <f>((E43-C43)*24)-1</f>
-        <v>0.0</v>
+      <c r="C43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="G43" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
@@ -9495,13 +9472,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="420" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" s="421" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="422" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -9743,25 +9720,23 @@
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="441" t="n">
+      <c r="B19" s="92" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="442"/>
-      <c r="E19" s="442"/>
-      <c r="G19" s="440" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="G19" s="92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="441" t="n">
+      <c r="B20" s="93" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="442"/>
-      <c r="E20" s="442"/>
-      <c r="G20" s="440" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="G20" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -9820,25 +9795,23 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="441" t="n">
+      <c r="B26" s="92" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="442"/>
-      <c r="E26" s="442"/>
-      <c r="G26" s="440" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="G26" s="92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="441" t="n">
+      <c r="B27" s="93" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="442"/>
-      <c r="E27" s="442"/>
-      <c r="G27" s="440" t="n">
-        <f>((E27-C27)*24)-1</f>
-        <v>0.0</v>
+      <c r="C27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="G27" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
@@ -9897,25 +9870,23 @@
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="441" t="n">
+      <c r="B33" s="92" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="442"/>
-      <c r="E33" s="442"/>
-      <c r="G33" s="440" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="G33" s="92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="441" t="n">
+      <c r="B34" s="93" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="442"/>
-      <c r="E34" s="442"/>
-      <c r="G34" s="440" t="n">
-        <f>((E34-C34)*24)-1</f>
-        <v>0.0</v>
+      <c r="C34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="G34" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
@@ -9974,25 +9945,23 @@
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="441" t="n">
+      <c r="B40" s="92" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="442"/>
-      <c r="E40" s="442"/>
-      <c r="G40" s="440" t="n">
-        <f>((E40-C40)*24)-1</f>
-        <v>0.0</v>
+      <c r="C40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="G40" s="92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="441" t="n">
+      <c r="B41" s="93" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="442"/>
-      <c r="E41" s="442"/>
-      <c r="G41" s="440" t="n">
-        <f>((E41-C41)*24)-1</f>
-        <v>0.0</v>
+      <c r="C41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="G41" s="93" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
@@ -10086,13 +10055,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="449" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F54" s="450" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="451" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -10327,25 +10296,23 @@
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="113" t="n">
+      <c r="B17" s="50" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="G17" s="112" t="n">
-        <f>((E17-C17)*24)-1</f>
-        <v>0.0</v>
+      <c r="C17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="113" t="n">
+      <c r="B18" s="58" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="G18" s="112" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="G18" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
@@ -10404,25 +10371,23 @@
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="113" t="n">
+      <c r="B24" s="50" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="G24" s="112" t="n">
-        <f>((E24-C24)*24)-1</f>
-        <v>0.0</v>
+      <c r="C24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="113" t="n">
+      <c r="B25" s="58" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="G25" s="112" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="G25" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
@@ -10481,25 +10446,23 @@
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="113" t="n">
+      <c r="B31" s="50" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="G31" s="112" t="n">
-        <f>((E31-C31)*24)-1</f>
-        <v>0.0</v>
+      <c r="C31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="G31" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="113" t="n">
+      <c r="B32" s="58" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="G32" s="112" t="n">
-        <f>((E32-C32)*24)-1</f>
-        <v>0.0</v>
+      <c r="C32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="G32" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
@@ -10558,25 +10521,23 @@
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="113" t="n">
+      <c r="B38" s="50" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="G38" s="112" t="n">
-        <f>((E38-C38)*24)-1</f>
-        <v>0.0</v>
+      <c r="C38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="G38" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="113" t="n">
+      <c r="B39" s="58" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="G39" s="112" t="n">
-        <f>((E39-C39)*24)-1</f>
-        <v>0.0</v>
+      <c r="C39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="G39" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
@@ -10635,25 +10596,23 @@
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="113" t="n">
+      <c r="B45" s="50" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="G45" s="112" t="n">
-        <f>((E45-C45)*24)-1</f>
-        <v>0.0</v>
+      <c r="C45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="G45" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="113" t="n">
+      <c r="B46" s="58" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="G46" s="112" t="n">
-        <f>((E46-C46)*24)-1</f>
-        <v>0.0</v>
+      <c r="C46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="G46" s="58" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
@@ -10698,7 +10657,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="123" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -10977,25 +10936,23 @@
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="144" t="n">
+      <c r="B21" s="47" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="G21" s="143" t="n">
-        <f>((E21-C21)*24)-1</f>
-        <v>0.0</v>
+      <c r="C21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="144" t="n">
+      <c r="B22" s="51" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="G22" s="143" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="G22" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -11054,25 +11011,23 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="144" t="n">
+      <c r="B28" s="47" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="G28" s="143" t="n">
-        <f>((E28-C28)*24)-1</f>
-        <v>0.0</v>
+      <c r="C28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="G28" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="144" t="n">
+      <c r="B29" s="51" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="G29" s="143" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
@@ -11131,25 +11086,23 @@
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="144" t="n">
+      <c r="B35" s="47" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="G35" s="143" t="n">
-        <f>((E35-C35)*24)-1</f>
-        <v>0.0</v>
+      <c r="C35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="G35" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="144" t="n">
+      <c r="B36" s="51" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="G36" s="143" t="n">
-        <f>((E36-C36)*24)-1</f>
-        <v>0.0</v>
+      <c r="C36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="G36" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
@@ -11208,25 +11161,23 @@
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="144" t="n">
+      <c r="B42" s="47" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="G42" s="143" t="n">
-        <f>((E42-C42)*24)-1</f>
-        <v>0.0</v>
+      <c r="C42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="G42" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="144" t="n">
+      <c r="B43" s="51" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="G43" s="143" t="n">
-        <f>((E43-C43)*24)-1</f>
-        <v>0.0</v>
+      <c r="C43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="G43" s="51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
@@ -11277,13 +11228,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="153" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="154" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -11570,25 +11521,23 @@
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="176" t="n">
+      <c r="B21" s="47" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="G21" s="175" t="n">
-        <f>((E21-C21)*24)-1</f>
-        <v>0.0</v>
+      <c r="C21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="176" t="n">
+      <c r="B22" s="55" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="G22" s="175" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="G22" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -11647,25 +11596,23 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="176" t="n">
+      <c r="B28" s="47" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="G28" s="175" t="n">
-        <f>((E28-C28)*24)-1</f>
-        <v>0.0</v>
+      <c r="C28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="G28" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="176" t="n">
+      <c r="B29" s="55" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="G29" s="175" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="G29" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
@@ -11724,25 +11671,23 @@
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="176" t="n">
+      <c r="B35" s="47" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="G35" s="175" t="n">
-        <f>((E35-C35)*24)-1</f>
-        <v>0.0</v>
+      <c r="C35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="G35" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="176" t="n">
+      <c r="B36" s="55" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="G36" s="175" t="n">
-        <f>((E36-C36)*24)-1</f>
-        <v>0.0</v>
+      <c r="C36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="G36" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
@@ -11801,25 +11746,23 @@
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="176" t="n">
+      <c r="B42" s="47" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="G42" s="175" t="n">
-        <f>((E42-C42)*24)-1</f>
-        <v>0.0</v>
+      <c r="C42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="G42" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="176" t="n">
+      <c r="B43" s="55" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="G43" s="175" t="n">
-        <f>((E43-C43)*24)-1</f>
-        <v>0.0</v>
+      <c r="C43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="G43" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
@@ -11891,13 +11834,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="184" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F54" s="185" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="186" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -12143,25 +12086,23 @@
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="207" t="n">
+      <c r="B18" s="47" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="G18" s="206" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="G18" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="207" t="n">
+      <c r="B19" s="55" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="G19" s="206" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="G19" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
@@ -12220,25 +12161,23 @@
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="207" t="n">
+      <c r="B25" s="47" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="G25" s="206" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="G25" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="207" t="n">
+      <c r="B26" s="55" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="G26" s="206" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="G26" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
@@ -12297,25 +12236,23 @@
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="207" t="n">
+      <c r="B32" s="47" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="208"/>
-      <c r="E32" s="208"/>
-      <c r="G32" s="206" t="n">
-        <f>((E32-C32)*24)-1</f>
-        <v>0.0</v>
+      <c r="C32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="G32" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="207" t="n">
+      <c r="B33" s="55" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="E33" s="208"/>
-      <c r="G33" s="206" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="G33" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
@@ -12374,25 +12311,23 @@
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="207" t="n">
+      <c r="B39" s="47" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="G39" s="206" t="n">
-        <f>((E39-C39)*24)-1</f>
-        <v>0.0</v>
+      <c r="C39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="G39" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="207" t="n">
+      <c r="B40" s="55" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="208"/>
-      <c r="E40" s="208"/>
-      <c r="G40" s="206" t="n">
-        <f>((E40-C40)*24)-1</f>
-        <v>0.0</v>
+      <c r="C40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="G40" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
@@ -12491,13 +12426,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="215" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" s="216" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="217" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -12721,25 +12656,23 @@
       <c r="G15" s="237"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="238" t="n">
+      <c r="B16" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="G16" s="237" t="n">
-        <f>((E16-C16)*24)-1</f>
-        <v>0.0</v>
+      <c r="C16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="G16" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="238" t="n">
+      <c r="B17" s="55" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="E17" s="239"/>
-      <c r="G17" s="237" t="n">
-        <f>((E17-C17)*24)-1</f>
-        <v>0.0</v>
+      <c r="C17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="G17" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
@@ -12798,25 +12731,23 @@
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="238" t="n">
+      <c r="B23" s="47" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="G23" s="237" t="n">
-        <f>((E23-C23)*24)-1</f>
-        <v>0.0</v>
+      <c r="C23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="238" t="n">
+      <c r="B24" s="55" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="G24" s="237" t="n">
-        <f>((E24-C24)*24)-1</f>
-        <v>0.0</v>
+      <c r="C24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="G24" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
@@ -12875,25 +12806,23 @@
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="238" t="n">
+      <c r="B30" s="47" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="239"/>
-      <c r="E30" s="239"/>
-      <c r="G30" s="237" t="n">
-        <f>((E30-C30)*24)-1</f>
-        <v>0.0</v>
+      <c r="C30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="238" t="n">
+      <c r="B31" s="55" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="G31" s="237" t="n">
-        <f>((E31-C31)*24)-1</f>
-        <v>0.0</v>
+      <c r="C31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="G31" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
@@ -12952,25 +12881,23 @@
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="238" t="n">
+      <c r="B37" s="47" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="239"/>
-      <c r="E37" s="239"/>
-      <c r="G37" s="237" t="n">
-        <f>((E37-C37)*24)-1</f>
-        <v>0.0</v>
+      <c r="C37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="G37" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="238" t="n">
+      <c r="B38" s="55" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="239"/>
-      <c r="E38" s="239"/>
-      <c r="G38" s="237" t="n">
-        <f>((E38-C38)*24)-1</f>
-        <v>0.0</v>
+      <c r="C38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="G38" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
@@ -13029,25 +12956,23 @@
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="238" t="n">
+      <c r="B44" s="47" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="G44" s="237" t="n">
-        <f>((E44-C44)*24)-1</f>
-        <v>0.0</v>
+      <c r="C44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="G44" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="238" t="n">
+      <c r="B45" s="55" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="G45" s="237" t="n">
-        <f>((E45-C45)*24)-1</f>
-        <v>0.0</v>
+      <c r="C45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="G45" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
@@ -13097,13 +13022,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="246" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="247" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="248" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -13360,25 +13285,23 @@
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="268" t="n">
+      <c r="B20" s="47" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="269"/>
-      <c r="E20" s="269"/>
-      <c r="G20" s="267" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="G20" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="268" t="n">
+      <c r="B21" s="55" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="G21" s="267" t="n">
-        <f>((E21-C21)*24)-1</f>
-        <v>0.0</v>
+      <c r="C21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="G21" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
@@ -13437,25 +13360,23 @@
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="268" t="n">
+      <c r="B27" s="47" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="269"/>
-      <c r="E27" s="269"/>
-      <c r="G27" s="267" t="n">
-        <f>((E27-C27)*24)-1</f>
-        <v>0.0</v>
+      <c r="C27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="G27" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="268" t="n">
+      <c r="B28" s="55" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="269"/>
-      <c r="E28" s="269"/>
-      <c r="G28" s="267" t="n">
-        <f>((E28-C28)*24)-1</f>
-        <v>0.0</v>
+      <c r="C28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="G28" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
@@ -13514,25 +13435,23 @@
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="268" t="n">
+      <c r="B34" s="47" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="G34" s="267" t="n">
-        <f>((E34-C34)*24)-1</f>
-        <v>0.0</v>
+      <c r="C34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="G34" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="268" t="n">
+      <c r="B35" s="55" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="269"/>
-      <c r="E35" s="269"/>
-      <c r="G35" s="267" t="n">
-        <f>((E35-C35)*24)-1</f>
-        <v>0.0</v>
+      <c r="C35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="G35" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
@@ -13591,25 +13510,23 @@
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="268" t="n">
+      <c r="B41" s="47" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="269"/>
-      <c r="E41" s="269"/>
-      <c r="G41" s="267" t="n">
-        <f>((E41-C41)*24)-1</f>
-        <v>0.0</v>
+      <c r="C41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="G41" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="268" t="n">
+      <c r="B42" s="55" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="269"/>
-      <c r="E42" s="269"/>
-      <c r="G42" s="267" t="n">
-        <f>((E42-C42)*24)-1</f>
-        <v>0.0</v>
+      <c r="C42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="G42" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
@@ -13682,13 +13599,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="276" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="277" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="264" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -13919,25 +13836,23 @@
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="296" t="n">
+      <c r="B18" s="78" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="297"/>
-      <c r="E18" s="297"/>
-      <c r="G18" s="295" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="G18" s="78" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="296" t="n">
+      <c r="B19" s="55" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="G19" s="295" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="G19" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
@@ -13996,25 +13911,23 @@
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="296" t="n">
+      <c r="B25" s="78" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="297"/>
-      <c r="E25" s="297"/>
-      <c r="G25" s="295" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="G25" s="78" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="296" t="n">
+      <c r="B26" s="55" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="297"/>
-      <c r="E26" s="297"/>
-      <c r="G26" s="295" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="G26" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
@@ -14073,25 +13986,23 @@
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="296" t="n">
+      <c r="B32" s="78" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="297"/>
-      <c r="E32" s="297"/>
-      <c r="G32" s="295" t="n">
-        <f>((E32-C32)*24)-1</f>
-        <v>0.0</v>
+      <c r="C32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="G32" s="78" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="296" t="n">
+      <c r="B33" s="55" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="297"/>
-      <c r="E33" s="297"/>
-      <c r="G33" s="295" t="n">
-        <f>((E33-C33)*24)-1</f>
-        <v>0.0</v>
+      <c r="C33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="G33" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
@@ -14150,25 +14061,23 @@
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="296" t="n">
+      <c r="B39" s="78" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="G39" s="295" t="n">
-        <f>((E39-C39)*24)-1</f>
-        <v>0.0</v>
+      <c r="C39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="G39" s="78" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="296" t="n">
+      <c r="B40" s="55" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="G40" s="295" t="n">
-        <f>((E40-C40)*24)-1</f>
-        <v>0.0</v>
+      <c r="C40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="G40" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
@@ -14227,14 +14136,13 @@
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="296" t="n">
+      <c r="B46" s="78" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="297"/>
-      <c r="E46" s="297"/>
-      <c r="G46" s="295" t="n">
-        <f>((E46-C46)*24)-1</f>
-        <v>0.0</v>
+      <c r="C46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="G46" s="78" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
@@ -14273,13 +14181,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="304" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="305" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="306" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>
@@ -14488,14 +14396,13 @@
       <c r="G15" s="324"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="325" t="n">
+      <c r="B16" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="326"/>
-      <c r="E16" s="326"/>
-      <c r="G16" s="324" t="n">
-        <f>((E16-C16)*24)-1</f>
-        <v>0.0</v>
+      <c r="C16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="G16" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
@@ -14554,25 +14461,23 @@
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="325" t="n">
+      <c r="B22" s="47" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="326"/>
-      <c r="E22" s="326"/>
-      <c r="G22" s="324" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="325" t="n">
+      <c r="B23" s="55" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="326"/>
-      <c r="E23" s="326"/>
-      <c r="G23" s="324" t="n">
-        <f>((E23-C23)*24)-1</f>
-        <v>0.0</v>
+      <c r="C23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="G23" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
@@ -14631,25 +14536,23 @@
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="325" t="n">
+      <c r="B29" s="47" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="326"/>
-      <c r="E29" s="326"/>
-      <c r="G29" s="324" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="G29" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="325" t="n">
+      <c r="B30" s="55" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="326"/>
-      <c r="E30" s="326"/>
-      <c r="G30" s="324" t="n">
-        <f>((E30-C30)*24)-1</f>
-        <v>0.0</v>
+      <c r="C30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="G30" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
@@ -14708,25 +14611,23 @@
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="325" t="n">
+      <c r="B36" s="47" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="326"/>
-      <c r="E36" s="326"/>
-      <c r="G36" s="324" t="n">
-        <f>((E36-C36)*24)-1</f>
-        <v>0.0</v>
+      <c r="C36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="G36" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="325" t="n">
+      <c r="B37" s="55" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="326"/>
-      <c r="E37" s="326"/>
-      <c r="G37" s="324" t="n">
-        <f>((E37-C37)*24)-1</f>
-        <v>0.0</v>
+      <c r="C37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="G37" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
@@ -14785,25 +14686,23 @@
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="325" t="n">
+      <c r="B43" s="47" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="326"/>
-      <c r="E43" s="326"/>
-      <c r="G43" s="324" t="n">
-        <f>((E43-C43)*24)-1</f>
-        <v>0.0</v>
+      <c r="C43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="G43" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="325" t="n">
+      <c r="B44" s="55" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="326"/>
-      <c r="E44" s="326"/>
-      <c r="G44" s="324" t="n">
-        <f>((E44-C44)*24)-1</f>
-        <v>0.0</v>
+      <c r="C44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="G44" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
@@ -14864,13 +14763,13 @@
         <v>68</v>
       </c>
       <c r="E54" s="333" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" s="334" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="335" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
     </row>
     <row r="55"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="84">
   <si>
     <t>2021 Calendar</t>
   </si>
@@ -7960,33 +7960,36 @@
       <c r="G15" s="353"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="354" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="355"/>
+      <c r="E16" s="355"/>
+      <c r="G16" s="353" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="354" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="355"/>
+      <c r="E17" s="355"/>
+      <c r="G17" s="353" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="354" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="355"/>
+      <c r="E18" s="355"/>
+      <c r="G18" s="353" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
@@ -8010,53 +8013,58 @@
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="354" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>83</v>
+      <c r="C21" s="355"/>
+      <c r="E21" s="355"/>
+      <c r="G21" s="353" t="n">
+        <f>((E21-C21)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="354" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="355"/>
+      <c r="E22" s="355"/>
+      <c r="G22" s="353" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="354" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="355"/>
+      <c r="E23" s="355"/>
+      <c r="G23" s="353" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="354" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="355"/>
+      <c r="E24" s="355"/>
+      <c r="G24" s="353" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="354" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="355"/>
+      <c r="E25" s="355"/>
+      <c r="G25" s="353" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
@@ -8080,53 +8088,58 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="354" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>83</v>
+      <c r="C28" s="355"/>
+      <c r="E28" s="355"/>
+      <c r="G28" s="353" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="354" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="355"/>
+      <c r="E29" s="355"/>
+      <c r="G29" s="353" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="354" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="355"/>
+      <c r="E30" s="355"/>
+      <c r="G30" s="353" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="354" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="355"/>
+      <c r="E31" s="355"/>
+      <c r="G31" s="353" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="354" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="355"/>
+      <c r="E32" s="355"/>
+      <c r="G32" s="353" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
@@ -8150,53 +8163,58 @@
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="354" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="G35" s="46" t="s">
-        <v>83</v>
+      <c r="C35" s="355"/>
+      <c r="E35" s="355"/>
+      <c r="G35" s="353" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="354" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="G36" s="46" t="s">
-        <v>83</v>
+      <c r="C36" s="355"/>
+      <c r="E36" s="355"/>
+      <c r="G36" s="353" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="354" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="355"/>
+      <c r="E37" s="355"/>
+      <c r="G37" s="353" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="354" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="355"/>
+      <c r="E38" s="355"/>
+      <c r="G38" s="353" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="354" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="355"/>
+      <c r="E39" s="355"/>
+      <c r="G39" s="353" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
@@ -8220,43 +8238,47 @@
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="56" t="n">
+      <c r="B42" s="354" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="G42" s="56" t="s">
-        <v>83</v>
+      <c r="C42" s="355"/>
+      <c r="E42" s="355"/>
+      <c r="G42" s="353" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="56" t="n">
+      <c r="B43" s="354" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="G43" s="56" t="s">
-        <v>83</v>
+      <c r="C43" s="355"/>
+      <c r="E43" s="355"/>
+      <c r="G43" s="353" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="354" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="355"/>
+      <c r="E44" s="355"/>
+      <c r="G44" s="353" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="57" t="n">
+      <c r="B45" s="354" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="G45" s="57" t="s">
-        <v>83</v>
+      <c r="C45" s="355"/>
+      <c r="E45" s="355"/>
+      <c r="G45" s="353" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46"/>
@@ -8511,13 +8533,14 @@
       <c r="G15" s="382"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="383" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="384"/>
+      <c r="E16" s="384"/>
+      <c r="G16" s="382" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
@@ -8541,53 +8564,58 @@
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="36" t="n">
+      <c r="B19" s="383" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>83</v>
+      <c r="C19" s="384"/>
+      <c r="E19" s="384"/>
+      <c r="G19" s="382" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="36" t="n">
+      <c r="B20" s="383" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="G20" s="36" t="s">
-        <v>83</v>
+      <c r="C20" s="384"/>
+      <c r="E20" s="384"/>
+      <c r="G20" s="382" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="383" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>83</v>
+      <c r="C21" s="384"/>
+      <c r="E21" s="384"/>
+      <c r="G21" s="382" t="n">
+        <f>((E21-C21)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="383" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="G22" s="382" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="383" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="G23" s="382" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
@@ -8611,13 +8639,14 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="43" t="n">
+      <c r="B26" s="383" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="G26" s="43" t="s">
-        <v>83</v>
+      <c r="C26" s="384"/>
+      <c r="E26" s="384"/>
+      <c r="G26" s="382" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
@@ -8631,33 +8660,36 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="383" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>83</v>
+      <c r="C28" s="384"/>
+      <c r="E28" s="384"/>
+      <c r="G28" s="382" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="383" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="384"/>
+      <c r="E29" s="384"/>
+      <c r="G29" s="382" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="383" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="384"/>
+      <c r="E30" s="384"/>
+      <c r="G30" s="382" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
@@ -8681,53 +8713,58 @@
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="383" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="384"/>
+      <c r="E33" s="384"/>
+      <c r="G33" s="382" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="383" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>83</v>
+      <c r="C34" s="384"/>
+      <c r="E34" s="384"/>
+      <c r="G34" s="382" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="43" t="n">
+      <c r="B35" s="383" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="G35" s="43" t="s">
-        <v>83</v>
+      <c r="C35" s="384"/>
+      <c r="E35" s="384"/>
+      <c r="G35" s="382" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="43" t="n">
+      <c r="B36" s="383" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="G36" s="43" t="s">
-        <v>83</v>
+      <c r="C36" s="384"/>
+      <c r="E36" s="384"/>
+      <c r="G36" s="382" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="43" t="n">
+      <c r="B37" s="383" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="G37" s="43" t="s">
-        <v>83</v>
+      <c r="C37" s="384"/>
+      <c r="E37" s="384"/>
+      <c r="G37" s="382" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
@@ -8751,53 +8788,58 @@
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="383" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="384"/>
+      <c r="E40" s="384"/>
+      <c r="G40" s="382" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="383" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="G41" s="46" t="s">
-        <v>83</v>
+      <c r="C41" s="384"/>
+      <c r="E41" s="384"/>
+      <c r="G41" s="382" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="46" t="n">
+      <c r="B42" s="383" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="G42" s="46" t="s">
-        <v>83</v>
+      <c r="C42" s="384"/>
+      <c r="E42" s="384"/>
+      <c r="G42" s="382" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="46" t="n">
+      <c r="B43" s="383" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="G43" s="46" t="s">
-        <v>83</v>
+      <c r="C43" s="384"/>
+      <c r="E43" s="384"/>
+      <c r="G43" s="382" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="46" t="n">
+      <c r="B44" s="383" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="G44" s="46" t="s">
-        <v>83</v>
+      <c r="C44" s="384"/>
+      <c r="E44" s="384"/>
+      <c r="G44" s="382" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
@@ -9081,43 +9123,47 @@
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="412" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="413"/>
+      <c r="E17" s="413"/>
+      <c r="G17" s="411" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="412" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="413"/>
+      <c r="E18" s="413"/>
+      <c r="G18" s="411" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="30" t="n">
+      <c r="B19" s="412" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>83</v>
+      <c r="C19" s="413"/>
+      <c r="E19" s="413"/>
+      <c r="G19" s="411" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="30" t="n">
+      <c r="B20" s="412" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="30" t="s">
-        <v>83</v>
+      <c r="C20" s="413"/>
+      <c r="E20" s="413"/>
+      <c r="G20" s="411" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -9141,53 +9187,58 @@
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="412" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="413"/>
+      <c r="E23" s="413"/>
+      <c r="G23" s="411" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="412" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="413"/>
+      <c r="E24" s="413"/>
+      <c r="G24" s="411" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="412" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="413"/>
+      <c r="E25" s="413"/>
+      <c r="G25" s="411" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="412" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>83</v>
+      <c r="C26" s="413"/>
+      <c r="E26" s="413"/>
+      <c r="G26" s="411" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="412" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="G27" s="36" t="s">
-        <v>83</v>
+      <c r="C27" s="413"/>
+      <c r="E27" s="413"/>
+      <c r="G27" s="411" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
@@ -9211,53 +9262,58 @@
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="412" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="413"/>
+      <c r="E30" s="413"/>
+      <c r="G30" s="411" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="412" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="413"/>
+      <c r="E31" s="413"/>
+      <c r="G31" s="411" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="412" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="413"/>
+      <c r="E32" s="413"/>
+      <c r="G32" s="411" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="412" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="413"/>
+      <c r="E33" s="413"/>
+      <c r="G33" s="411" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="412" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>83</v>
+      <c r="C34" s="413"/>
+      <c r="E34" s="413"/>
+      <c r="G34" s="411" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
@@ -9281,53 +9337,58 @@
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="412" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="413"/>
+      <c r="E37" s="413"/>
+      <c r="G37" s="411" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="412" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="413"/>
+      <c r="E38" s="413"/>
+      <c r="G38" s="411" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="412" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="413"/>
+      <c r="E39" s="413"/>
+      <c r="G39" s="411" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="412" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="413"/>
+      <c r="E40" s="413"/>
+      <c r="G40" s="411" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="412" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="G41" s="46" t="s">
-        <v>83</v>
+      <c r="C41" s="413"/>
+      <c r="E41" s="413"/>
+      <c r="G41" s="411" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
@@ -9351,23 +9412,25 @@
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="412" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="413"/>
+      <c r="E44" s="413"/>
+      <c r="G44" s="411" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="57" t="n">
+      <c r="B45" s="412" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="G45" s="57" t="s">
-        <v>83</v>
+      <c r="C45" s="413"/>
+      <c r="E45" s="413"/>
+      <c r="G45" s="411" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46"/>
@@ -9622,33 +9685,36 @@
       <c r="G15" s="440"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="441" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="442"/>
+      <c r="E16" s="442"/>
+      <c r="G16" s="440" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="441" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="442"/>
+      <c r="E17" s="442"/>
+      <c r="G17" s="440" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="441" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="442"/>
+      <c r="E18" s="442"/>
+      <c r="G18" s="440" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
@@ -9682,13 +9748,14 @@
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="441" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="442"/>
+      <c r="E22" s="442"/>
+      <c r="G22" s="440" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -9702,23 +9769,25 @@
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="441" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="442"/>
+      <c r="E24" s="442"/>
+      <c r="G24" s="440" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="441" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="442"/>
+      <c r="E25" s="442"/>
+      <c r="G25" s="440" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
@@ -9742,53 +9811,58 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="441" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>83</v>
+      <c r="C28" s="442"/>
+      <c r="E28" s="442"/>
+      <c r="G28" s="440" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="441" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="442"/>
+      <c r="E29" s="442"/>
+      <c r="G29" s="440" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="441" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="442"/>
+      <c r="E30" s="442"/>
+      <c r="G30" s="440" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="441" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="442"/>
+      <c r="E31" s="442"/>
+      <c r="G31" s="440" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="441" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="442"/>
+      <c r="E32" s="442"/>
+      <c r="G32" s="440" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
@@ -9812,53 +9886,58 @@
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="441" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="G35" s="46" t="s">
-        <v>83</v>
+      <c r="C35" s="442"/>
+      <c r="E35" s="442"/>
+      <c r="G35" s="440" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="441" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="G36" s="46" t="s">
-        <v>83</v>
+      <c r="C36" s="442"/>
+      <c r="E36" s="442"/>
+      <c r="G36" s="440" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="441" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="442"/>
+      <c r="E37" s="442"/>
+      <c r="G37" s="440" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="441" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="442"/>
+      <c r="E38" s="442"/>
+      <c r="G38" s="440" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="441" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="442"/>
+      <c r="E39" s="442"/>
+      <c r="G39" s="440" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
@@ -9882,53 +9961,58 @@
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="56" t="n">
+      <c r="B42" s="441" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="G42" s="56" t="s">
-        <v>83</v>
+      <c r="C42" s="442"/>
+      <c r="E42" s="442"/>
+      <c r="G42" s="440" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="56" t="n">
+      <c r="B43" s="441" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="G43" s="56" t="s">
-        <v>83</v>
+      <c r="C43" s="442"/>
+      <c r="E43" s="442"/>
+      <c r="G43" s="440" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="441" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="442"/>
+      <c r="E44" s="442"/>
+      <c r="G44" s="440" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="56" t="n">
+      <c r="B45" s="441" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="G45" s="56" t="s">
-        <v>83</v>
+      <c r="C45" s="442"/>
+      <c r="E45" s="442"/>
+      <c r="G45" s="440" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="57" t="n">
+      <c r="B46" s="441" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="G46" s="57" t="s">
-        <v>83</v>
+      <c r="C46" s="442"/>
+      <c r="E46" s="442"/>
+      <c r="G46" s="440" t="n">
+        <f>((E46-C46)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
@@ -10227,23 +10311,25 @@
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="33" t="n">
+      <c r="B19" s="113" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>83</v>
+      <c r="C19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="G19" s="112" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="113" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="33" t="s">
-        <v>83</v>
+      <c r="C20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="G20" s="112" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -10257,23 +10343,25 @@
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="113" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="33" t="s">
-        <v>83</v>
+      <c r="C22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="G22" s="112" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="113" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="G23" s="33" t="s">
-        <v>83</v>
+      <c r="C23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="G23" s="112" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
@@ -10297,53 +10385,58 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="40" t="n">
+      <c r="B26" s="113" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="G26" s="40" t="s">
-        <v>83</v>
+      <c r="C26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="G26" s="112" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="40" t="n">
+      <c r="B27" s="113" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="G27" s="40" t="s">
-        <v>83</v>
+      <c r="C27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="G27" s="112" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="40" t="n">
+      <c r="B28" s="113" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="G28" s="40" t="s">
-        <v>83</v>
+      <c r="C28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="G28" s="112" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="40" t="n">
+      <c r="B29" s="113" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="G29" s="40" t="s">
-        <v>83</v>
+      <c r="C29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="G29" s="112" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="40" t="n">
+      <c r="B30" s="113" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="G30" s="40" t="s">
-        <v>83</v>
+      <c r="C30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="G30" s="112" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
@@ -10367,53 +10460,58 @@
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="40" t="n">
+      <c r="B33" s="113" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="G33" s="40" t="s">
-        <v>83</v>
+      <c r="C33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="G33" s="112" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="40" t="n">
+      <c r="B34" s="113" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="G34" s="40" t="s">
-        <v>83</v>
+      <c r="C34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="G34" s="112" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="40" t="n">
+      <c r="B35" s="113" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="G35" s="40" t="s">
-        <v>83</v>
+      <c r="C35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="G35" s="112" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="40" t="n">
+      <c r="B36" s="113" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="G36" s="40" t="s">
-        <v>83</v>
+      <c r="C36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="G36" s="112" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="40" t="n">
+      <c r="B37" s="113" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="G37" s="40" t="s">
-        <v>83</v>
+      <c r="C37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="G37" s="112" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
@@ -10437,53 +10535,58 @@
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="49" t="n">
+      <c r="B40" s="113" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="G40" s="49" t="s">
-        <v>83</v>
+      <c r="C40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="G40" s="112" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="49" t="n">
+      <c r="B41" s="113" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="G41" s="49" t="s">
-        <v>83</v>
+      <c r="C41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="G41" s="112" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="49" t="n">
+      <c r="B42" s="113" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="G42" s="49" t="s">
-        <v>83</v>
+      <c r="C42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="G42" s="112" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="49" t="n">
+      <c r="B43" s="113" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="G43" s="49" t="s">
-        <v>83</v>
+      <c r="C43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="G43" s="112" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="49" t="n">
+      <c r="B44" s="113" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="G44" s="49" t="s">
-        <v>83</v>
+      <c r="C44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="G44" s="112" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
@@ -10772,53 +10875,58 @@
       <c r="G15" s="143"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="144" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="G16" s="143" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="144" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="G17" s="143" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="144" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="G18" s="143" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="30" t="n">
+      <c r="B19" s="144" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>83</v>
+      <c r="C19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="G19" s="143" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="30" t="n">
+      <c r="B20" s="144" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="30" t="s">
-        <v>83</v>
+      <c r="C20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="G20" s="143" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -10842,53 +10950,58 @@
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="144" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="G23" s="143" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="144" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="G24" s="143" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="144" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="G25" s="143" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="144" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>83</v>
+      <c r="C26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="G26" s="143" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="144" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="G27" s="36" t="s">
-        <v>83</v>
+      <c r="C27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="G27" s="143" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
@@ -10912,53 +11025,58 @@
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="144" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="G30" s="143" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="144" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="G31" s="143" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="144" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="G32" s="143" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="144" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="G33" s="143" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="144" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>83</v>
+      <c r="C34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="G34" s="143" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
@@ -10982,53 +11100,58 @@
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="144" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="G37" s="143" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="144" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="G38" s="143" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="144" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="G39" s="143" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="144" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="G40" s="143" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="144" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="G41" s="46" t="s">
-        <v>83</v>
+      <c r="C41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="G41" s="143" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
@@ -11337,53 +11460,58 @@
       <c r="G15" s="175"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="176" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="G16" s="175" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="176" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="G17" s="175" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="176" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="G18" s="175" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="30" t="n">
+      <c r="B19" s="176" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>83</v>
+      <c r="C19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="G19" s="175" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="30" t="n">
+      <c r="B20" s="176" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="30" t="s">
-        <v>83</v>
+      <c r="C20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="G20" s="175" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -11407,53 +11535,58 @@
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="176" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="G23" s="175" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="176" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="G24" s="175" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="176" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="G25" s="175" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="176" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>83</v>
+      <c r="C26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="G26" s="175" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="176" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="G27" s="36" t="s">
-        <v>83</v>
+      <c r="C27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="G27" s="175" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
@@ -11477,53 +11610,58 @@
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="176" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="G30" s="175" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="176" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="G31" s="175" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="176" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="G32" s="175" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="176" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="G33" s="175" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="176" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>83</v>
+      <c r="C34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="G34" s="175" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
@@ -11547,53 +11685,58 @@
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="176" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="G37" s="175" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="176" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="G38" s="175" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="176" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="G39" s="175" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="176" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="G40" s="175" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="176" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="G41" s="46" t="s">
-        <v>83</v>
+      <c r="C41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="G41" s="175" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
@@ -11617,33 +11760,36 @@
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="176" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="G44" s="175" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="56" t="n">
+      <c r="B45" s="176" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="G45" s="56" t="s">
-        <v>83</v>
+      <c r="C45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="G45" s="175" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="57" t="n">
+      <c r="B46" s="176" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="G46" s="57" t="s">
-        <v>83</v>
+      <c r="C46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="G46" s="175" t="n">
+        <f>((E46-C46)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
@@ -11912,13 +12058,14 @@
       <c r="G15" s="206"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="207" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="G16" s="206" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
@@ -11962,43 +12109,47 @@
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="207" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>83</v>
+      <c r="C21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="G21" s="206" t="n">
+        <f>((E21-C21)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="207" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="G22" s="206" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="207" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="G23" s="206" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="207" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="G24" s="206" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
@@ -12022,53 +12173,58 @@
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="207" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="43" t="s">
-        <v>83</v>
+      <c r="C27" s="208"/>
+      <c r="E27" s="208"/>
+      <c r="G27" s="206" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="207" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>83</v>
+      <c r="C28" s="208"/>
+      <c r="E28" s="208"/>
+      <c r="G28" s="206" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="207" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="208"/>
+      <c r="E29" s="208"/>
+      <c r="G29" s="206" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="207" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="208"/>
+      <c r="E30" s="208"/>
+      <c r="G30" s="206" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="207" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="G31" s="206" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
@@ -12092,53 +12248,58 @@
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="46" t="n">
+      <c r="B34" s="207" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="G34" s="46" t="s">
-        <v>83</v>
+      <c r="C34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="G34" s="206" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="207" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="G35" s="46" t="s">
-        <v>83</v>
+      <c r="C35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="G35" s="206" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="207" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="G36" s="46" t="s">
-        <v>83</v>
+      <c r="C36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="G36" s="206" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="207" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="G37" s="206" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="207" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="G38" s="206" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
@@ -12162,53 +12323,58 @@
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="56" t="n">
+      <c r="B41" s="207" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="G41" s="56" t="s">
-        <v>83</v>
+      <c r="C41" s="208"/>
+      <c r="E41" s="208"/>
+      <c r="G41" s="206" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="56" t="n">
+      <c r="B42" s="207" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="G42" s="56" t="s">
-        <v>83</v>
+      <c r="C42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="G42" s="206" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="56" t="n">
+      <c r="B43" s="207" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="G43" s="56" t="s">
-        <v>83</v>
+      <c r="C43" s="208"/>
+      <c r="E43" s="208"/>
+      <c r="G43" s="206" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="207" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="G44" s="206" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="57" t="n">
+      <c r="B45" s="207" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="G45" s="57" t="s">
-        <v>83</v>
+      <c r="C45" s="208"/>
+      <c r="E45" s="208"/>
+      <c r="G45" s="206" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
@@ -12502,53 +12668,58 @@
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="36" t="n">
+      <c r="B18" s="238" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="G18" s="36" t="s">
-        <v>83</v>
+      <c r="C18" s="239"/>
+      <c r="E18" s="239"/>
+      <c r="G18" s="237" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="36" t="n">
+      <c r="B19" s="238" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>83</v>
+      <c r="C19" s="239"/>
+      <c r="E19" s="239"/>
+      <c r="G19" s="237" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="36" t="n">
+      <c r="B20" s="238" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="G20" s="36" t="s">
-        <v>83</v>
+      <c r="C20" s="239"/>
+      <c r="E20" s="239"/>
+      <c r="G20" s="237" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="238" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>83</v>
+      <c r="C21" s="239"/>
+      <c r="E21" s="239"/>
+      <c r="G21" s="237" t="n">
+        <f>((E21-C21)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="238" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="239"/>
+      <c r="E22" s="239"/>
+      <c r="G22" s="237" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12572,53 +12743,58 @@
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="43" t="n">
+      <c r="B25" s="238" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="43" t="s">
-        <v>83</v>
+      <c r="C25" s="239"/>
+      <c r="E25" s="239"/>
+      <c r="G25" s="237" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="43" t="n">
+      <c r="B26" s="238" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="G26" s="43" t="s">
-        <v>83</v>
+      <c r="C26" s="239"/>
+      <c r="E26" s="239"/>
+      <c r="G26" s="237" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="238" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="43" t="s">
-        <v>83</v>
+      <c r="C27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="G27" s="237" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="238" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>83</v>
+      <c r="C28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="G28" s="237" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="238" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="G29" s="237" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
@@ -12642,53 +12818,58 @@
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="238" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="G32" s="237" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="238" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="G33" s="237" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="238" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>83</v>
+      <c r="C34" s="239"/>
+      <c r="E34" s="239"/>
+      <c r="G34" s="237" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="43" t="n">
+      <c r="B35" s="238" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="G35" s="43" t="s">
-        <v>83</v>
+      <c r="C35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="G35" s="237" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="43" t="n">
+      <c r="B36" s="238" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="G36" s="43" t="s">
-        <v>83</v>
+      <c r="C36" s="239"/>
+      <c r="E36" s="239"/>
+      <c r="G36" s="237" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
@@ -12712,53 +12893,58 @@
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="238" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="239"/>
+      <c r="E39" s="239"/>
+      <c r="G39" s="237" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="238" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="239"/>
+      <c r="E40" s="239"/>
+      <c r="G40" s="237" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="238" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="G41" s="46" t="s">
-        <v>83</v>
+      <c r="C41" s="239"/>
+      <c r="E41" s="239"/>
+      <c r="G41" s="237" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="46" t="n">
+      <c r="B42" s="238" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="G42" s="46" t="s">
-        <v>83</v>
+      <c r="C42" s="239"/>
+      <c r="E42" s="239"/>
+      <c r="G42" s="237" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="46" t="n">
+      <c r="B43" s="238" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="G43" s="46" t="s">
-        <v>83</v>
+      <c r="C43" s="239"/>
+      <c r="E43" s="239"/>
+      <c r="G43" s="237" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
@@ -12782,13 +12968,14 @@
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="57" t="n">
+      <c r="B46" s="238" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="G46" s="57" t="s">
-        <v>83</v>
+      <c r="C46" s="239"/>
+      <c r="E46" s="239"/>
+      <c r="G46" s="237" t="n">
+        <f>((E46-C46)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
@@ -13056,33 +13243,36 @@
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="268" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="G17" s="267" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="268" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="G18" s="267" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="30" t="n">
+      <c r="B19" s="268" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>83</v>
+      <c r="C19" s="269"/>
+      <c r="E19" s="269"/>
+      <c r="G19" s="267" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
@@ -13106,53 +13296,58 @@
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="268" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="269"/>
+      <c r="E22" s="269"/>
+      <c r="G22" s="267" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="268" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="269"/>
+      <c r="E23" s="269"/>
+      <c r="G23" s="267" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="268" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="269"/>
+      <c r="E24" s="269"/>
+      <c r="G24" s="267" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="268" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="269"/>
+      <c r="E25" s="269"/>
+      <c r="G25" s="267" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="268" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>83</v>
+      <c r="C26" s="269"/>
+      <c r="E26" s="269"/>
+      <c r="G26" s="267" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
@@ -13176,53 +13371,58 @@
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="268" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="269"/>
+      <c r="E29" s="269"/>
+      <c r="G29" s="267" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="268" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="G30" s="267" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="268" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="G31" s="267" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="268" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="G32" s="267" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="268" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="G33" s="267" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
@@ -13246,33 +13446,36 @@
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="268" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="G36" s="46" t="s">
-        <v>83</v>
+      <c r="C36" s="269"/>
+      <c r="E36" s="269"/>
+      <c r="G36" s="267" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="268" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="269"/>
+      <c r="E37" s="269"/>
+      <c r="G37" s="267" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="268" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="269"/>
+      <c r="E38" s="269"/>
+      <c r="G38" s="267" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
@@ -13286,13 +13489,14 @@
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="268" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="269"/>
+      <c r="E40" s="269"/>
+      <c r="G40" s="267" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
@@ -13316,33 +13520,36 @@
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="56" t="n">
+      <c r="B43" s="268" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="G43" s="56" t="s">
-        <v>83</v>
+      <c r="C43" s="269"/>
+      <c r="E43" s="269"/>
+      <c r="G43" s="267" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="268" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="269"/>
+      <c r="E44" s="269"/>
+      <c r="G44" s="267" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="57" t="n">
+      <c r="B45" s="268" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="G45" s="57" t="s">
-        <v>83</v>
+      <c r="C45" s="269"/>
+      <c r="E45" s="269"/>
+      <c r="G45" s="267" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46"/>
@@ -13597,23 +13804,25 @@
       <c r="G15" s="295"/>
     </row>
     <row r="16" ht="14.4" customHeight="true">
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="296" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>83</v>
+      <c r="C16" s="297"/>
+      <c r="E16" s="297"/>
+      <c r="G16" s="295" t="n">
+        <f>((E16-C16)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="296" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="G17" s="295" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
@@ -13637,53 +13846,58 @@
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="36" t="n">
+      <c r="B20" s="296" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="G20" s="36" t="s">
-        <v>83</v>
+      <c r="C20" s="297"/>
+      <c r="E20" s="297"/>
+      <c r="G20" s="295" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="296" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>83</v>
+      <c r="C21" s="297"/>
+      <c r="E21" s="297"/>
+      <c r="G21" s="295" t="n">
+        <f>((E21-C21)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="296" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>83</v>
+      <c r="C22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="G22" s="295" t="n">
+        <f>((E22-C22)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="296" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="36" t="s">
-        <v>83</v>
+      <c r="C23" s="297"/>
+      <c r="E23" s="297"/>
+      <c r="G23" s="295" t="n">
+        <f>((E23-C23)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="296" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="297"/>
+      <c r="E24" s="297"/>
+      <c r="G24" s="295" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
@@ -13707,53 +13921,58 @@
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="296" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="43" t="s">
-        <v>83</v>
+      <c r="C27" s="297"/>
+      <c r="E27" s="297"/>
+      <c r="G27" s="295" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="296" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="G28" s="43" t="s">
-        <v>83</v>
+      <c r="C28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="G28" s="295" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="296" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="G29" s="43" t="s">
-        <v>83</v>
+      <c r="C29" s="297"/>
+      <c r="E29" s="297"/>
+      <c r="G29" s="295" t="n">
+        <f>((E29-C29)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="296" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="G30" s="43" t="s">
-        <v>83</v>
+      <c r="C30" s="297"/>
+      <c r="E30" s="297"/>
+      <c r="G30" s="295" t="n">
+        <f>((E30-C30)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="296" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="297"/>
+      <c r="E31" s="297"/>
+      <c r="G31" s="295" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
@@ -13777,53 +13996,58 @@
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="46" t="n">
+      <c r="B34" s="296" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="G34" s="46" t="s">
-        <v>83</v>
+      <c r="C34" s="297"/>
+      <c r="E34" s="297"/>
+      <c r="G34" s="295" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="46" t="n">
+      <c r="B35" s="296" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="G35" s="46" t="s">
-        <v>83</v>
+      <c r="C35" s="297"/>
+      <c r="E35" s="297"/>
+      <c r="G35" s="295" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
-      <c r="B36" s="46" t="n">
+      <c r="B36" s="296" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="G36" s="46" t="s">
-        <v>83</v>
+      <c r="C36" s="297"/>
+      <c r="E36" s="297"/>
+      <c r="G36" s="295" t="n">
+        <f>((E36-C36)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="true">
-      <c r="B37" s="46" t="n">
+      <c r="B37" s="296" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="G37" s="46" t="s">
-        <v>83</v>
+      <c r="C37" s="297"/>
+      <c r="E37" s="297"/>
+      <c r="G37" s="295" t="n">
+        <f>((E37-C37)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="296" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="G38" s="295" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
@@ -13847,13 +14071,14 @@
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="56" t="n">
+      <c r="B41" s="296" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="G41" s="56" t="s">
-        <v>83</v>
+      <c r="C41" s="297"/>
+      <c r="E41" s="297"/>
+      <c r="G41" s="295" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
@@ -13867,33 +14092,36 @@
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
-      <c r="B43" s="56" t="n">
+      <c r="B43" s="296" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="G43" s="56" t="s">
-        <v>83</v>
+      <c r="C43" s="297"/>
+      <c r="E43" s="297"/>
+      <c r="G43" s="295" t="n">
+        <f>((E43-C43)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="true">
-      <c r="B44" s="56" t="n">
+      <c r="B44" s="296" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="G44" s="56" t="s">
-        <v>83</v>
+      <c r="C44" s="297"/>
+      <c r="E44" s="297"/>
+      <c r="G44" s="295" t="n">
+        <f>((E44-C44)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="56" t="n">
+      <c r="B45" s="296" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="G45" s="56" t="s">
-        <v>83</v>
+      <c r="C45" s="297"/>
+      <c r="E45" s="297"/>
+      <c r="G45" s="295" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
@@ -14167,53 +14395,58 @@
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="true">
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="325" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
+      <c r="C17" s="326"/>
+      <c r="E17" s="326"/>
+      <c r="G17" s="324" t="n">
+        <f>((E17-C17)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="true">
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="325" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>83</v>
+      <c r="C18" s="326"/>
+      <c r="E18" s="326"/>
+      <c r="G18" s="324" t="n">
+        <f>((E18-C18)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
-      <c r="B19" s="30" t="n">
+      <c r="B19" s="325" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>83</v>
+      <c r="C19" s="326"/>
+      <c r="E19" s="326"/>
+      <c r="G19" s="324" t="n">
+        <f>((E19-C19)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
-      <c r="B20" s="30" t="n">
+      <c r="B20" s="325" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="30" t="s">
-        <v>83</v>
+      <c r="C20" s="326"/>
+      <c r="E20" s="326"/>
+      <c r="G20" s="324" t="n">
+        <f>((E20-C20)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
-      <c r="B21" s="30" t="n">
+      <c r="B21" s="325" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="G21" s="30" t="s">
-        <v>83</v>
+      <c r="C21" s="326"/>
+      <c r="E21" s="326"/>
+      <c r="G21" s="324" t="n">
+        <f>((E21-C21)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="true">
@@ -14237,53 +14470,58 @@
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="true">
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="325" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>83</v>
+      <c r="C24" s="326"/>
+      <c r="E24" s="326"/>
+      <c r="G24" s="324" t="n">
+        <f>((E24-C24)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="true">
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="325" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="36" t="s">
-        <v>83</v>
+      <c r="C25" s="326"/>
+      <c r="E25" s="326"/>
+      <c r="G25" s="324" t="n">
+        <f>((E25-C25)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="325" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>83</v>
+      <c r="C26" s="326"/>
+      <c r="E26" s="326"/>
+      <c r="G26" s="324" t="n">
+        <f>((E26-C26)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="325" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="G27" s="36" t="s">
-        <v>83</v>
+      <c r="C27" s="326"/>
+      <c r="E27" s="326"/>
+      <c r="G27" s="324" t="n">
+        <f>((E27-C27)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="true">
-      <c r="B28" s="36" t="n">
+      <c r="B28" s="325" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="G28" s="36" t="s">
-        <v>83</v>
+      <c r="C28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="G28" s="324" t="n">
+        <f>((E28-C28)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
@@ -14307,53 +14545,58 @@
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="true">
-      <c r="B31" s="43" t="n">
+      <c r="B31" s="325" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>83</v>
+      <c r="C31" s="326"/>
+      <c r="E31" s="326"/>
+      <c r="G31" s="324" t="n">
+        <f>((E31-C31)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="true">
-      <c r="B32" s="43" t="n">
+      <c r="B32" s="325" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="43" t="s">
-        <v>83</v>
+      <c r="C32" s="326"/>
+      <c r="E32" s="326"/>
+      <c r="G32" s="324" t="n">
+        <f>((E32-C32)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="true">
-      <c r="B33" s="43" t="n">
+      <c r="B33" s="325" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>83</v>
+      <c r="C33" s="326"/>
+      <c r="E33" s="326"/>
+      <c r="G33" s="324" t="n">
+        <f>((E33-C33)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="true">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="325" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="43" t="s">
-        <v>83</v>
+      <c r="C34" s="326"/>
+      <c r="E34" s="326"/>
+      <c r="G34" s="324" t="n">
+        <f>((E34-C34)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="true">
-      <c r="B35" s="43" t="n">
+      <c r="B35" s="325" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="G35" s="43" t="s">
-        <v>83</v>
+      <c r="C35" s="326"/>
+      <c r="E35" s="326"/>
+      <c r="G35" s="324" t="n">
+        <f>((E35-C35)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="true">
@@ -14377,53 +14620,58 @@
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="true">
-      <c r="B38" s="46" t="n">
+      <c r="B38" s="325" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="G38" s="46" t="s">
-        <v>83</v>
+      <c r="C38" s="326"/>
+      <c r="E38" s="326"/>
+      <c r="G38" s="324" t="n">
+        <f>((E38-C38)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="true">
-      <c r="B39" s="46" t="n">
+      <c r="B39" s="325" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="G39" s="46" t="s">
-        <v>83</v>
+      <c r="C39" s="326"/>
+      <c r="E39" s="326"/>
+      <c r="G39" s="324" t="n">
+        <f>((E39-C39)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="true">
-      <c r="B40" s="46" t="n">
+      <c r="B40" s="325" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="G40" s="46" t="s">
-        <v>83</v>
+      <c r="C40" s="326"/>
+      <c r="E40" s="326"/>
+      <c r="G40" s="324" t="n">
+        <f>((E40-C40)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
-      <c r="B41" s="46" t="n">
+      <c r="B41" s="325" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="G41" s="46" t="s">
-        <v>83</v>
+      <c r="C41" s="326"/>
+      <c r="E41" s="326"/>
+      <c r="G41" s="324" t="n">
+        <f>((E41-C41)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="true">
-      <c r="B42" s="46" t="n">
+      <c r="B42" s="325" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="G42" s="46" t="s">
-        <v>83</v>
+      <c r="C42" s="326"/>
+      <c r="E42" s="326"/>
+      <c r="G42" s="324" t="n">
+        <f>((E42-C42)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="true">
@@ -14447,23 +14695,25 @@
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">
-      <c r="B45" s="56" t="n">
+      <c r="B45" s="325" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="G45" s="56" t="s">
-        <v>83</v>
+      <c r="C45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="G45" s="324" t="n">
+        <f>((E45-C45)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="true">
-      <c r="B46" s="57" t="n">
+      <c r="B46" s="325" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="G46" s="57" t="s">
-        <v>83</v>
+      <c r="C46" s="326"/>
+      <c r="E46" s="326"/>
+      <c r="G46" s="324" t="n">
+        <f>((E46-C46)*24)-1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="true">
